--- a/i18n/tr.xlsx
+++ b/i18n/tr.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matej\Programming\wingsearch\i18n\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matej\Programming\wingsearch\i18n\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5993BFDE-A8BB-48F8-8022-DB17991726CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6891748-9271-4621-9C1C-D398E47F563B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Birds" sheetId="1" r:id="rId1"/>
@@ -18,8 +18,8 @@
     <sheet name="Other" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="ExternalData_1" localSheetId="0" hidden="1">Birds!$A$1:$F$262</definedName>
-    <definedName name="ExternalData_2" localSheetId="1" hidden="1">Bonuses!$A$1:$G$34</definedName>
+    <definedName name="ExternalData_1" localSheetId="0" hidden="1">Birds!$A$1:$F$357</definedName>
+    <definedName name="ExternalData_2" localSheetId="1" hidden="1">Bonuses!$A$1:$G$39</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1523" uniqueCount="751">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1718" uniqueCount="946">
   <si>
     <t>id</t>
   </si>
@@ -2295,6 +2295,591 @@
   </si>
   <si>
     <t>Taçlı Ötleğen</t>
+  </si>
+  <si>
+    <t>Abbott's Booby</t>
+  </si>
+  <si>
+    <t>Papasula abbotti</t>
+  </si>
+  <si>
+    <t>Australasian Pipit</t>
+  </si>
+  <si>
+    <t>Anthus novaeseelandiae</t>
+  </si>
+  <si>
+    <t>Australasian Shoveler</t>
+  </si>
+  <si>
+    <t>Spatula rhynchotis</t>
+  </si>
+  <si>
+    <t>Australian Ibis</t>
+  </si>
+  <si>
+    <t>Threskiornis moluccus</t>
+  </si>
+  <si>
+    <t>Australian Magpie</t>
+  </si>
+  <si>
+    <t>Gymnorhina tibicen</t>
+  </si>
+  <si>
+    <t>Australian Owlet-Nightjar</t>
+  </si>
+  <si>
+    <t>Aegotheles cristatus</t>
+  </si>
+  <si>
+    <t>Australian Raven</t>
+  </si>
+  <si>
+    <t>Corvus coronoides</t>
+  </si>
+  <si>
+    <t>Australian Reed Warbler</t>
+  </si>
+  <si>
+    <t>Acrocephalus australis</t>
+  </si>
+  <si>
+    <t>Australian Shelduck</t>
+  </si>
+  <si>
+    <t>Tadorna tadornoides</t>
+  </si>
+  <si>
+    <t>Australian Zebra Finch</t>
+  </si>
+  <si>
+    <t>Taeniopygia castanotis</t>
+  </si>
+  <si>
+    <t>Black Noddy</t>
+  </si>
+  <si>
+    <t>Anous minutus</t>
+  </si>
+  <si>
+    <t>Black Swan</t>
+  </si>
+  <si>
+    <t>Cygnus atratus</t>
+  </si>
+  <si>
+    <t>Black-Shouldered Kite</t>
+  </si>
+  <si>
+    <t>Elanus axillaris</t>
+  </si>
+  <si>
+    <t>Blyth's Hornbill</t>
+  </si>
+  <si>
+    <t>Rhyticeros plicatus</t>
+  </si>
+  <si>
+    <t>Brolga</t>
+  </si>
+  <si>
+    <t>Antigone rubicunda</t>
+  </si>
+  <si>
+    <t>Brown Falcon</t>
+  </si>
+  <si>
+    <t>Falco berigora</t>
+  </si>
+  <si>
+    <t>Budgerigar</t>
+  </si>
+  <si>
+    <t>Melopsittacus undulatus</t>
+  </si>
+  <si>
+    <t>Cockatiel</t>
+  </si>
+  <si>
+    <t>Nymphicus hollandicus</t>
+  </si>
+  <si>
+    <t>Count Raggi's Bird-of-Paradise</t>
+  </si>
+  <si>
+    <t>Paradisaea raggiana</t>
+  </si>
+  <si>
+    <t>Crested Pigeon</t>
+  </si>
+  <si>
+    <t>Ocyphaps lophotes</t>
+  </si>
+  <si>
+    <t>Crimson Chat</t>
+  </si>
+  <si>
+    <t>Epthianura tricolor</t>
+  </si>
+  <si>
+    <t>Eastern Rosella</t>
+  </si>
+  <si>
+    <t>Platycercus eximius</t>
+  </si>
+  <si>
+    <t>Eastern Whipbird</t>
+  </si>
+  <si>
+    <t>Psophodes olivaceus</t>
+  </si>
+  <si>
+    <t>Emu</t>
+  </si>
+  <si>
+    <t>Dromaius novaehollandiae</t>
+  </si>
+  <si>
+    <t>Galah</t>
+  </si>
+  <si>
+    <t>Eolophus roseicapilla</t>
+  </si>
+  <si>
+    <t>Golden-Headed Cisticola</t>
+  </si>
+  <si>
+    <t>Cisticola exilis</t>
+  </si>
+  <si>
+    <t>Gould's Finch</t>
+  </si>
+  <si>
+    <t>Erythrura gouldiae</t>
+  </si>
+  <si>
+    <t>Green Pygmy-Goose</t>
+  </si>
+  <si>
+    <t>Nettapus pulchellus</t>
+  </si>
+  <si>
+    <t>Grey Butcherbird</t>
+  </si>
+  <si>
+    <t>Cracticus torquatus</t>
+  </si>
+  <si>
+    <t>Grey Shrikethrush</t>
+  </si>
+  <si>
+    <t>Colluricincla harmonica</t>
+  </si>
+  <si>
+    <t>Grey Teal</t>
+  </si>
+  <si>
+    <t>Anas gracilis</t>
+  </si>
+  <si>
+    <t>Grey Warbler</t>
+  </si>
+  <si>
+    <t>Gerygone igata</t>
+  </si>
+  <si>
+    <t>Grey-Headed Mannikin</t>
+  </si>
+  <si>
+    <t>Lonchura caniceps</t>
+  </si>
+  <si>
+    <t>Horsfield's Bronze-Cuckoo</t>
+  </si>
+  <si>
+    <t>Chrysococcyx basalis</t>
+  </si>
+  <si>
+    <t>Horsfield's Bushlark</t>
+  </si>
+  <si>
+    <t>Mirafra javanica</t>
+  </si>
+  <si>
+    <t>Kākāpо̄</t>
+  </si>
+  <si>
+    <t>Strigops habroptila</t>
+  </si>
+  <si>
+    <t>Kea</t>
+  </si>
+  <si>
+    <t>Nestor notabilis</t>
+  </si>
+  <si>
+    <t>Kelp Gull</t>
+  </si>
+  <si>
+    <t>Larus dominicanus</t>
+  </si>
+  <si>
+    <t>Kererū</t>
+  </si>
+  <si>
+    <t>Hemiphaga novaeseelandiae</t>
+  </si>
+  <si>
+    <t>Korimako</t>
+  </si>
+  <si>
+    <t>Anthornis melanura</t>
+  </si>
+  <si>
+    <t>Laughing Kookaburra</t>
+  </si>
+  <si>
+    <t>Dacelo novaeguineae</t>
+  </si>
+  <si>
+    <t>Lesser Frigatebird</t>
+  </si>
+  <si>
+    <t>Fregata ariel</t>
+  </si>
+  <si>
+    <t>Lewin's Honeyeater</t>
+  </si>
+  <si>
+    <t>Meliphaga lewinii</t>
+  </si>
+  <si>
+    <t>Little Penguin</t>
+  </si>
+  <si>
+    <t>Eudyptula minor</t>
+  </si>
+  <si>
+    <t>Little Pied Cormorant</t>
+  </si>
+  <si>
+    <t>Microcarbo melanoleucos</t>
+  </si>
+  <si>
+    <t>Magpie-Lark</t>
+  </si>
+  <si>
+    <t>Grallina cyanoleuca</t>
+  </si>
+  <si>
+    <t>Major Mitchell's Cockatoo</t>
+  </si>
+  <si>
+    <t>Lophochroa leadbeateri</t>
+  </si>
+  <si>
+    <t>Malleefowl</t>
+  </si>
+  <si>
+    <t>Leipoa ocellata</t>
+  </si>
+  <si>
+    <t>Maned Duck</t>
+  </si>
+  <si>
+    <t>Chenonetta jubata</t>
+  </si>
+  <si>
+    <t>Many-Colored Fruit Dove</t>
+  </si>
+  <si>
+    <t>Ptilinopus perousii</t>
+  </si>
+  <si>
+    <t>Masked Lapwing</t>
+  </si>
+  <si>
+    <t>Vanellus miles</t>
+  </si>
+  <si>
+    <t>Mistletoebird</t>
+  </si>
+  <si>
+    <t>Dicaeum hirundinaceum</t>
+  </si>
+  <si>
+    <t>Musk Duck</t>
+  </si>
+  <si>
+    <t>Biziura lobata</t>
+  </si>
+  <si>
+    <t>New Holland Honeyeater</t>
+  </si>
+  <si>
+    <t>Phylidonyris novaehollandiae</t>
+  </si>
+  <si>
+    <t>Noisy Miner</t>
+  </si>
+  <si>
+    <t>Manorina melanocephala</t>
+  </si>
+  <si>
+    <t>North Island Brown Kiwi</t>
+  </si>
+  <si>
+    <t>Apteryx mantelli</t>
+  </si>
+  <si>
+    <t>Orange-Footed Scrubfowl</t>
+  </si>
+  <si>
+    <t>Megapodius reinwardt</t>
+  </si>
+  <si>
+    <t>Pacific Black Duck</t>
+  </si>
+  <si>
+    <t>Anas superciliosa</t>
+  </si>
+  <si>
+    <t>Peaceful Dove</t>
+  </si>
+  <si>
+    <t>Geopelia placida</t>
+  </si>
+  <si>
+    <t>Pesquet's Parrot</t>
+  </si>
+  <si>
+    <t>Psittrichas fulgidus</t>
+  </si>
+  <si>
+    <t>Pheasant Coucal</t>
+  </si>
+  <si>
+    <t>Centropus phasianinus</t>
+  </si>
+  <si>
+    <t>Pink-Eared Duck</t>
+  </si>
+  <si>
+    <t>Malacorhynchus membranaceus</t>
+  </si>
+  <si>
+    <t>Plains-Wanderer</t>
+  </si>
+  <si>
+    <t>Pedionomus torquatus</t>
+  </si>
+  <si>
+    <t>Princess Stephanie's Astrapia</t>
+  </si>
+  <si>
+    <t>Astrapia stephaniae</t>
+  </si>
+  <si>
+    <t>Pūkeko</t>
+  </si>
+  <si>
+    <t>Porphyrio melanotus</t>
+  </si>
+  <si>
+    <t>Rainbow Lorikeet</t>
+  </si>
+  <si>
+    <t>Trichoglossus moluccanus</t>
+  </si>
+  <si>
+    <t>Red Wattlebird</t>
+  </si>
+  <si>
+    <t>Anthochaera carunculata</t>
+  </si>
+  <si>
+    <t>Red-Backed Fairywren</t>
+  </si>
+  <si>
+    <t>Malurus melanocephalus</t>
+  </si>
+  <si>
+    <t>Red-Capped Robin</t>
+  </si>
+  <si>
+    <t>Petroica goodenovii</t>
+  </si>
+  <si>
+    <t>Red-Necked Avocet</t>
+  </si>
+  <si>
+    <t>Recurvirostra novaehollandiae</t>
+  </si>
+  <si>
+    <t>Red-Winged Parrot</t>
+  </si>
+  <si>
+    <t>Aprosmictus erythropterus</t>
+  </si>
+  <si>
+    <t>Regent Bowerbird</t>
+  </si>
+  <si>
+    <t>Sericulus chrysocephalus</t>
+  </si>
+  <si>
+    <t>Royal Spoonbill</t>
+  </si>
+  <si>
+    <t>Platalea regia</t>
+  </si>
+  <si>
+    <t>Rufous Night-Heron</t>
+  </si>
+  <si>
+    <t>Nycticorax caledonicus</t>
+  </si>
+  <si>
+    <t>Rufous Owl</t>
+  </si>
+  <si>
+    <t>Ninox rufa</t>
+  </si>
+  <si>
+    <t>Rufous-Banded Honeyeater</t>
+  </si>
+  <si>
+    <t>Conopophila albogularis</t>
+  </si>
+  <si>
+    <t>Sacred Kingfisher</t>
+  </si>
+  <si>
+    <t>Todiramphus sanctus</t>
+  </si>
+  <si>
+    <t>Silvereye</t>
+  </si>
+  <si>
+    <t>Zosterops lateralis</t>
+  </si>
+  <si>
+    <t>South Island Robin</t>
+  </si>
+  <si>
+    <t>Petroica australis</t>
+  </si>
+  <si>
+    <t>Southern Cassowary</t>
+  </si>
+  <si>
+    <t>Casuarius casuarius</t>
+  </si>
+  <si>
+    <t>Spangled Drongo</t>
+  </si>
+  <si>
+    <t>Dicrurus bracteatus</t>
+  </si>
+  <si>
+    <t>Splendid Fairywren</t>
+  </si>
+  <si>
+    <t>Malurus splendens</t>
+  </si>
+  <si>
+    <t>Spotless Crake</t>
+  </si>
+  <si>
+    <t>Zapornia tabuensis</t>
+  </si>
+  <si>
+    <t>Stubble Quail</t>
+  </si>
+  <si>
+    <t>Coturnix pectoralis</t>
+  </si>
+  <si>
+    <t>Sulphur-Crested Cockatoo</t>
+  </si>
+  <si>
+    <t>Cacatua galerita</t>
+  </si>
+  <si>
+    <t>Superb Lyrebird</t>
+  </si>
+  <si>
+    <t>Menura novaehollandiae</t>
+  </si>
+  <si>
+    <t>Tawny Frogmouth</t>
+  </si>
+  <si>
+    <t>Podargus strigoides</t>
+  </si>
+  <si>
+    <t>Tūī</t>
+  </si>
+  <si>
+    <t>Prosthemadera novaeseelandiae</t>
+  </si>
+  <si>
+    <t>Wedge-Tailed Eagle</t>
+  </si>
+  <si>
+    <t>Aquila audax</t>
+  </si>
+  <si>
+    <t>Welcome Swallow</t>
+  </si>
+  <si>
+    <t>Hirundo neoxena</t>
+  </si>
+  <si>
+    <t>White-Bellied Sea-Eagle</t>
+  </si>
+  <si>
+    <t>Haliaeetus leucogaster</t>
+  </si>
+  <si>
+    <t>White-Breasted Woodswallow</t>
+  </si>
+  <si>
+    <t>Artamus leucoryn</t>
+  </si>
+  <si>
+    <t>White-Faced Heron</t>
+  </si>
+  <si>
+    <t>Egretta novaehollandiae</t>
+  </si>
+  <si>
+    <t>Willie-Wagtail</t>
+  </si>
+  <si>
+    <t>Rhipidura leucophrys</t>
+  </si>
+  <si>
+    <t>Wrybill</t>
+  </si>
+  <si>
+    <t>Anarhynchus frontalis</t>
+  </si>
+  <si>
+    <t>Forest Data Analyst</t>
+  </si>
+  <si>
+    <t>Grassland Data Analyst</t>
+  </si>
+  <si>
+    <t>Mechanical Engineer</t>
+  </si>
+  <si>
+    <t>Site Selection Expert</t>
+  </si>
+  <si>
+    <t>Wetland Data Analyst</t>
   </si>
 </sst>
 </file>
@@ -2335,7 +2920,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normálna" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="11">
     <dxf>
@@ -2416,8 +3001,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{24256CD6-671B-49BB-A76A-BCA812A8DD0C}" name="birds" displayName="birds" ref="A1:F262" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:F262" xr:uid="{A51C43BE-DDEC-40D6-92FD-3C4BA38F764F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{24256CD6-671B-49BB-A76A-BCA812A8DD0C}" name="birds" displayName="birds" ref="A1:F357" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:F357" xr:uid="{A51C43BE-DDEC-40D6-92FD-3C4BA38F764F}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{25ED0C0D-B939-406D-8B67-A9F9A8641DEE}" uniqueName="1" name="id" queryTableFieldId="1"/>
     <tableColumn id="2" xr3:uid="{72C3DFD8-3F0B-483B-8A68-A0BCCABA3E13}" uniqueName="2" name="English name" queryTableFieldId="2" dataDxfId="10"/>
@@ -2431,8 +3016,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{6299CC7B-9130-4C9A-A587-FBEBFEEB5D0F}" name="bonuses" displayName="bonuses" ref="A1:G34" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:G34" xr:uid="{35D50B44-8490-4501-A753-CAF3081EA540}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{6299CC7B-9130-4C9A-A587-FBEBFEEB5D0F}" name="bonuses" displayName="bonuses" ref="A1:G39" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:G39" xr:uid="{35D50B44-8490-4501-A753-CAF3081EA540}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{339841CB-3C69-4C68-9375-1B8F78B4B947}" uniqueName="1" name="id" queryTableFieldId="1"/>
     <tableColumn id="2" xr3:uid="{7CD88691-F9EE-4A08-8F51-475C5497AC67}" uniqueName="2" name="English name" queryTableFieldId="2" dataDxfId="5"/>
@@ -2720,23 +3305,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F262"/>
+  <dimension ref="A1:F357"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D262"/>
+    <sheetView topLeftCell="A271" workbookViewId="0">
+      <selection activeCell="A263" sqref="A263:C357"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.46484375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.86328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.46484375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.9296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2756,7 +3341,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2</v>
       </c>
@@ -2776,7 +3361,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>3</v>
       </c>
@@ -2796,7 +3381,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>4</v>
       </c>
@@ -2816,7 +3401,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>5</v>
       </c>
@@ -2836,7 +3421,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>6</v>
       </c>
@@ -2856,7 +3441,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>7</v>
       </c>
@@ -2876,7 +3461,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>8</v>
       </c>
@@ -2896,7 +3481,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>9</v>
       </c>
@@ -2916,7 +3501,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>10</v>
       </c>
@@ -2936,7 +3521,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>11</v>
       </c>
@@ -2956,7 +3541,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>12</v>
       </c>
@@ -2976,7 +3561,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>13</v>
       </c>
@@ -2996,7 +3581,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>14</v>
       </c>
@@ -3016,7 +3601,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>15</v>
       </c>
@@ -3036,7 +3621,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>16</v>
       </c>
@@ -3056,7 +3641,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>17</v>
       </c>
@@ -3076,7 +3661,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>18</v>
       </c>
@@ -3096,7 +3681,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>19</v>
       </c>
@@ -3116,7 +3701,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>20</v>
       </c>
@@ -3136,7 +3721,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>21</v>
       </c>
@@ -3156,7 +3741,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>22</v>
       </c>
@@ -3176,7 +3761,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>23</v>
       </c>
@@ -3196,7 +3781,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>24</v>
       </c>
@@ -3216,7 +3801,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>25</v>
       </c>
@@ -3236,7 +3821,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>26</v>
       </c>
@@ -3256,7 +3841,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>27</v>
       </c>
@@ -3276,7 +3861,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>28</v>
       </c>
@@ -3296,7 +3881,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>29</v>
       </c>
@@ -3316,7 +3901,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>30</v>
       </c>
@@ -3336,7 +3921,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>31</v>
       </c>
@@ -3356,7 +3941,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>32</v>
       </c>
@@ -3376,7 +3961,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>33</v>
       </c>
@@ -3396,7 +3981,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>34</v>
       </c>
@@ -3416,7 +4001,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>35</v>
       </c>
@@ -3436,7 +4021,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>36</v>
       </c>
@@ -3456,7 +4041,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>37</v>
       </c>
@@ -3476,7 +4061,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>38</v>
       </c>
@@ -3496,7 +4081,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>39</v>
       </c>
@@ -3516,7 +4101,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>40</v>
       </c>
@@ -3536,7 +4121,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>41</v>
       </c>
@@ -3556,7 +4141,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>42</v>
       </c>
@@ -3576,7 +4161,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>43</v>
       </c>
@@ -3596,7 +4181,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>44</v>
       </c>
@@ -3616,7 +4201,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>45</v>
       </c>
@@ -3636,7 +4221,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>46</v>
       </c>
@@ -3656,7 +4241,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>47</v>
       </c>
@@ -3676,7 +4261,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>48</v>
       </c>
@@ -3696,7 +4281,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>49</v>
       </c>
@@ -3716,7 +4301,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>50</v>
       </c>
@@ -3736,7 +4321,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>51</v>
       </c>
@@ -3756,7 +4341,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>52</v>
       </c>
@@ -3776,7 +4361,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>53</v>
       </c>
@@ -3796,7 +4381,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>54</v>
       </c>
@@ -3816,7 +4401,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>55</v>
       </c>
@@ -3836,7 +4421,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>56</v>
       </c>
@@ -3856,7 +4441,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>57</v>
       </c>
@@ -3876,7 +4461,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>58</v>
       </c>
@@ -3896,7 +4481,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>59</v>
       </c>
@@ -3916,7 +4501,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>60</v>
       </c>
@@ -3936,7 +4521,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>61</v>
       </c>
@@ -3956,7 +4541,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>62</v>
       </c>
@@ -3976,7 +4561,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>63</v>
       </c>
@@ -3996,7 +4581,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>64</v>
       </c>
@@ -4016,7 +4601,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>65</v>
       </c>
@@ -4036,7 +4621,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>66</v>
       </c>
@@ -4056,7 +4641,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>67</v>
       </c>
@@ -4076,7 +4661,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>68</v>
       </c>
@@ -4096,7 +4681,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>69</v>
       </c>
@@ -4116,7 +4701,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>70</v>
       </c>
@@ -4136,7 +4721,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>71</v>
       </c>
@@ -4156,7 +4741,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>72</v>
       </c>
@@ -4176,7 +4761,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>73</v>
       </c>
@@ -4196,7 +4781,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>74</v>
       </c>
@@ -4216,7 +4801,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>75</v>
       </c>
@@ -4236,7 +4821,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>76</v>
       </c>
@@ -4256,7 +4841,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>77</v>
       </c>
@@ -4276,7 +4861,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>78</v>
       </c>
@@ -4296,7 +4881,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>79</v>
       </c>
@@ -4316,7 +4901,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>80</v>
       </c>
@@ -4336,7 +4921,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>81</v>
       </c>
@@ -4356,7 +4941,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>82</v>
       </c>
@@ -4376,7 +4961,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>83</v>
       </c>
@@ -4396,7 +4981,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>84</v>
       </c>
@@ -4416,7 +5001,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>85</v>
       </c>
@@ -4436,7 +5021,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>86</v>
       </c>
@@ -4456,7 +5041,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>87</v>
       </c>
@@ -4476,7 +5061,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>88</v>
       </c>
@@ -4496,7 +5081,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>89</v>
       </c>
@@ -4516,7 +5101,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>90</v>
       </c>
@@ -4536,7 +5121,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>91</v>
       </c>
@@ -4556,7 +5141,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>92</v>
       </c>
@@ -4576,7 +5161,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>93</v>
       </c>
@@ -4596,7 +5181,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>94</v>
       </c>
@@ -4616,7 +5201,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>95</v>
       </c>
@@ -4636,7 +5221,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>96</v>
       </c>
@@ -4656,7 +5241,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>97</v>
       </c>
@@ -4676,7 +5261,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>98</v>
       </c>
@@ -4696,7 +5281,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>99</v>
       </c>
@@ -4716,7 +5301,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>100</v>
       </c>
@@ -4736,7 +5321,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>101</v>
       </c>
@@ -4756,7 +5341,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>102</v>
       </c>
@@ -4776,7 +5361,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>103</v>
       </c>
@@ -4796,7 +5381,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>104</v>
       </c>
@@ -4816,7 +5401,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>105</v>
       </c>
@@ -4836,7 +5421,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>106</v>
       </c>
@@ -4856,7 +5441,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>107</v>
       </c>
@@ -4876,7 +5461,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>108</v>
       </c>
@@ -4896,7 +5481,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>109</v>
       </c>
@@ -4916,7 +5501,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>110</v>
       </c>
@@ -4936,7 +5521,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>111</v>
       </c>
@@ -4956,7 +5541,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>112</v>
       </c>
@@ -4976,7 +5561,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>113</v>
       </c>
@@ -4996,7 +5581,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>114</v>
       </c>
@@ -5016,7 +5601,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>115</v>
       </c>
@@ -5036,7 +5621,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>116</v>
       </c>
@@ -5056,7 +5641,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>117</v>
       </c>
@@ -5076,7 +5661,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>118</v>
       </c>
@@ -5096,7 +5681,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>119</v>
       </c>
@@ -5116,7 +5701,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>120</v>
       </c>
@@ -5136,7 +5721,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>121</v>
       </c>
@@ -5156,7 +5741,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>122</v>
       </c>
@@ -5176,7 +5761,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>123</v>
       </c>
@@ -5196,7 +5781,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>124</v>
       </c>
@@ -5216,7 +5801,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>125</v>
       </c>
@@ -5236,7 +5821,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>126</v>
       </c>
@@ -5256,7 +5841,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>127</v>
       </c>
@@ -5276,7 +5861,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>128</v>
       </c>
@@ -5296,7 +5881,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>129</v>
       </c>
@@ -5316,7 +5901,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>130</v>
       </c>
@@ -5336,7 +5921,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>131</v>
       </c>
@@ -5356,7 +5941,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>132</v>
       </c>
@@ -5376,7 +5961,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>133</v>
       </c>
@@ -5396,7 +5981,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>134</v>
       </c>
@@ -5416,7 +6001,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>135</v>
       </c>
@@ -5436,7 +6021,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>136</v>
       </c>
@@ -5456,7 +6041,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>137</v>
       </c>
@@ -5476,7 +6061,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>138</v>
       </c>
@@ -5496,7 +6081,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>139</v>
       </c>
@@ -5516,7 +6101,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>140</v>
       </c>
@@ -5536,7 +6121,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>141</v>
       </c>
@@ -5556,7 +6141,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>142</v>
       </c>
@@ -5576,7 +6161,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>143</v>
       </c>
@@ -5596,7 +6181,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>144</v>
       </c>
@@ -5616,7 +6201,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>145</v>
       </c>
@@ -5636,7 +6221,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>146</v>
       </c>
@@ -5656,7 +6241,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>147</v>
       </c>
@@ -5676,7 +6261,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>148</v>
       </c>
@@ -5696,7 +6281,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>149</v>
       </c>
@@ -5716,7 +6301,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>150</v>
       </c>
@@ -5736,7 +6321,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>151</v>
       </c>
@@ -5756,7 +6341,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>152</v>
       </c>
@@ -5776,7 +6361,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>153</v>
       </c>
@@ -5796,7 +6381,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>154</v>
       </c>
@@ -5816,7 +6401,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>155</v>
       </c>
@@ -5836,7 +6421,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>156</v>
       </c>
@@ -5856,7 +6441,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>157</v>
       </c>
@@ -5876,7 +6461,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>158</v>
       </c>
@@ -5896,7 +6481,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>159</v>
       </c>
@@ -5916,7 +6501,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>160</v>
       </c>
@@ -5936,7 +6521,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>161</v>
       </c>
@@ -5956,7 +6541,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>162</v>
       </c>
@@ -5976,7 +6561,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>163</v>
       </c>
@@ -5996,7 +6581,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>164</v>
       </c>
@@ -6016,7 +6601,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>165</v>
       </c>
@@ -6036,7 +6621,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>166</v>
       </c>
@@ -6056,7 +6641,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>167</v>
       </c>
@@ -6076,7 +6661,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>168</v>
       </c>
@@ -6096,7 +6681,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>169</v>
       </c>
@@ -6116,7 +6701,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>170</v>
       </c>
@@ -6136,7 +6721,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>171</v>
       </c>
@@ -6156,7 +6741,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>172</v>
       </c>
@@ -6176,7 +6761,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>173</v>
       </c>
@@ -6196,7 +6781,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>174</v>
       </c>
@@ -6216,7 +6801,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>175</v>
       </c>
@@ -6236,7 +6821,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>176</v>
       </c>
@@ -6256,7 +6841,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>177</v>
       </c>
@@ -6276,7 +6861,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>178</v>
       </c>
@@ -6296,7 +6881,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>179</v>
       </c>
@@ -6316,7 +6901,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>180</v>
       </c>
@@ -6336,7 +6921,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>181</v>
       </c>
@@ -6356,7 +6941,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>182</v>
       </c>
@@ -6376,7 +6961,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>183</v>
       </c>
@@ -6396,7 +6981,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>184</v>
       </c>
@@ -6416,7 +7001,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>185</v>
       </c>
@@ -6436,7 +7021,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>186</v>
       </c>
@@ -6456,7 +7041,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>187</v>
       </c>
@@ -6476,7 +7061,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>188</v>
       </c>
@@ -6496,7 +7081,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>189</v>
       </c>
@@ -6516,7 +7101,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>190</v>
       </c>
@@ -6536,7 +7121,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>191</v>
       </c>
@@ -6556,7 +7141,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>192</v>
       </c>
@@ -6576,7 +7161,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>193</v>
       </c>
@@ -6596,7 +7181,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>194</v>
       </c>
@@ -6616,7 +7201,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>195</v>
       </c>
@@ -6636,7 +7221,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>196</v>
       </c>
@@ -6656,7 +7241,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>197</v>
       </c>
@@ -6676,7 +7261,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>198</v>
       </c>
@@ -6696,7 +7281,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>199</v>
       </c>
@@ -6716,7 +7301,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>200</v>
       </c>
@@ -6736,7 +7321,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>201</v>
       </c>
@@ -6756,7 +7341,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>203</v>
       </c>
@@ -6776,7 +7361,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>204</v>
       </c>
@@ -6796,7 +7381,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>205</v>
       </c>
@@ -6816,7 +7401,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>206</v>
       </c>
@@ -6836,7 +7421,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>207</v>
       </c>
@@ -6856,7 +7441,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>208</v>
       </c>
@@ -6876,7 +7461,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>209</v>
       </c>
@@ -6896,7 +7481,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>210</v>
       </c>
@@ -6916,7 +7501,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>211</v>
       </c>
@@ -6936,7 +7521,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>212</v>
       </c>
@@ -6956,7 +7541,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>213</v>
       </c>
@@ -6976,7 +7561,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>214</v>
       </c>
@@ -6996,7 +7581,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>215</v>
       </c>
@@ -7016,7 +7601,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>216</v>
       </c>
@@ -7036,7 +7621,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>217</v>
       </c>
@@ -7056,7 +7641,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>218</v>
       </c>
@@ -7076,7 +7661,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>219</v>
       </c>
@@ -7096,7 +7681,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>220</v>
       </c>
@@ -7116,7 +7701,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>221</v>
       </c>
@@ -7136,7 +7721,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>222</v>
       </c>
@@ -7156,7 +7741,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>223</v>
       </c>
@@ -7176,7 +7761,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>224</v>
       </c>
@@ -7196,7 +7781,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>225</v>
       </c>
@@ -7216,7 +7801,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A225">
         <v>226</v>
       </c>
@@ -7236,7 +7821,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A226">
         <v>227</v>
       </c>
@@ -7256,7 +7841,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A227">
         <v>228</v>
       </c>
@@ -7276,7 +7861,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A228">
         <v>229</v>
       </c>
@@ -7296,7 +7881,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A229">
         <v>230</v>
       </c>
@@ -7316,7 +7901,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A230">
         <v>231</v>
       </c>
@@ -7336,7 +7921,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A231">
         <v>232</v>
       </c>
@@ -7356,7 +7941,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A232">
         <v>233</v>
       </c>
@@ -7376,7 +7961,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A233">
         <v>234</v>
       </c>
@@ -7396,7 +7981,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A234">
         <v>235</v>
       </c>
@@ -7416,7 +8001,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A235">
         <v>236</v>
       </c>
@@ -7436,7 +8021,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A236">
         <v>237</v>
       </c>
@@ -7456,7 +8041,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A237">
         <v>238</v>
       </c>
@@ -7476,7 +8061,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A238">
         <v>239</v>
       </c>
@@ -7496,7 +8081,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A239">
         <v>240</v>
       </c>
@@ -7516,7 +8101,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A240">
         <v>241</v>
       </c>
@@ -7536,7 +8121,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="241" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A241">
         <v>242</v>
       </c>
@@ -7556,7 +8141,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="242" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A242">
         <v>243</v>
       </c>
@@ -7576,7 +8161,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="243" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A243">
         <v>244</v>
       </c>
@@ -7596,7 +8181,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="244" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A244">
         <v>245</v>
       </c>
@@ -7616,7 +8201,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="245" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A245">
         <v>246</v>
       </c>
@@ -7636,7 +8221,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="246" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A246">
         <v>247</v>
       </c>
@@ -7656,7 +8241,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="247" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A247">
         <v>248</v>
       </c>
@@ -7676,7 +8261,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="248" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A248">
         <v>249</v>
       </c>
@@ -7696,7 +8281,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="249" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A249">
         <v>250</v>
       </c>
@@ -7716,7 +8301,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="250" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A250">
         <v>251</v>
       </c>
@@ -7736,7 +8321,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="251" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A251">
         <v>252</v>
       </c>
@@ -7756,7 +8341,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="252" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A252">
         <v>253</v>
       </c>
@@ -7776,7 +8361,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="253" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A253">
         <v>254</v>
       </c>
@@ -7796,7 +8381,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="254" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A254">
         <v>255</v>
       </c>
@@ -7816,7 +8401,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="255" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A255">
         <v>256</v>
       </c>
@@ -7836,7 +8421,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="256" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A256">
         <v>257</v>
       </c>
@@ -7856,7 +8441,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="257" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A257">
         <v>258</v>
       </c>
@@ -7876,7 +8461,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="258" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A258">
         <v>259</v>
       </c>
@@ -7896,7 +8481,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="259" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A259">
         <v>260</v>
       </c>
@@ -7916,7 +8501,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="260" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A260">
         <v>261</v>
       </c>
@@ -7936,7 +8521,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="261" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A261">
         <v>262</v>
       </c>
@@ -7956,7 +8541,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="262" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A262">
         <v>263</v>
       </c>
@@ -7975,6 +8560,1336 @@
       <c r="F262" s="1" t="s">
         <v>8</v>
       </c>
+    </row>
+    <row r="263" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A263">
+        <v>264</v>
+      </c>
+      <c r="B263" s="1" t="s">
+        <v>751</v>
+      </c>
+      <c r="C263" s="1" t="s">
+        <v>752</v>
+      </c>
+      <c r="D263" s="1"/>
+      <c r="E263" s="1"/>
+      <c r="F263" s="1"/>
+    </row>
+    <row r="264" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A264">
+        <v>265</v>
+      </c>
+      <c r="B264" s="1" t="s">
+        <v>753</v>
+      </c>
+      <c r="C264" s="1" t="s">
+        <v>754</v>
+      </c>
+      <c r="D264" s="1"/>
+      <c r="E264" s="1"/>
+      <c r="F264" s="1"/>
+    </row>
+    <row r="265" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A265">
+        <v>266</v>
+      </c>
+      <c r="B265" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="C265" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="D265" s="1"/>
+      <c r="E265" s="1"/>
+      <c r="F265" s="1"/>
+    </row>
+    <row r="266" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A266">
+        <v>267</v>
+      </c>
+      <c r="B266" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="C266" s="1" t="s">
+        <v>758</v>
+      </c>
+      <c r="D266" s="1"/>
+      <c r="E266" s="1"/>
+      <c r="F266" s="1"/>
+    </row>
+    <row r="267" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A267">
+        <v>268</v>
+      </c>
+      <c r="B267" s="1" t="s">
+        <v>759</v>
+      </c>
+      <c r="C267" s="1" t="s">
+        <v>760</v>
+      </c>
+      <c r="D267" s="1"/>
+      <c r="E267" s="1"/>
+      <c r="F267" s="1"/>
+    </row>
+    <row r="268" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A268">
+        <v>269</v>
+      </c>
+      <c r="B268" s="1" t="s">
+        <v>761</v>
+      </c>
+      <c r="C268" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="D268" s="1"/>
+      <c r="E268" s="1"/>
+      <c r="F268" s="1"/>
+    </row>
+    <row r="269" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A269">
+        <v>270</v>
+      </c>
+      <c r="B269" s="1" t="s">
+        <v>763</v>
+      </c>
+      <c r="C269" s="1" t="s">
+        <v>764</v>
+      </c>
+      <c r="D269" s="1"/>
+      <c r="E269" s="1"/>
+      <c r="F269" s="1"/>
+    </row>
+    <row r="270" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A270">
+        <v>271</v>
+      </c>
+      <c r="B270" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="C270" s="1" t="s">
+        <v>766</v>
+      </c>
+      <c r="D270" s="1"/>
+      <c r="E270" s="1"/>
+      <c r="F270" s="1"/>
+    </row>
+    <row r="271" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A271">
+        <v>272</v>
+      </c>
+      <c r="B271" s="1" t="s">
+        <v>767</v>
+      </c>
+      <c r="C271" s="1" t="s">
+        <v>768</v>
+      </c>
+      <c r="D271" s="1"/>
+      <c r="E271" s="1"/>
+      <c r="F271" s="1"/>
+    </row>
+    <row r="272" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A272">
+        <v>273</v>
+      </c>
+      <c r="B272" s="1" t="s">
+        <v>769</v>
+      </c>
+      <c r="C272" s="1" t="s">
+        <v>770</v>
+      </c>
+      <c r="D272" s="1"/>
+      <c r="E272" s="1"/>
+      <c r="F272" s="1"/>
+    </row>
+    <row r="273" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A273">
+        <v>274</v>
+      </c>
+      <c r="B273" s="1" t="s">
+        <v>771</v>
+      </c>
+      <c r="C273" s="1" t="s">
+        <v>772</v>
+      </c>
+      <c r="D273" s="1"/>
+      <c r="E273" s="1"/>
+      <c r="F273" s="1"/>
+    </row>
+    <row r="274" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A274">
+        <v>275</v>
+      </c>
+      <c r="B274" s="1" t="s">
+        <v>773</v>
+      </c>
+      <c r="C274" s="1" t="s">
+        <v>774</v>
+      </c>
+      <c r="D274" s="1"/>
+      <c r="E274" s="1"/>
+      <c r="F274" s="1"/>
+    </row>
+    <row r="275" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A275">
+        <v>276</v>
+      </c>
+      <c r="B275" s="1" t="s">
+        <v>775</v>
+      </c>
+      <c r="C275" s="1" t="s">
+        <v>776</v>
+      </c>
+      <c r="D275" s="1"/>
+      <c r="E275" s="1"/>
+      <c r="F275" s="1"/>
+    </row>
+    <row r="276" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A276">
+        <v>277</v>
+      </c>
+      <c r="B276" s="1" t="s">
+        <v>777</v>
+      </c>
+      <c r="C276" s="1" t="s">
+        <v>778</v>
+      </c>
+      <c r="D276" s="1"/>
+      <c r="E276" s="1"/>
+      <c r="F276" s="1"/>
+    </row>
+    <row r="277" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A277">
+        <v>278</v>
+      </c>
+      <c r="B277" s="1" t="s">
+        <v>779</v>
+      </c>
+      <c r="C277" s="1" t="s">
+        <v>780</v>
+      </c>
+      <c r="D277" s="1"/>
+      <c r="E277" s="1"/>
+      <c r="F277" s="1"/>
+    </row>
+    <row r="278" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A278">
+        <v>279</v>
+      </c>
+      <c r="B278" s="1" t="s">
+        <v>781</v>
+      </c>
+      <c r="C278" s="1" t="s">
+        <v>782</v>
+      </c>
+      <c r="D278" s="1"/>
+      <c r="E278" s="1"/>
+      <c r="F278" s="1"/>
+    </row>
+    <row r="279" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A279">
+        <v>280</v>
+      </c>
+      <c r="B279" s="1" t="s">
+        <v>783</v>
+      </c>
+      <c r="C279" s="1" t="s">
+        <v>784</v>
+      </c>
+      <c r="D279" s="1"/>
+      <c r="E279" s="1"/>
+      <c r="F279" s="1"/>
+    </row>
+    <row r="280" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A280">
+        <v>281</v>
+      </c>
+      <c r="B280" s="1" t="s">
+        <v>785</v>
+      </c>
+      <c r="C280" s="1" t="s">
+        <v>786</v>
+      </c>
+      <c r="D280" s="1"/>
+      <c r="E280" s="1"/>
+      <c r="F280" s="1"/>
+    </row>
+    <row r="281" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A281">
+        <v>282</v>
+      </c>
+      <c r="B281" s="1" t="s">
+        <v>787</v>
+      </c>
+      <c r="C281" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="D281" s="1"/>
+      <c r="E281" s="1"/>
+      <c r="F281" s="1"/>
+    </row>
+    <row r="282" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A282">
+        <v>283</v>
+      </c>
+      <c r="B282" s="1" t="s">
+        <v>789</v>
+      </c>
+      <c r="C282" s="1" t="s">
+        <v>790</v>
+      </c>
+      <c r="D282" s="1"/>
+      <c r="E282" s="1"/>
+      <c r="F282" s="1"/>
+    </row>
+    <row r="283" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A283">
+        <v>284</v>
+      </c>
+      <c r="B283" s="1" t="s">
+        <v>791</v>
+      </c>
+      <c r="C283" s="1" t="s">
+        <v>792</v>
+      </c>
+      <c r="D283" s="1"/>
+      <c r="E283" s="1"/>
+      <c r="F283" s="1"/>
+    </row>
+    <row r="284" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A284">
+        <v>285</v>
+      </c>
+      <c r="B284" s="1" t="s">
+        <v>793</v>
+      </c>
+      <c r="C284" s="1" t="s">
+        <v>794</v>
+      </c>
+      <c r="D284" s="1"/>
+      <c r="E284" s="1"/>
+      <c r="F284" s="1"/>
+    </row>
+    <row r="285" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A285">
+        <v>286</v>
+      </c>
+      <c r="B285" s="1" t="s">
+        <v>795</v>
+      </c>
+      <c r="C285" s="1" t="s">
+        <v>796</v>
+      </c>
+      <c r="D285" s="1"/>
+      <c r="E285" s="1"/>
+      <c r="F285" s="1"/>
+    </row>
+    <row r="286" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A286">
+        <v>287</v>
+      </c>
+      <c r="B286" s="1" t="s">
+        <v>797</v>
+      </c>
+      <c r="C286" s="1" t="s">
+        <v>798</v>
+      </c>
+      <c r="D286" s="1"/>
+      <c r="E286" s="1"/>
+      <c r="F286" s="1"/>
+    </row>
+    <row r="287" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A287">
+        <v>288</v>
+      </c>
+      <c r="B287" s="1" t="s">
+        <v>799</v>
+      </c>
+      <c r="C287" s="1" t="s">
+        <v>800</v>
+      </c>
+      <c r="D287" s="1"/>
+      <c r="E287" s="1"/>
+      <c r="F287" s="1"/>
+    </row>
+    <row r="288" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A288">
+        <v>289</v>
+      </c>
+      <c r="B288" s="1" t="s">
+        <v>801</v>
+      </c>
+      <c r="C288" s="1" t="s">
+        <v>802</v>
+      </c>
+      <c r="D288" s="1"/>
+      <c r="E288" s="1"/>
+      <c r="F288" s="1"/>
+    </row>
+    <row r="289" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A289">
+        <v>290</v>
+      </c>
+      <c r="B289" s="1" t="s">
+        <v>803</v>
+      </c>
+      <c r="C289" s="1" t="s">
+        <v>804</v>
+      </c>
+      <c r="D289" s="1"/>
+      <c r="E289" s="1"/>
+      <c r="F289" s="1"/>
+    </row>
+    <row r="290" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A290">
+        <v>291</v>
+      </c>
+      <c r="B290" s="1" t="s">
+        <v>805</v>
+      </c>
+      <c r="C290" s="1" t="s">
+        <v>806</v>
+      </c>
+      <c r="D290" s="1"/>
+      <c r="E290" s="1"/>
+      <c r="F290" s="1"/>
+    </row>
+    <row r="291" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A291">
+        <v>292</v>
+      </c>
+      <c r="B291" s="1" t="s">
+        <v>807</v>
+      </c>
+      <c r="C291" s="1" t="s">
+        <v>808</v>
+      </c>
+      <c r="D291" s="1"/>
+      <c r="E291" s="1"/>
+      <c r="F291" s="1"/>
+    </row>
+    <row r="292" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A292">
+        <v>293</v>
+      </c>
+      <c r="B292" s="1" t="s">
+        <v>809</v>
+      </c>
+      <c r="C292" s="1" t="s">
+        <v>810</v>
+      </c>
+      <c r="D292" s="1"/>
+      <c r="E292" s="1"/>
+      <c r="F292" s="1"/>
+    </row>
+    <row r="293" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A293">
+        <v>294</v>
+      </c>
+      <c r="B293" s="1" t="s">
+        <v>811</v>
+      </c>
+      <c r="C293" s="1" t="s">
+        <v>812</v>
+      </c>
+      <c r="D293" s="1"/>
+      <c r="E293" s="1"/>
+      <c r="F293" s="1"/>
+    </row>
+    <row r="294" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A294">
+        <v>295</v>
+      </c>
+      <c r="B294" s="1" t="s">
+        <v>813</v>
+      </c>
+      <c r="C294" s="1" t="s">
+        <v>814</v>
+      </c>
+      <c r="D294" s="1"/>
+      <c r="E294" s="1"/>
+      <c r="F294" s="1"/>
+    </row>
+    <row r="295" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A295">
+        <v>296</v>
+      </c>
+      <c r="B295" s="1" t="s">
+        <v>815</v>
+      </c>
+      <c r="C295" s="1" t="s">
+        <v>816</v>
+      </c>
+      <c r="D295" s="1"/>
+      <c r="E295" s="1"/>
+      <c r="F295" s="1"/>
+    </row>
+    <row r="296" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A296">
+        <v>297</v>
+      </c>
+      <c r="B296" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="C296" s="1" t="s">
+        <v>818</v>
+      </c>
+      <c r="D296" s="1"/>
+      <c r="E296" s="1"/>
+      <c r="F296" s="1"/>
+    </row>
+    <row r="297" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A297">
+        <v>298</v>
+      </c>
+      <c r="B297" s="1" t="s">
+        <v>819</v>
+      </c>
+      <c r="C297" s="1" t="s">
+        <v>820</v>
+      </c>
+      <c r="D297" s="1"/>
+      <c r="E297" s="1"/>
+      <c r="F297" s="1"/>
+    </row>
+    <row r="298" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A298">
+        <v>299</v>
+      </c>
+      <c r="B298" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="C298" s="1" t="s">
+        <v>822</v>
+      </c>
+      <c r="D298" s="1"/>
+      <c r="E298" s="1"/>
+      <c r="F298" s="1"/>
+    </row>
+    <row r="299" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A299">
+        <v>300</v>
+      </c>
+      <c r="B299" s="1" t="s">
+        <v>823</v>
+      </c>
+      <c r="C299" s="1" t="s">
+        <v>824</v>
+      </c>
+      <c r="D299" s="1"/>
+      <c r="E299" s="1"/>
+      <c r="F299" s="1"/>
+    </row>
+    <row r="300" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A300">
+        <v>301</v>
+      </c>
+      <c r="B300" s="1" t="s">
+        <v>825</v>
+      </c>
+      <c r="C300" s="1" t="s">
+        <v>826</v>
+      </c>
+      <c r="D300" s="1"/>
+      <c r="E300" s="1"/>
+      <c r="F300" s="1"/>
+    </row>
+    <row r="301" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A301">
+        <v>302</v>
+      </c>
+      <c r="B301" s="1" t="s">
+        <v>827</v>
+      </c>
+      <c r="C301" s="1" t="s">
+        <v>828</v>
+      </c>
+      <c r="D301" s="1"/>
+      <c r="E301" s="1"/>
+      <c r="F301" s="1"/>
+    </row>
+    <row r="302" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A302">
+        <v>303</v>
+      </c>
+      <c r="B302" s="1" t="s">
+        <v>829</v>
+      </c>
+      <c r="C302" s="1" t="s">
+        <v>830</v>
+      </c>
+      <c r="D302" s="1"/>
+      <c r="E302" s="1"/>
+      <c r="F302" s="1"/>
+    </row>
+    <row r="303" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A303">
+        <v>304</v>
+      </c>
+      <c r="B303" s="1" t="s">
+        <v>831</v>
+      </c>
+      <c r="C303" s="1" t="s">
+        <v>832</v>
+      </c>
+      <c r="D303" s="1"/>
+      <c r="E303" s="1"/>
+      <c r="F303" s="1"/>
+    </row>
+    <row r="304" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A304">
+        <v>305</v>
+      </c>
+      <c r="B304" s="1" t="s">
+        <v>833</v>
+      </c>
+      <c r="C304" s="1" t="s">
+        <v>834</v>
+      </c>
+      <c r="D304" s="1"/>
+      <c r="E304" s="1"/>
+      <c r="F304" s="1"/>
+    </row>
+    <row r="305" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A305">
+        <v>306</v>
+      </c>
+      <c r="B305" s="1" t="s">
+        <v>835</v>
+      </c>
+      <c r="C305" s="1" t="s">
+        <v>836</v>
+      </c>
+      <c r="D305" s="1"/>
+      <c r="E305" s="1"/>
+      <c r="F305" s="1"/>
+    </row>
+    <row r="306" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A306">
+        <v>307</v>
+      </c>
+      <c r="B306" s="1" t="s">
+        <v>837</v>
+      </c>
+      <c r="C306" s="1" t="s">
+        <v>838</v>
+      </c>
+      <c r="D306" s="1"/>
+      <c r="E306" s="1"/>
+      <c r="F306" s="1"/>
+    </row>
+    <row r="307" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A307">
+        <v>308</v>
+      </c>
+      <c r="B307" s="1" t="s">
+        <v>839</v>
+      </c>
+      <c r="C307" s="1" t="s">
+        <v>840</v>
+      </c>
+      <c r="D307" s="1"/>
+      <c r="E307" s="1"/>
+      <c r="F307" s="1"/>
+    </row>
+    <row r="308" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A308">
+        <v>309</v>
+      </c>
+      <c r="B308" s="1" t="s">
+        <v>841</v>
+      </c>
+      <c r="C308" s="1" t="s">
+        <v>842</v>
+      </c>
+      <c r="D308" s="1"/>
+      <c r="E308" s="1"/>
+      <c r="F308" s="1"/>
+    </row>
+    <row r="309" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A309">
+        <v>310</v>
+      </c>
+      <c r="B309" s="1" t="s">
+        <v>843</v>
+      </c>
+      <c r="C309" s="1" t="s">
+        <v>844</v>
+      </c>
+      <c r="D309" s="1"/>
+      <c r="E309" s="1"/>
+      <c r="F309" s="1"/>
+    </row>
+    <row r="310" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A310">
+        <v>311</v>
+      </c>
+      <c r="B310" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="C310" s="1" t="s">
+        <v>846</v>
+      </c>
+      <c r="D310" s="1"/>
+      <c r="E310" s="1"/>
+      <c r="F310" s="1"/>
+    </row>
+    <row r="311" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A311">
+        <v>312</v>
+      </c>
+      <c r="B311" s="1" t="s">
+        <v>847</v>
+      </c>
+      <c r="C311" s="1" t="s">
+        <v>848</v>
+      </c>
+      <c r="D311" s="1"/>
+      <c r="E311" s="1"/>
+      <c r="F311" s="1"/>
+    </row>
+    <row r="312" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A312">
+        <v>313</v>
+      </c>
+      <c r="B312" s="1" t="s">
+        <v>849</v>
+      </c>
+      <c r="C312" s="1" t="s">
+        <v>850</v>
+      </c>
+      <c r="D312" s="1"/>
+      <c r="E312" s="1"/>
+      <c r="F312" s="1"/>
+    </row>
+    <row r="313" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A313">
+        <v>314</v>
+      </c>
+      <c r="B313" s="1" t="s">
+        <v>851</v>
+      </c>
+      <c r="C313" s="1" t="s">
+        <v>852</v>
+      </c>
+      <c r="D313" s="1"/>
+      <c r="E313" s="1"/>
+      <c r="F313" s="1"/>
+    </row>
+    <row r="314" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A314">
+        <v>315</v>
+      </c>
+      <c r="B314" s="1" t="s">
+        <v>853</v>
+      </c>
+      <c r="C314" s="1" t="s">
+        <v>854</v>
+      </c>
+      <c r="D314" s="1"/>
+      <c r="E314" s="1"/>
+      <c r="F314" s="1"/>
+    </row>
+    <row r="315" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A315">
+        <v>316</v>
+      </c>
+      <c r="B315" s="1" t="s">
+        <v>855</v>
+      </c>
+      <c r="C315" s="1" t="s">
+        <v>856</v>
+      </c>
+      <c r="D315" s="1"/>
+      <c r="E315" s="1"/>
+      <c r="F315" s="1"/>
+    </row>
+    <row r="316" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A316">
+        <v>317</v>
+      </c>
+      <c r="B316" s="1" t="s">
+        <v>857</v>
+      </c>
+      <c r="C316" s="1" t="s">
+        <v>858</v>
+      </c>
+      <c r="D316" s="1"/>
+      <c r="E316" s="1"/>
+      <c r="F316" s="1"/>
+    </row>
+    <row r="317" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A317">
+        <v>318</v>
+      </c>
+      <c r="B317" s="1" t="s">
+        <v>859</v>
+      </c>
+      <c r="C317" s="1" t="s">
+        <v>860</v>
+      </c>
+      <c r="D317" s="1"/>
+      <c r="E317" s="1"/>
+      <c r="F317" s="1"/>
+    </row>
+    <row r="318" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A318">
+        <v>319</v>
+      </c>
+      <c r="B318" s="1" t="s">
+        <v>861</v>
+      </c>
+      <c r="C318" s="1" t="s">
+        <v>862</v>
+      </c>
+      <c r="D318" s="1"/>
+      <c r="E318" s="1"/>
+      <c r="F318" s="1"/>
+    </row>
+    <row r="319" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A319">
+        <v>320</v>
+      </c>
+      <c r="B319" s="1" t="s">
+        <v>863</v>
+      </c>
+      <c r="C319" s="1" t="s">
+        <v>864</v>
+      </c>
+      <c r="D319" s="1"/>
+      <c r="E319" s="1"/>
+      <c r="F319" s="1"/>
+    </row>
+    <row r="320" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A320">
+        <v>321</v>
+      </c>
+      <c r="B320" s="1" t="s">
+        <v>865</v>
+      </c>
+      <c r="C320" s="1" t="s">
+        <v>866</v>
+      </c>
+      <c r="D320" s="1"/>
+      <c r="E320" s="1"/>
+      <c r="F320" s="1"/>
+    </row>
+    <row r="321" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A321">
+        <v>322</v>
+      </c>
+      <c r="B321" s="1" t="s">
+        <v>867</v>
+      </c>
+      <c r="C321" s="1" t="s">
+        <v>868</v>
+      </c>
+      <c r="D321" s="1"/>
+      <c r="E321" s="1"/>
+      <c r="F321" s="1"/>
+    </row>
+    <row r="322" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A322">
+        <v>323</v>
+      </c>
+      <c r="B322" s="1" t="s">
+        <v>869</v>
+      </c>
+      <c r="C322" s="1" t="s">
+        <v>870</v>
+      </c>
+      <c r="D322" s="1"/>
+      <c r="E322" s="1"/>
+      <c r="F322" s="1"/>
+    </row>
+    <row r="323" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A323">
+        <v>324</v>
+      </c>
+      <c r="B323" s="1" t="s">
+        <v>871</v>
+      </c>
+      <c r="C323" s="1" t="s">
+        <v>872</v>
+      </c>
+      <c r="D323" s="1"/>
+      <c r="E323" s="1"/>
+      <c r="F323" s="1"/>
+    </row>
+    <row r="324" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A324">
+        <v>325</v>
+      </c>
+      <c r="B324" s="1" t="s">
+        <v>873</v>
+      </c>
+      <c r="C324" s="1" t="s">
+        <v>874</v>
+      </c>
+      <c r="D324" s="1"/>
+      <c r="E324" s="1"/>
+      <c r="F324" s="1"/>
+    </row>
+    <row r="325" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A325">
+        <v>326</v>
+      </c>
+      <c r="B325" s="1" t="s">
+        <v>875</v>
+      </c>
+      <c r="C325" s="1" t="s">
+        <v>876</v>
+      </c>
+      <c r="D325" s="1"/>
+      <c r="E325" s="1"/>
+      <c r="F325" s="1"/>
+    </row>
+    <row r="326" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A326">
+        <v>327</v>
+      </c>
+      <c r="B326" s="1" t="s">
+        <v>877</v>
+      </c>
+      <c r="C326" s="1" t="s">
+        <v>878</v>
+      </c>
+      <c r="D326" s="1"/>
+      <c r="E326" s="1"/>
+      <c r="F326" s="1"/>
+    </row>
+    <row r="327" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A327">
+        <v>328</v>
+      </c>
+      <c r="B327" s="1" t="s">
+        <v>879</v>
+      </c>
+      <c r="C327" s="1" t="s">
+        <v>880</v>
+      </c>
+      <c r="D327" s="1"/>
+      <c r="E327" s="1"/>
+      <c r="F327" s="1"/>
+    </row>
+    <row r="328" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A328">
+        <v>329</v>
+      </c>
+      <c r="B328" s="1" t="s">
+        <v>881</v>
+      </c>
+      <c r="C328" s="1" t="s">
+        <v>882</v>
+      </c>
+      <c r="D328" s="1"/>
+      <c r="E328" s="1"/>
+      <c r="F328" s="1"/>
+    </row>
+    <row r="329" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A329">
+        <v>330</v>
+      </c>
+      <c r="B329" s="1" t="s">
+        <v>883</v>
+      </c>
+      <c r="C329" s="1" t="s">
+        <v>884</v>
+      </c>
+      <c r="D329" s="1"/>
+      <c r="E329" s="1"/>
+      <c r="F329" s="1"/>
+    </row>
+    <row r="330" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A330">
+        <v>331</v>
+      </c>
+      <c r="B330" s="1" t="s">
+        <v>885</v>
+      </c>
+      <c r="C330" s="1" t="s">
+        <v>886</v>
+      </c>
+      <c r="D330" s="1"/>
+      <c r="E330" s="1"/>
+      <c r="F330" s="1"/>
+    </row>
+    <row r="331" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A331">
+        <v>332</v>
+      </c>
+      <c r="B331" s="1" t="s">
+        <v>887</v>
+      </c>
+      <c r="C331" s="1" t="s">
+        <v>888</v>
+      </c>
+      <c r="D331" s="1"/>
+      <c r="E331" s="1"/>
+      <c r="F331" s="1"/>
+    </row>
+    <row r="332" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A332">
+        <v>333</v>
+      </c>
+      <c r="B332" s="1" t="s">
+        <v>889</v>
+      </c>
+      <c r="C332" s="1" t="s">
+        <v>890</v>
+      </c>
+      <c r="D332" s="1"/>
+      <c r="E332" s="1"/>
+      <c r="F332" s="1"/>
+    </row>
+    <row r="333" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A333">
+        <v>334</v>
+      </c>
+      <c r="B333" s="1" t="s">
+        <v>891</v>
+      </c>
+      <c r="C333" s="1" t="s">
+        <v>892</v>
+      </c>
+      <c r="D333" s="1"/>
+      <c r="E333" s="1"/>
+      <c r="F333" s="1"/>
+    </row>
+    <row r="334" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A334">
+        <v>335</v>
+      </c>
+      <c r="B334" s="1" t="s">
+        <v>893</v>
+      </c>
+      <c r="C334" s="1" t="s">
+        <v>894</v>
+      </c>
+      <c r="D334" s="1"/>
+      <c r="E334" s="1"/>
+      <c r="F334" s="1"/>
+    </row>
+    <row r="335" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A335">
+        <v>336</v>
+      </c>
+      <c r="B335" s="1" t="s">
+        <v>895</v>
+      </c>
+      <c r="C335" s="1" t="s">
+        <v>896</v>
+      </c>
+      <c r="D335" s="1"/>
+      <c r="E335" s="1"/>
+      <c r="F335" s="1"/>
+    </row>
+    <row r="336" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A336">
+        <v>337</v>
+      </c>
+      <c r="B336" s="1" t="s">
+        <v>897</v>
+      </c>
+      <c r="C336" s="1" t="s">
+        <v>898</v>
+      </c>
+      <c r="D336" s="1"/>
+      <c r="E336" s="1"/>
+      <c r="F336" s="1"/>
+    </row>
+    <row r="337" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A337">
+        <v>338</v>
+      </c>
+      <c r="B337" s="1" t="s">
+        <v>899</v>
+      </c>
+      <c r="C337" s="1" t="s">
+        <v>900</v>
+      </c>
+      <c r="D337" s="1"/>
+      <c r="E337" s="1"/>
+      <c r="F337" s="1"/>
+    </row>
+    <row r="338" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A338">
+        <v>339</v>
+      </c>
+      <c r="B338" s="1" t="s">
+        <v>901</v>
+      </c>
+      <c r="C338" s="1" t="s">
+        <v>902</v>
+      </c>
+      <c r="D338" s="1"/>
+      <c r="E338" s="1"/>
+      <c r="F338" s="1"/>
+    </row>
+    <row r="339" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A339">
+        <v>340</v>
+      </c>
+      <c r="B339" s="1" t="s">
+        <v>903</v>
+      </c>
+      <c r="C339" s="1" t="s">
+        <v>904</v>
+      </c>
+      <c r="D339" s="1"/>
+      <c r="E339" s="1"/>
+      <c r="F339" s="1"/>
+    </row>
+    <row r="340" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A340">
+        <v>341</v>
+      </c>
+      <c r="B340" s="1" t="s">
+        <v>905</v>
+      </c>
+      <c r="C340" s="1" t="s">
+        <v>906</v>
+      </c>
+      <c r="D340" s="1"/>
+      <c r="E340" s="1"/>
+      <c r="F340" s="1"/>
+    </row>
+    <row r="341" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A341">
+        <v>342</v>
+      </c>
+      <c r="B341" s="1" t="s">
+        <v>907</v>
+      </c>
+      <c r="C341" s="1" t="s">
+        <v>908</v>
+      </c>
+      <c r="D341" s="1"/>
+      <c r="E341" s="1"/>
+      <c r="F341" s="1"/>
+    </row>
+    <row r="342" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A342">
+        <v>343</v>
+      </c>
+      <c r="B342" s="1" t="s">
+        <v>909</v>
+      </c>
+      <c r="C342" s="1" t="s">
+        <v>910</v>
+      </c>
+      <c r="D342" s="1"/>
+      <c r="E342" s="1"/>
+      <c r="F342" s="1"/>
+    </row>
+    <row r="343" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A343">
+        <v>344</v>
+      </c>
+      <c r="B343" s="1" t="s">
+        <v>911</v>
+      </c>
+      <c r="C343" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="D343" s="1"/>
+      <c r="E343" s="1"/>
+      <c r="F343" s="1"/>
+    </row>
+    <row r="344" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A344">
+        <v>345</v>
+      </c>
+      <c r="B344" s="1" t="s">
+        <v>913</v>
+      </c>
+      <c r="C344" s="1" t="s">
+        <v>914</v>
+      </c>
+      <c r="D344" s="1"/>
+      <c r="E344" s="1"/>
+      <c r="F344" s="1"/>
+    </row>
+    <row r="345" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A345">
+        <v>346</v>
+      </c>
+      <c r="B345" s="1" t="s">
+        <v>915</v>
+      </c>
+      <c r="C345" s="1" t="s">
+        <v>916</v>
+      </c>
+      <c r="D345" s="1"/>
+      <c r="E345" s="1"/>
+      <c r="F345" s="1"/>
+    </row>
+    <row r="346" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A346">
+        <v>347</v>
+      </c>
+      <c r="B346" s="1" t="s">
+        <v>917</v>
+      </c>
+      <c r="C346" s="1" t="s">
+        <v>918</v>
+      </c>
+      <c r="D346" s="1"/>
+      <c r="E346" s="1"/>
+      <c r="F346" s="1"/>
+    </row>
+    <row r="347" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A347">
+        <v>348</v>
+      </c>
+      <c r="B347" s="1" t="s">
+        <v>919</v>
+      </c>
+      <c r="C347" s="1" t="s">
+        <v>920</v>
+      </c>
+      <c r="D347" s="1"/>
+      <c r="E347" s="1"/>
+      <c r="F347" s="1"/>
+    </row>
+    <row r="348" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A348">
+        <v>349</v>
+      </c>
+      <c r="B348" s="1" t="s">
+        <v>921</v>
+      </c>
+      <c r="C348" s="1" t="s">
+        <v>922</v>
+      </c>
+      <c r="D348" s="1"/>
+      <c r="E348" s="1"/>
+      <c r="F348" s="1"/>
+    </row>
+    <row r="349" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A349">
+        <v>350</v>
+      </c>
+      <c r="B349" s="1" t="s">
+        <v>923</v>
+      </c>
+      <c r="C349" s="1" t="s">
+        <v>924</v>
+      </c>
+      <c r="D349" s="1"/>
+      <c r="E349" s="1"/>
+      <c r="F349" s="1"/>
+    </row>
+    <row r="350" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A350">
+        <v>351</v>
+      </c>
+      <c r="B350" s="1" t="s">
+        <v>925</v>
+      </c>
+      <c r="C350" s="1" t="s">
+        <v>926</v>
+      </c>
+      <c r="D350" s="1"/>
+      <c r="E350" s="1"/>
+      <c r="F350" s="1"/>
+    </row>
+    <row r="351" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A351">
+        <v>352</v>
+      </c>
+      <c r="B351" s="1" t="s">
+        <v>927</v>
+      </c>
+      <c r="C351" s="1" t="s">
+        <v>928</v>
+      </c>
+      <c r="D351" s="1"/>
+      <c r="E351" s="1"/>
+      <c r="F351" s="1"/>
+    </row>
+    <row r="352" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A352">
+        <v>353</v>
+      </c>
+      <c r="B352" s="1" t="s">
+        <v>929</v>
+      </c>
+      <c r="C352" s="1" t="s">
+        <v>930</v>
+      </c>
+      <c r="D352" s="1"/>
+      <c r="E352" s="1"/>
+      <c r="F352" s="1"/>
+    </row>
+    <row r="353" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A353">
+        <v>354</v>
+      </c>
+      <c r="B353" s="1" t="s">
+        <v>931</v>
+      </c>
+      <c r="C353" s="1" t="s">
+        <v>932</v>
+      </c>
+      <c r="D353" s="1"/>
+      <c r="E353" s="1"/>
+      <c r="F353" s="1"/>
+    </row>
+    <row r="354" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A354">
+        <v>355</v>
+      </c>
+      <c r="B354" s="1" t="s">
+        <v>933</v>
+      </c>
+      <c r="C354" s="1" t="s">
+        <v>934</v>
+      </c>
+      <c r="D354" s="1"/>
+      <c r="E354" s="1"/>
+      <c r="F354" s="1"/>
+    </row>
+    <row r="355" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A355">
+        <v>356</v>
+      </c>
+      <c r="B355" s="1" t="s">
+        <v>935</v>
+      </c>
+      <c r="C355" s="1" t="s">
+        <v>936</v>
+      </c>
+      <c r="D355" s="1"/>
+      <c r="E355" s="1"/>
+      <c r="F355" s="1"/>
+    </row>
+    <row r="356" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A356">
+        <v>357</v>
+      </c>
+      <c r="B356" s="1" t="s">
+        <v>937</v>
+      </c>
+      <c r="C356" s="1" t="s">
+        <v>938</v>
+      </c>
+      <c r="D356" s="1"/>
+      <c r="E356" s="1"/>
+      <c r="F356" s="1"/>
+    </row>
+    <row r="357" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A357">
+        <v>358</v>
+      </c>
+      <c r="B357" s="1" t="s">
+        <v>939</v>
+      </c>
+      <c r="C357" s="1" t="s">
+        <v>940</v>
+      </c>
+      <c r="D357" s="1"/>
+      <c r="E357" s="1"/>
+      <c r="F357" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7986,22 +9901,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E29F73C7-BAF7-4DDB-A3F3-74A889132A9F}">
-  <dimension ref="A1:G34"/>
+  <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35:B39"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.73046875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.77734375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.73046875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.86328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.06640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.9296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -8024,7 +9941,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1000</v>
       </c>
@@ -8047,7 +9964,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1001</v>
       </c>
@@ -8070,7 +9987,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1002</v>
       </c>
@@ -8093,7 +10010,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1003</v>
       </c>
@@ -8116,7 +10033,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1004</v>
       </c>
@@ -8139,7 +10056,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1005</v>
       </c>
@@ -8162,7 +10079,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1006</v>
       </c>
@@ -8185,7 +10102,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1007</v>
       </c>
@@ -8208,7 +10125,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1008</v>
       </c>
@@ -8231,7 +10148,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1009</v>
       </c>
@@ -8254,7 +10171,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1010</v>
       </c>
@@ -8277,7 +10194,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1011</v>
       </c>
@@ -8300,7 +10217,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1012</v>
       </c>
@@ -8323,7 +10240,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>1013</v>
       </c>
@@ -8346,7 +10263,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>1014</v>
       </c>
@@ -8369,7 +10286,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>1015</v>
       </c>
@@ -8392,7 +10309,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>1016</v>
       </c>
@@ -8415,7 +10332,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>1017</v>
       </c>
@@ -8438,7 +10355,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>1018</v>
       </c>
@@ -8461,7 +10378,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>1019</v>
       </c>
@@ -8484,7 +10401,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>1020</v>
       </c>
@@ -8507,7 +10424,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>1021</v>
       </c>
@@ -8530,7 +10447,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>1022</v>
       </c>
@@ -8553,7 +10470,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>1023</v>
       </c>
@@ -8576,7 +10493,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>1024</v>
       </c>
@@ -8599,7 +10516,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>1025</v>
       </c>
@@ -8622,7 +10539,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>1026</v>
       </c>
@@ -8645,7 +10562,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>1027</v>
       </c>
@@ -8668,7 +10585,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>1028</v>
       </c>
@@ -8691,7 +10608,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>1029</v>
       </c>
@@ -8714,7 +10631,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>1030</v>
       </c>
@@ -8737,7 +10654,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>1031</v>
       </c>
@@ -8760,7 +10677,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>1032</v>
       </c>
@@ -8782,6 +10699,71 @@
       <c r="G34" s="1" t="s">
         <v>8</v>
       </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>1033</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>941</v>
+      </c>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>1034</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>942</v>
+      </c>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>1035</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>943</v>
+      </c>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>1036</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>944</v>
+      </c>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>1037</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8799,13 +10781,13 @@
       <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.9296875" customWidth="1"/>
-    <col min="2" max="2" width="21.59765625" customWidth="1"/>
+    <col min="1" max="1" width="20.88671875" customWidth="1"/>
+    <col min="2" max="2" width="21.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -8813,27 +10795,27 @@
         <v>566</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>571</v>
       </c>

--- a/i18n/tr.xlsx
+++ b/i18n/tr.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matej\Programming\wingsearch\i18n\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6891748-9271-4621-9C1C-D398E47F563B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51582FD0-EA09-46A1-B607-99AAABA06C0E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Birds" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1718" uniqueCount="946">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1719" uniqueCount="947">
   <si>
     <t>id</t>
   </si>
@@ -2880,6 +2880,9 @@
   </si>
   <si>
     <t>Wetland Data Analyst</t>
+  </si>
+  <si>
+    <t>GAME END</t>
   </si>
 </sst>
 </file>
@@ -3032,8 +3035,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{5AA05F43-7971-4EB4-8E5C-9E7EFB591048}" name="Table4" displayName="Table4" ref="A1:B6" totalsRowShown="0">
-  <autoFilter ref="A1:B6" xr:uid="{A5CFAA4D-6579-4D29-89EB-6C57AE6E1FEB}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{5AA05F43-7971-4EB4-8E5C-9E7EFB591048}" name="Table4" displayName="Table4" ref="A1:B7" totalsRowShown="0">
+  <autoFilter ref="A1:B7" xr:uid="{A5CFAA4D-6579-4D29-89EB-6C57AE6E1FEB}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{EA688C91-7F6D-4D7A-9D79-A30EB35759F6}" name="English name"/>
     <tableColumn id="2" xr3:uid="{3A0CACDB-DCE4-4775-8258-271B6485FC6A}" name="Translated"/>
@@ -9903,7 +9906,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E29F73C7-BAF7-4DDB-A3F3-74A889132A9F}">
   <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="A35" sqref="A35:B39"/>
     </sheetView>
   </sheetViews>
@@ -10775,10 +10778,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D758ED0-344A-47B5-8000-C5BBB7F38038}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10817,6 +10820,11 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>571</v>
       </c>
     </row>

--- a/i18n/tr.xlsx
+++ b/i18n/tr.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matej\Programming\wingsearch\i18n\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51582FD0-EA09-46A1-B607-99AAABA06C0E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FADE356-E277-406C-9875-6B057A11B28B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Birds" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1719" uniqueCount="947">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3147" uniqueCount="948">
   <si>
     <t>id</t>
   </si>
@@ -2883,6 +2883,9 @@
   </si>
   <si>
     <t>GAME END</t>
+  </si>
+  <si>
+    <t>X</t>
   </si>
 </sst>
 </file>
@@ -2918,14 +2921,32 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normálna" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="11">
+  <dxfs count="15">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -2974,14 +2995,18 @@
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_1" connectionId="1" xr16:uid="{342334EA-CD0C-475A-9424-8830DAA235E3}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh nextId="7">
-    <queryTableFields count="6">
+  <queryTableRefresh nextId="11" unboundColumnsRight="4">
+    <queryTableFields count="10">
       <queryTableField id="1" name="id" tableColumnId="1"/>
       <queryTableField id="2" name="English name" tableColumnId="2"/>
       <queryTableField id="3" name="Scientific name" tableColumnId="3"/>
       <queryTableField id="4" name="Common name" tableColumnId="4"/>
       <queryTableField id="5" name="Power text" tableColumnId="5"/>
       <queryTableField id="6" name="Note" tableColumnId="6"/>
+      <queryTableField id="7" dataBound="0" tableColumnId="7"/>
+      <queryTableField id="8" dataBound="0" tableColumnId="8"/>
+      <queryTableField id="9" dataBound="0" tableColumnId="9"/>
+      <queryTableField id="10" dataBound="0" tableColumnId="10"/>
     </queryTableFields>
   </queryTableRefresh>
 </queryTable>
@@ -3004,15 +3029,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{24256CD6-671B-49BB-A76A-BCA812A8DD0C}" name="birds" displayName="birds" ref="A1:F357" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:F357" xr:uid="{A51C43BE-DDEC-40D6-92FD-3C4BA38F764F}"/>
-  <tableColumns count="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{24256CD6-671B-49BB-A76A-BCA812A8DD0C}" name="birds" displayName="birds" ref="A1:J357" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:J357" xr:uid="{A51C43BE-DDEC-40D6-92FD-3C4BA38F764F}"/>
+  <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{25ED0C0D-B939-406D-8B67-A9F9A8641DEE}" uniqueName="1" name="id" queryTableFieldId="1"/>
-    <tableColumn id="2" xr3:uid="{72C3DFD8-3F0B-483B-8A68-A0BCCABA3E13}" uniqueName="2" name="English name" queryTableFieldId="2" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{F31DEB5D-C6B9-4F1B-820C-4F95CE57D16A}" uniqueName="3" name="Scientific name" queryTableFieldId="3" dataDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{A5506B6F-49BA-42EE-A718-CC5148A660D3}" uniqueName="4" name="Common name" queryTableFieldId="4" dataDxfId="8"/>
-    <tableColumn id="5" xr3:uid="{09B53191-4035-465E-9330-BD4E97D6D12B}" uniqueName="5" name="Power text" queryTableFieldId="5" dataDxfId="7"/>
-    <tableColumn id="6" xr3:uid="{3E46B35F-181F-4677-927E-F31B43E5FCB4}" uniqueName="6" name="Note" queryTableFieldId="6" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{72C3DFD8-3F0B-483B-8A68-A0BCCABA3E13}" uniqueName="2" name="English name" queryTableFieldId="2" dataDxfId="14"/>
+    <tableColumn id="3" xr3:uid="{F31DEB5D-C6B9-4F1B-820C-4F95CE57D16A}" uniqueName="3" name="Scientific name" queryTableFieldId="3" dataDxfId="13"/>
+    <tableColumn id="4" xr3:uid="{A5506B6F-49BA-42EE-A718-CC5148A660D3}" uniqueName="4" name="Common name" queryTableFieldId="4" dataDxfId="12"/>
+    <tableColumn id="5" xr3:uid="{09B53191-4035-465E-9330-BD4E97D6D12B}" uniqueName="5" name="Power text" queryTableFieldId="5" dataDxfId="11"/>
+    <tableColumn id="6" xr3:uid="{3E46B35F-181F-4677-927E-F31B43E5FCB4}" uniqueName="6" name="Note" queryTableFieldId="6" dataDxfId="10"/>
+    <tableColumn id="7" xr3:uid="{1B08DC81-7285-4F3F-BFC6-489AE56AFFC7}" uniqueName="7" name="Anatomist" queryTableFieldId="7" dataDxfId="3"/>
+    <tableColumn id="8" xr3:uid="{BB1E41EB-C402-4F99-8D5E-48E097AED5EF}" uniqueName="8" name="Cartographer" queryTableFieldId="8" dataDxfId="2"/>
+    <tableColumn id="9" xr3:uid="{0D0F7A6F-4D11-4F19-9578-4D18EA586BAA}" uniqueName="9" name="Historian" queryTableFieldId="9" dataDxfId="1"/>
+    <tableColumn id="10" xr3:uid="{78003AAF-FAFF-467A-8E3C-480B56F587B2}" uniqueName="10" name="Photographer" queryTableFieldId="10" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3023,12 +3052,12 @@
   <autoFilter ref="A1:G39" xr:uid="{35D50B44-8490-4501-A753-CAF3081EA540}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{339841CB-3C69-4C68-9375-1B8F78B4B947}" uniqueName="1" name="id" queryTableFieldId="1"/>
-    <tableColumn id="2" xr3:uid="{7CD88691-F9EE-4A08-8F51-475C5497AC67}" uniqueName="2" name="English name" queryTableFieldId="2" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{6E49BD89-CAF6-41F4-96CF-6DF3FD6EEA37}" uniqueName="3" name="Name" queryTableFieldId="3" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{B65DE2EA-D492-4089-8B68-9542CC81F833}" uniqueName="4" name="Condition" queryTableFieldId="4" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{02D544BE-21DA-4CF7-BD1B-D83445917C90}" uniqueName="5" name="Explanatory text" queryTableFieldId="5" dataDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{F2682937-4B01-4B76-AF27-0D1B8942118C}" uniqueName="6" name="VP" queryTableFieldId="6" dataDxfId="1"/>
-    <tableColumn id="7" xr3:uid="{5D15D6CB-F420-4619-9C0C-DF47D651A99D}" uniqueName="7" name="Note" queryTableFieldId="7" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{7CD88691-F9EE-4A08-8F51-475C5497AC67}" uniqueName="2" name="English name" queryTableFieldId="2" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{6E49BD89-CAF6-41F4-96CF-6DF3FD6EEA37}" uniqueName="3" name="Name" queryTableFieldId="3" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{B65DE2EA-D492-4089-8B68-9542CC81F833}" uniqueName="4" name="Condition" queryTableFieldId="4" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{02D544BE-21DA-4CF7-BD1B-D83445917C90}" uniqueName="5" name="Explanatory text" queryTableFieldId="5" dataDxfId="6"/>
+    <tableColumn id="6" xr3:uid="{F2682937-4B01-4B76-AF27-0D1B8942118C}" uniqueName="6" name="VP" queryTableFieldId="6" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{5D15D6CB-F420-4619-9C0C-DF47D651A99D}" uniqueName="7" name="Note" queryTableFieldId="7" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3308,10 +3337,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F357"/>
+  <dimension ref="A1:J357"/>
   <sheetViews>
-    <sheetView topLeftCell="A271" workbookViewId="0">
-      <selection activeCell="A263" sqref="A263:C357"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:J357"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3324,7 +3353,7 @@
     <col min="6" max="6" width="6.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3343,8 +3372,20 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G1" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2</v>
       </c>
@@ -3363,8 +3404,20 @@
       <c r="F2" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>3</v>
       </c>
@@ -3383,8 +3436,20 @@
       <c r="F3" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>947</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>4</v>
       </c>
@@ -3403,8 +3468,20 @@
       <c r="F4" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>947</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>5</v>
       </c>
@@ -3423,8 +3500,20 @@
       <c r="F5" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>947</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>6</v>
       </c>
@@ -3443,8 +3532,20 @@
       <c r="F6" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>947</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>7</v>
       </c>
@@ -3463,8 +3564,20 @@
       <c r="F7" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>947</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>8</v>
       </c>
@@ -3483,8 +3596,20 @@
       <c r="F8" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>947</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>9</v>
       </c>
@@ -3503,8 +3628,20 @@
       <c r="F9" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>947</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>10</v>
       </c>
@@ -3523,8 +3660,20 @@
       <c r="F10" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>947</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>11</v>
       </c>
@@ -3543,8 +3692,20 @@
       <c r="F11" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>947</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>12</v>
       </c>
@@ -3563,8 +3724,20 @@
       <c r="F12" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>947</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>13</v>
       </c>
@@ -3583,8 +3756,20 @@
       <c r="F13" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G13" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>947</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>14</v>
       </c>
@@ -3603,8 +3788,20 @@
       <c r="F14" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>947</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>15</v>
       </c>
@@ -3623,8 +3820,20 @@
       <c r="F15" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>16</v>
       </c>
@@ -3643,8 +3852,20 @@
       <c r="F16" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G16" s="3" t="s">
+        <v>947</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>17</v>
       </c>
@@ -3663,8 +3884,20 @@
       <c r="F17" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>947</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>947</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>18</v>
       </c>
@@ -3683,8 +3916,20 @@
       <c r="F18" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>19</v>
       </c>
@@ -3703,8 +3948,20 @@
       <c r="F19" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G19" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>20</v>
       </c>
@@ -3723,8 +3980,20 @@
       <c r="F20" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>21</v>
       </c>
@@ -3743,8 +4012,20 @@
       <c r="F21" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>947</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>22</v>
       </c>
@@ -3763,8 +4044,20 @@
       <c r="F22" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>23</v>
       </c>
@@ -3783,8 +4076,20 @@
       <c r="F23" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>24</v>
       </c>
@@ -3803,8 +4108,20 @@
       <c r="F24" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>947</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>25</v>
       </c>
@@ -3823,8 +4140,20 @@
       <c r="F25" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G25" s="3" t="s">
+        <v>947</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>947</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>26</v>
       </c>
@@ -3843,8 +4172,20 @@
       <c r="F26" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>27</v>
       </c>
@@ -3863,8 +4204,20 @@
       <c r="F27" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>947</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>28</v>
       </c>
@@ -3883,8 +4236,20 @@
       <c r="F28" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G28" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>29</v>
       </c>
@@ -3903,8 +4268,20 @@
       <c r="F29" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>30</v>
       </c>
@@ -3923,8 +4300,20 @@
       <c r="F30" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G30" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I30" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J30" s="3" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>31</v>
       </c>
@@ -3943,8 +4332,20 @@
       <c r="F31" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G31" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I31" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J31" s="3" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>32</v>
       </c>
@@ -3963,8 +4364,20 @@
       <c r="F32" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>33</v>
       </c>
@@ -3983,8 +4396,20 @@
       <c r="F33" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J33" s="3" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>34</v>
       </c>
@@ -4003,8 +4428,20 @@
       <c r="F34" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G34" s="3" t="s">
+        <v>947</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I34" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J34" s="3" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>35</v>
       </c>
@@ -4023,8 +4460,20 @@
       <c r="F35" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G35" s="3" t="s">
+        <v>947</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J35" s="3" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>36</v>
       </c>
@@ -4043,8 +4492,20 @@
       <c r="F36" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G36" s="3" t="s">
+        <v>947</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I36" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J36" s="3" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>37</v>
       </c>
@@ -4063,8 +4524,20 @@
       <c r="F37" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G37" s="3" t="s">
+        <v>947</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I37" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J37" s="3" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>38</v>
       </c>
@@ -4083,8 +4556,20 @@
       <c r="F38" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G38" s="3" t="s">
+        <v>947</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I38" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J38" s="3" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>39</v>
       </c>
@@ -4103,8 +4588,20 @@
       <c r="F39" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G39" s="3" t="s">
+        <v>947</v>
+      </c>
+      <c r="H39" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I39" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J39" s="3" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>40</v>
       </c>
@@ -4123,8 +4620,20 @@
       <c r="F40" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G40" s="3" t="s">
+        <v>947</v>
+      </c>
+      <c r="H40" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I40" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J40" s="3" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>41</v>
       </c>
@@ -4143,8 +4652,20 @@
       <c r="F41" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G41" s="3" t="s">
+        <v>947</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J41" s="3" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>42</v>
       </c>
@@ -4163,8 +4684,20 @@
       <c r="F42" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G42" s="3" t="s">
+        <v>947</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>43</v>
       </c>
@@ -4183,8 +4716,20 @@
       <c r="F43" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>44</v>
       </c>
@@ -4203,8 +4748,20 @@
       <c r="F44" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>45</v>
       </c>
@@ -4223,8 +4780,20 @@
       <c r="F45" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G45" s="3" t="s">
+        <v>947</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>46</v>
       </c>
@@ -4243,8 +4812,20 @@
       <c r="F46" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G46" s="3" t="s">
+        <v>947</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I46" s="3" t="s">
+        <v>947</v>
+      </c>
+      <c r="J46" s="3" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>47</v>
       </c>
@@ -4263,8 +4844,20 @@
       <c r="F47" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>947</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>48</v>
       </c>
@@ -4283,8 +4876,20 @@
       <c r="F48" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>49</v>
       </c>
@@ -4303,8 +4908,20 @@
       <c r="F49" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>947</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>50</v>
       </c>
@@ -4323,8 +4940,20 @@
       <c r="F50" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G50" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H50" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I50" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J50" s="3" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>51</v>
       </c>
@@ -4343,8 +4972,20 @@
       <c r="F51" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G51" s="3" t="s">
+        <v>947</v>
+      </c>
+      <c r="H51" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I51" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J51" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>52</v>
       </c>
@@ -4363,8 +5004,20 @@
       <c r="F52" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>53</v>
       </c>
@@ -4383,8 +5036,20 @@
       <c r="F53" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G53" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H53" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I53" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J53" s="3" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>54</v>
       </c>
@@ -4403,8 +5068,20 @@
       <c r="F54" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G54" s="3" t="s">
+        <v>947</v>
+      </c>
+      <c r="H54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J54" s="3" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>55</v>
       </c>
@@ -4423,8 +5100,20 @@
       <c r="F55" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G55" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H55" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I55" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J55" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>56</v>
       </c>
@@ -4443,8 +5132,20 @@
       <c r="F56" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G56" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H56" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I56" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J56" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>57</v>
       </c>
@@ -4463,8 +5164,20 @@
       <c r="F57" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J57" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>58</v>
       </c>
@@ -4483,8 +5196,20 @@
       <c r="F58" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>947</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>59</v>
       </c>
@@ -4503,8 +5228,20 @@
       <c r="F59" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>947</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J59" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>60</v>
       </c>
@@ -4523,8 +5260,20 @@
       <c r="F60" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H60" s="3" t="s">
+        <v>947</v>
+      </c>
+      <c r="I60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J60" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>61</v>
       </c>
@@ -4543,8 +5292,20 @@
       <c r="F61" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G61" s="3" t="s">
+        <v>947</v>
+      </c>
+      <c r="H61" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I61" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J61" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>62</v>
       </c>
@@ -4563,8 +5324,20 @@
       <c r="F62" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>947</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>63</v>
       </c>
@@ -4583,8 +5356,20 @@
       <c r="F63" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G63" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H63" s="3" t="s">
+        <v>947</v>
+      </c>
+      <c r="I63" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J63" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>64</v>
       </c>
@@ -4603,8 +5388,20 @@
       <c r="F64" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G64" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H64" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I64" s="3" t="s">
+        <v>947</v>
+      </c>
+      <c r="J64" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>65</v>
       </c>
@@ -4623,8 +5420,20 @@
       <c r="F65" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G65" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H65" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I65" s="3" t="s">
+        <v>947</v>
+      </c>
+      <c r="J65" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>66</v>
       </c>
@@ -4643,8 +5452,20 @@
       <c r="F66" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J66" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>67</v>
       </c>
@@ -4663,8 +5484,20 @@
       <c r="F67" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G67" s="3" t="s">
+        <v>947</v>
+      </c>
+      <c r="H67" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I67" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J67" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>68</v>
       </c>
@@ -4683,8 +5516,20 @@
       <c r="F68" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G68" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H68" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I68" s="3" t="s">
+        <v>947</v>
+      </c>
+      <c r="J68" s="3" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>69</v>
       </c>
@@ -4703,8 +5548,20 @@
       <c r="F69" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G69" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H69" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I69" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J69" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>70</v>
       </c>
@@ -4723,8 +5580,20 @@
       <c r="F70" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G70" s="3" t="s">
+        <v>947</v>
+      </c>
+      <c r="H70" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I70" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J70" s="3" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>71</v>
       </c>
@@ -4743,8 +5612,20 @@
       <c r="F71" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G71" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H71" s="3" t="s">
+        <v>947</v>
+      </c>
+      <c r="I71" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J71" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>72</v>
       </c>
@@ -4763,8 +5644,20 @@
       <c r="F72" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J72" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>73</v>
       </c>
@@ -4783,8 +5676,20 @@
       <c r="F73" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G73" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H73" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I73" s="3" t="s">
+        <v>947</v>
+      </c>
+      <c r="J73" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>74</v>
       </c>
@@ -4803,8 +5708,20 @@
       <c r="F74" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G74" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H74" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I74" s="3" t="s">
+        <v>947</v>
+      </c>
+      <c r="J74" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>75</v>
       </c>
@@ -4823,8 +5740,20 @@
       <c r="F75" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G75" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H75" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I75" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J75" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>76</v>
       </c>
@@ -4843,8 +5772,20 @@
       <c r="F76" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J76" s="3" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>77</v>
       </c>
@@ -4863,8 +5804,20 @@
       <c r="F77" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G77" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H77" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I77" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J77" s="3" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>78</v>
       </c>
@@ -4883,8 +5836,20 @@
       <c r="F78" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G78" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H78" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I78" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J78" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>79</v>
       </c>
@@ -4903,8 +5868,20 @@
       <c r="F79" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G79" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H79" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I79" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J79" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>80</v>
       </c>
@@ -4923,8 +5900,20 @@
       <c r="F80" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G80" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H80" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I80" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J80" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>81</v>
       </c>
@@ -4943,8 +5932,20 @@
       <c r="F81" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J81" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>82</v>
       </c>
@@ -4963,8 +5964,20 @@
       <c r="F82" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G82" s="3" t="s">
+        <v>947</v>
+      </c>
+      <c r="H82" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I82" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J82" s="3" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>83</v>
       </c>
@@ -4983,8 +5996,20 @@
       <c r="F83" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>84</v>
       </c>
@@ -5003,8 +6028,20 @@
       <c r="F84" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G84" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H84" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I84" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J84" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>85</v>
       </c>
@@ -5023,8 +6060,20 @@
       <c r="F85" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G85" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H85" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I85" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J85" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>86</v>
       </c>
@@ -5043,8 +6092,20 @@
       <c r="F86" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G86" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H86" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I86" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J86" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>87</v>
       </c>
@@ -5063,8 +6124,20 @@
       <c r="F87" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G87" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H87" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I87" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J87" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>88</v>
       </c>
@@ -5083,8 +6156,20 @@
       <c r="F88" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G88" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H88" s="3" t="s">
+        <v>947</v>
+      </c>
+      <c r="I88" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J88" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>89</v>
       </c>
@@ -5103,8 +6188,20 @@
       <c r="F89" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J89" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>90</v>
       </c>
@@ -5123,8 +6220,20 @@
       <c r="F90" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G90" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H90" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I90" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J90" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>91</v>
       </c>
@@ -5143,8 +6252,20 @@
       <c r="F91" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J91" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>92</v>
       </c>
@@ -5163,8 +6284,20 @@
       <c r="F92" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G92" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H92" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I92" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J92" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>93</v>
       </c>
@@ -5183,8 +6316,20 @@
       <c r="F93" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G93" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H93" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I93" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J93" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>94</v>
       </c>
@@ -5203,8 +6348,20 @@
       <c r="F94" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G94" s="3" t="s">
+        <v>947</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I94" s="3" t="s">
+        <v>947</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>95</v>
       </c>
@@ -5223,8 +6380,20 @@
       <c r="F95" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G95" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H95" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I95" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J95" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>96</v>
       </c>
@@ -5243,8 +6412,20 @@
       <c r="F96" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G96" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H96" s="3" t="s">
+        <v>947</v>
+      </c>
+      <c r="I96" s="3" t="s">
+        <v>947</v>
+      </c>
+      <c r="J96" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>97</v>
       </c>
@@ -5263,8 +6444,20 @@
       <c r="F97" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G97" s="3" t="s">
+        <v>947</v>
+      </c>
+      <c r="H97" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I97" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J97" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>98</v>
       </c>
@@ -5283,8 +6476,20 @@
       <c r="F98" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G98" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H98" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I98" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J98" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>99</v>
       </c>
@@ -5303,8 +6508,20 @@
       <c r="F99" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G99" s="3" t="s">
+        <v>947</v>
+      </c>
+      <c r="H99" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I99" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J99" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>100</v>
       </c>
@@ -5323,8 +6540,20 @@
       <c r="F100" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>101</v>
       </c>
@@ -5343,8 +6572,20 @@
       <c r="F101" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J101" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>102</v>
       </c>
@@ -5363,8 +6604,20 @@
       <c r="F102" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H102" s="3" t="s">
+        <v>947</v>
+      </c>
+      <c r="I102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J102" s="3" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>103</v>
       </c>
@@ -5383,8 +6636,20 @@
       <c r="F103" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G103" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H103" s="3" t="s">
+        <v>947</v>
+      </c>
+      <c r="I103" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J103" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>104</v>
       </c>
@@ -5403,8 +6668,20 @@
       <c r="F104" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G104" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H104" s="3" t="s">
+        <v>947</v>
+      </c>
+      <c r="I104" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J104" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>105</v>
       </c>
@@ -5423,8 +6700,20 @@
       <c r="F105" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G105" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H105" s="3" t="s">
+        <v>947</v>
+      </c>
+      <c r="I105" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J105" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>106</v>
       </c>
@@ -5443,8 +6732,20 @@
       <c r="F106" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G106" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H106" s="3" t="s">
+        <v>947</v>
+      </c>
+      <c r="I106" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J106" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>107</v>
       </c>
@@ -5463,8 +6764,20 @@
       <c r="F107" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G107" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H107" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I107" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J107" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>108</v>
       </c>
@@ -5483,8 +6796,20 @@
       <c r="F108" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G108" s="3" t="s">
+        <v>947</v>
+      </c>
+      <c r="H108" s="3" t="s">
+        <v>947</v>
+      </c>
+      <c r="I108" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J108" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>109</v>
       </c>
@@ -5503,8 +6828,20 @@
       <c r="F109" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G109" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H109" s="3" t="s">
+        <v>947</v>
+      </c>
+      <c r="I109" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J109" s="3" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>110</v>
       </c>
@@ -5523,8 +6860,20 @@
       <c r="F110" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G110" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H110" s="3" t="s">
+        <v>947</v>
+      </c>
+      <c r="I110" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J110" s="3" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>111</v>
       </c>
@@ -5543,8 +6892,20 @@
       <c r="F111" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G111" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H111" s="3" t="s">
+        <v>947</v>
+      </c>
+      <c r="I111" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J111" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>112</v>
       </c>
@@ -5563,8 +6924,20 @@
       <c r="F112" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G112" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H112" s="3" t="s">
+        <v>947</v>
+      </c>
+      <c r="I112" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J112" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>113</v>
       </c>
@@ -5583,8 +6956,20 @@
       <c r="F113" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G113" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H113" s="3" t="s">
+        <v>947</v>
+      </c>
+      <c r="I113" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J113" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>114</v>
       </c>
@@ -5603,8 +6988,20 @@
       <c r="F114" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G114" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H114" s="3" t="s">
+        <v>947</v>
+      </c>
+      <c r="I114" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J114" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>115</v>
       </c>
@@ -5623,8 +7020,20 @@
       <c r="F115" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G115" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H115" s="3" t="s">
+        <v>947</v>
+      </c>
+      <c r="I115" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J115" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>116</v>
       </c>
@@ -5643,8 +7052,20 @@
       <c r="F116" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G116" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H116" s="3" t="s">
+        <v>947</v>
+      </c>
+      <c r="I116" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J116" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>117</v>
       </c>
@@ -5663,8 +7084,20 @@
       <c r="F117" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G117" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H117" s="3" t="s">
+        <v>947</v>
+      </c>
+      <c r="I117" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J117" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>118</v>
       </c>
@@ -5683,8 +7116,20 @@
       <c r="F118" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G118" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H118" s="3" t="s">
+        <v>947</v>
+      </c>
+      <c r="I118" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J118" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>119</v>
       </c>
@@ -5703,8 +7148,20 @@
       <c r="F119" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G119" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H119" s="3" t="s">
+        <v>947</v>
+      </c>
+      <c r="I119" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J119" s="3" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>120</v>
       </c>
@@ -5723,8 +7180,20 @@
       <c r="F120" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G120" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H120" s="3" t="s">
+        <v>947</v>
+      </c>
+      <c r="I120" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J120" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>121</v>
       </c>
@@ -5743,8 +7212,20 @@
       <c r="F121" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G121" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H121" s="3" t="s">
+        <v>947</v>
+      </c>
+      <c r="I121" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J121" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>122</v>
       </c>
@@ -5763,8 +7244,20 @@
       <c r="F122" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G122" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H122" s="3" t="s">
+        <v>947</v>
+      </c>
+      <c r="I122" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J122" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>123</v>
       </c>
@@ -5783,8 +7276,20 @@
       <c r="F123" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G123" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H123" s="3" t="s">
+        <v>947</v>
+      </c>
+      <c r="I123" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J123" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>124</v>
       </c>
@@ -5803,8 +7308,20 @@
       <c r="F124" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G124" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H124" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I124" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J124" s="3" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>125</v>
       </c>
@@ -5823,8 +7340,20 @@
       <c r="F125" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G125" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H125" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I125" s="3" t="s">
+        <v>947</v>
+      </c>
+      <c r="J125" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>126</v>
       </c>
@@ -5843,8 +7372,20 @@
       <c r="F126" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G126" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H126" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I126" s="3" t="s">
+        <v>947</v>
+      </c>
+      <c r="J126" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>127</v>
       </c>
@@ -5863,8 +7404,20 @@
       <c r="F127" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G127" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H127" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I127" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J127" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>128</v>
       </c>
@@ -5883,8 +7436,20 @@
       <c r="F128" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G128" s="3" t="s">
+        <v>947</v>
+      </c>
+      <c r="H128" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I128" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J128" s="3" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>129</v>
       </c>
@@ -5903,8 +7468,20 @@
       <c r="F129" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G129" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H129" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I129" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J129" s="3" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>130</v>
       </c>
@@ -5923,8 +7500,20 @@
       <c r="F130" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G130" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H130" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I130" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J130" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>131</v>
       </c>
@@ -5943,8 +7532,20 @@
       <c r="F131" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G131" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H131" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I131" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J131" s="3" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>132</v>
       </c>
@@ -5963,8 +7564,20 @@
       <c r="F132" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G132" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H132" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I132" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J132" s="3" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>133</v>
       </c>
@@ -5983,8 +7596,20 @@
       <c r="F133" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G133" s="3" t="s">
+        <v>947</v>
+      </c>
+      <c r="H133" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I133" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J133" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>134</v>
       </c>
@@ -6003,8 +7628,20 @@
       <c r="F134" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G134" s="3" t="s">
+        <v>947</v>
+      </c>
+      <c r="H134" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I134" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J134" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>135</v>
       </c>
@@ -6023,8 +7660,20 @@
       <c r="F135" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G135" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H135" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I135" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J135" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>136</v>
       </c>
@@ -6043,8 +7692,20 @@
       <c r="F136" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G136" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H136" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I136" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J136" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>137</v>
       </c>
@@ -6063,8 +7724,20 @@
       <c r="F137" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G137" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H137" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I137" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J137" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>138</v>
       </c>
@@ -6083,8 +7756,20 @@
       <c r="F138" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G138" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H138" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I138" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J138" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>139</v>
       </c>
@@ -6103,8 +7788,20 @@
       <c r="F139" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G139" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H139" s="3" t="s">
+        <v>947</v>
+      </c>
+      <c r="I139" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J139" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>140</v>
       </c>
@@ -6123,8 +7820,20 @@
       <c r="F140" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G140" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H140" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I140" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J140" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>141</v>
       </c>
@@ -6143,8 +7852,20 @@
       <c r="F141" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G141" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H141" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I141" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J141" s="3" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>142</v>
       </c>
@@ -6163,8 +7884,20 @@
       <c r="F142" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G142" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H142" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I142" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J142" s="3" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>143</v>
       </c>
@@ -6183,8 +7916,20 @@
       <c r="F143" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G143" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H143" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I143" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J143" s="3" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>144</v>
       </c>
@@ -6203,8 +7948,20 @@
       <c r="F144" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G144" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H144" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I144" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J144" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>145</v>
       </c>
@@ -6223,8 +7980,20 @@
       <c r="F145" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G145" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H145" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I145" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J145" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>146</v>
       </c>
@@ -6243,8 +8012,20 @@
       <c r="F146" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G146" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H146" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I146" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J146" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>147</v>
       </c>
@@ -6263,8 +8044,20 @@
       <c r="F147" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G147" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H147" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I147" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J147" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>148</v>
       </c>
@@ -6283,8 +8076,20 @@
       <c r="F148" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G148" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H148" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I148" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J148" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>149</v>
       </c>
@@ -6303,8 +8108,20 @@
       <c r="F149" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G149" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H149" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I149" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J149" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>150</v>
       </c>
@@ -6323,8 +8140,20 @@
       <c r="F150" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G150" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H150" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I150" s="3" t="s">
+        <v>947</v>
+      </c>
+      <c r="J150" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>151</v>
       </c>
@@ -6343,8 +8172,20 @@
       <c r="F151" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G151" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H151" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I151" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J151" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>152</v>
       </c>
@@ -6363,8 +8204,20 @@
       <c r="F152" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G152" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H152" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I152" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J152" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>153</v>
       </c>
@@ -6383,8 +8236,20 @@
       <c r="F153" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G153" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H153" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I153" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J153" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>154</v>
       </c>
@@ -6403,8 +8268,20 @@
       <c r="F154" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G154" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H154" s="3" t="s">
+        <v>947</v>
+      </c>
+      <c r="I154" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J154" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>155</v>
       </c>
@@ -6423,8 +8300,20 @@
       <c r="F155" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G155" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H155" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I155" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J155" s="3" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>156</v>
       </c>
@@ -6443,8 +8332,20 @@
       <c r="F156" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G156" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H156" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I156" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J156" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>157</v>
       </c>
@@ -6463,8 +8364,20 @@
       <c r="F157" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G157" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H157" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I157" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J157" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>158</v>
       </c>
@@ -6483,8 +8396,20 @@
       <c r="F158" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G158" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H158" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I158" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J158" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>159</v>
       </c>
@@ -6503,8 +8428,20 @@
       <c r="F159" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G159" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H159" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I159" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J159" s="3" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>160</v>
       </c>
@@ -6523,8 +8460,20 @@
       <c r="F160" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G160" s="3" t="s">
+        <v>947</v>
+      </c>
+      <c r="H160" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I160" s="3" t="s">
+        <v>947</v>
+      </c>
+      <c r="J160" s="3" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>161</v>
       </c>
@@ -6543,8 +8492,20 @@
       <c r="F161" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G161" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H161" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I161" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J161" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>162</v>
       </c>
@@ -6563,8 +8524,20 @@
       <c r="F162" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G162" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H162" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I162" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J162" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>163</v>
       </c>
@@ -6583,8 +8556,20 @@
       <c r="F163" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G163" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H163" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I163" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J163" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>164</v>
       </c>
@@ -6603,8 +8588,20 @@
       <c r="F164" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G164" s="3" t="s">
+        <v>947</v>
+      </c>
+      <c r="H164" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I164" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J164" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>165</v>
       </c>
@@ -6623,8 +8620,20 @@
       <c r="F165" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G165" s="3" t="s">
+        <v>947</v>
+      </c>
+      <c r="H165" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I165" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J165" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>166</v>
       </c>
@@ -6643,8 +8652,20 @@
       <c r="F166" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G166" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H166" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I166" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J166" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>167</v>
       </c>
@@ -6663,8 +8684,20 @@
       <c r="F167" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G167" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H167" s="3" t="s">
+        <v>947</v>
+      </c>
+      <c r="I167" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J167" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>168</v>
       </c>
@@ -6683,8 +8716,20 @@
       <c r="F168" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G168" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H168" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I168" s="3" t="s">
+        <v>947</v>
+      </c>
+      <c r="J168" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>169</v>
       </c>
@@ -6703,8 +8748,20 @@
       <c r="F169" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G169" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H169" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I169" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J169" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>170</v>
       </c>
@@ -6723,8 +8780,20 @@
       <c r="F170" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G170" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H170" s="3" t="s">
+        <v>947</v>
+      </c>
+      <c r="I170" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J170" s="3" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>171</v>
       </c>
@@ -6743,8 +8812,20 @@
       <c r="F171" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G171" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H171" s="3" t="s">
+        <v>947</v>
+      </c>
+      <c r="I171" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J171" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>172</v>
       </c>
@@ -6763,8 +8844,20 @@
       <c r="F172" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G172" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H172" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I172" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J172" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>173</v>
       </c>
@@ -6783,8 +8876,20 @@
       <c r="F173" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G173" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H173" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I173" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J173" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>174</v>
       </c>
@@ -6803,8 +8908,20 @@
       <c r="F174" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G174" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H174" s="3" t="s">
+        <v>947</v>
+      </c>
+      <c r="I174" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J174" s="3" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>175</v>
       </c>
@@ -6823,8 +8940,20 @@
       <c r="F175" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G175" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H175" s="3" t="s">
+        <v>947</v>
+      </c>
+      <c r="I175" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J175" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>176</v>
       </c>
@@ -6843,8 +8972,20 @@
       <c r="F176" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G176" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H176" s="3" t="s">
+        <v>947</v>
+      </c>
+      <c r="I176" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J176" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>177</v>
       </c>
@@ -6863,8 +9004,20 @@
       <c r="F177" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G177" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H177" s="3" t="s">
+        <v>947</v>
+      </c>
+      <c r="I177" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J177" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>178</v>
       </c>
@@ -6883,8 +9036,20 @@
       <c r="F178" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G178" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H178" s="3" t="s">
+        <v>947</v>
+      </c>
+      <c r="I178" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J178" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>179</v>
       </c>
@@ -6903,8 +9068,20 @@
       <c r="F179" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G179" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H179" s="3" t="s">
+        <v>947</v>
+      </c>
+      <c r="I179" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J179" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>180</v>
       </c>
@@ -6923,8 +9100,20 @@
       <c r="F180" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G180" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H180" s="3" t="s">
+        <v>947</v>
+      </c>
+      <c r="I180" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J180" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>181</v>
       </c>
@@ -6943,8 +9132,20 @@
       <c r="F181" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G181" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H181" s="3" t="s">
+        <v>947</v>
+      </c>
+      <c r="I181" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J181" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>182</v>
       </c>
@@ -6963,8 +9164,20 @@
       <c r="F182" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G182" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H182" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I182" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J182" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>183</v>
       </c>
@@ -6983,8 +9196,20 @@
       <c r="F183" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G183" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H183" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I183" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J183" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>184</v>
       </c>
@@ -7003,8 +9228,20 @@
       <c r="F184" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G184" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H184" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I184" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J184" s="3" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>185</v>
       </c>
@@ -7023,8 +9260,20 @@
       <c r="F185" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G185" s="3" t="s">
+        <v>947</v>
+      </c>
+      <c r="H185" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I185" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J185" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="186" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>186</v>
       </c>
@@ -7043,8 +9292,20 @@
       <c r="F186" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G186" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H186" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I186" s="3" t="s">
+        <v>947</v>
+      </c>
+      <c r="J186" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>187</v>
       </c>
@@ -7063,8 +9324,20 @@
       <c r="F187" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G187" s="3" t="s">
+        <v>947</v>
+      </c>
+      <c r="H187" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I187" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J187" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="188" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>188</v>
       </c>
@@ -7083,8 +9356,20 @@
       <c r="F188" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G188" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H188" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I188" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J188" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="189" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>189</v>
       </c>
@@ -7103,8 +9388,20 @@
       <c r="F189" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G189" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H189" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I189" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J189" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="190" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>190</v>
       </c>
@@ -7123,8 +9420,20 @@
       <c r="F190" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G190" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H190" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I190" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J190" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="191" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>191</v>
       </c>
@@ -7143,8 +9452,20 @@
       <c r="F191" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G191" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H191" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I191" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J191" s="3" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="192" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>192</v>
       </c>
@@ -7163,8 +9484,20 @@
       <c r="F192" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G192" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H192" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I192" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J192" s="3" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="193" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>193</v>
       </c>
@@ -7183,8 +9516,20 @@
       <c r="F193" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G193" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H193" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I193" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J193" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="194" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>194</v>
       </c>
@@ -7203,8 +9548,20 @@
       <c r="F194" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G194" s="3" t="s">
+        <v>947</v>
+      </c>
+      <c r="H194" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I194" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J194" s="3" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="195" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>195</v>
       </c>
@@ -7223,8 +9580,20 @@
       <c r="F195" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G195" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H195" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I195" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J195" s="3" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="196" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>196</v>
       </c>
@@ -7243,8 +9612,20 @@
       <c r="F196" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G196" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H196" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I196" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J196" s="3" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="197" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>197</v>
       </c>
@@ -7263,8 +9644,20 @@
       <c r="F197" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G197" s="3" t="s">
+        <v>947</v>
+      </c>
+      <c r="H197" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I197" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J197" s="3" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="198" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>198</v>
       </c>
@@ -7283,8 +9676,20 @@
       <c r="F198" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G198" s="3" t="s">
+        <v>947</v>
+      </c>
+      <c r="H198" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I198" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J198" s="3" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="199" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>199</v>
       </c>
@@ -7303,8 +9708,20 @@
       <c r="F199" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G199" s="3" t="s">
+        <v>947</v>
+      </c>
+      <c r="H199" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I199" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J199" s="3" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="200" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>200</v>
       </c>
@@ -7323,8 +9740,20 @@
       <c r="F200" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G200" s="3" t="s">
+        <v>947</v>
+      </c>
+      <c r="H200" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I200" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J200" s="3" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="201" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>201</v>
       </c>
@@ -7343,8 +9772,20 @@
       <c r="F201" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G201" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H201" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I201" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J201" s="3" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="202" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>203</v>
       </c>
@@ -7363,8 +9804,20 @@
       <c r="F202" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G202" s="3" t="s">
+        <v>947</v>
+      </c>
+      <c r="H202" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I202" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J202" s="3" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="203" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>204</v>
       </c>
@@ -7383,8 +9836,20 @@
       <c r="F203" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G203" s="3" t="s">
+        <v>947</v>
+      </c>
+      <c r="H203" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I203" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J203" s="3" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="204" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>205</v>
       </c>
@@ -7403,8 +9868,20 @@
       <c r="F204" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G204" s="3" t="s">
+        <v>947</v>
+      </c>
+      <c r="H204" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I204" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J204" s="3" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="205" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>206</v>
       </c>
@@ -7423,8 +9900,20 @@
       <c r="F205" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G205" s="3" t="s">
+        <v>947</v>
+      </c>
+      <c r="H205" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I205" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J205" s="3" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="206" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>207</v>
       </c>
@@ -7443,8 +9932,20 @@
       <c r="F206" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G206" s="3" t="s">
+        <v>947</v>
+      </c>
+      <c r="H206" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I206" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J206" s="3" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="207" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>208</v>
       </c>
@@ -7463,8 +9964,20 @@
       <c r="F207" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G207" s="3" t="s">
+        <v>947</v>
+      </c>
+      <c r="H207" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I207" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J207" s="3" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="208" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>209</v>
       </c>
@@ -7483,8 +9996,20 @@
       <c r="F208" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G208" s="3" t="s">
+        <v>947</v>
+      </c>
+      <c r="H208" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I208" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J208" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="209" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>210</v>
       </c>
@@ -7503,8 +10028,20 @@
       <c r="F209" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G209" s="3" t="s">
+        <v>947</v>
+      </c>
+      <c r="H209" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I209" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J209" s="3" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="210" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>211</v>
       </c>
@@ -7523,8 +10060,20 @@
       <c r="F210" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G210" s="3" t="s">
+        <v>947</v>
+      </c>
+      <c r="H210" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I210" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J210" s="3" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="211" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>212</v>
       </c>
@@ -7543,8 +10092,20 @@
       <c r="F211" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G211" s="3" t="s">
+        <v>947</v>
+      </c>
+      <c r="H211" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I211" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J211" s="3" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="212" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>213</v>
       </c>
@@ -7563,8 +10124,20 @@
       <c r="F212" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G212" s="3" t="s">
+        <v>947</v>
+      </c>
+      <c r="H212" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I212" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J212" s="3" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="213" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>214</v>
       </c>
@@ -7583,8 +10156,20 @@
       <c r="F213" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G213" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H213" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I213" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J213" s="3" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="214" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>215</v>
       </c>
@@ -7603,8 +10188,20 @@
       <c r="F214" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G214" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H214" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I214" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J214" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="215" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>216</v>
       </c>
@@ -7623,8 +10220,20 @@
       <c r="F215" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G215" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H215" s="3" t="s">
+        <v>947</v>
+      </c>
+      <c r="I215" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J215" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="216" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>217</v>
       </c>
@@ -7643,8 +10252,20 @@
       <c r="F216" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G216" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H216" s="3" t="s">
+        <v>947</v>
+      </c>
+      <c r="I216" s="3" t="s">
+        <v>947</v>
+      </c>
+      <c r="J216" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="217" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>218</v>
       </c>
@@ -7663,8 +10284,20 @@
       <c r="F217" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G217" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H217" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I217" s="3" t="s">
+        <v>947</v>
+      </c>
+      <c r="J217" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="218" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>219</v>
       </c>
@@ -7683,8 +10316,20 @@
       <c r="F218" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G218" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H218" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I218" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J218" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="219" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>220</v>
       </c>
@@ -7703,8 +10348,20 @@
       <c r="F219" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G219" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H219" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I219" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J219" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="220" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>221</v>
       </c>
@@ -7723,8 +10380,20 @@
       <c r="F220" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G220" s="3" t="s">
+        <v>947</v>
+      </c>
+      <c r="H220" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I220" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J220" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="221" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>222</v>
       </c>
@@ -7743,8 +10412,20 @@
       <c r="F221" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G221" s="3" t="s">
+        <v>947</v>
+      </c>
+      <c r="H221" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I221" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J221" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="222" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>223</v>
       </c>
@@ -7763,8 +10444,20 @@
       <c r="F222" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G222" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H222" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I222" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J222" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="223" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>224</v>
       </c>
@@ -7783,8 +10476,20 @@
       <c r="F223" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G223" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H223" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I223" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J223" s="3" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="224" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>225</v>
       </c>
@@ -7803,8 +10508,20 @@
       <c r="F224" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G224" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H224" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I224" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J224" s="3" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="225" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A225">
         <v>226</v>
       </c>
@@ -7823,8 +10540,20 @@
       <c r="F225" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G225" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H225" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I225" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J225" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="226" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A226">
         <v>227</v>
       </c>
@@ -7843,8 +10572,20 @@
       <c r="F226" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G226" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H226" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I226" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J226" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="227" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A227">
         <v>228</v>
       </c>
@@ -7863,8 +10604,20 @@
       <c r="F227" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G227" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H227" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I227" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J227" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="228" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A228">
         <v>229</v>
       </c>
@@ -7883,8 +10636,20 @@
       <c r="F228" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G228" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H228" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I228" s="3" t="s">
+        <v>947</v>
+      </c>
+      <c r="J228" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="229" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A229">
         <v>230</v>
       </c>
@@ -7903,8 +10668,20 @@
       <c r="F229" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G229" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H229" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I229" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J229" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="230" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A230">
         <v>231</v>
       </c>
@@ -7923,8 +10700,20 @@
       <c r="F230" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G230" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H230" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I230" s="3" t="s">
+        <v>947</v>
+      </c>
+      <c r="J230" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="231" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A231">
         <v>232</v>
       </c>
@@ -7943,8 +10732,20 @@
       <c r="F231" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G231" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H231" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I231" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J231" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="232" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A232">
         <v>233</v>
       </c>
@@ -7963,8 +10764,20 @@
       <c r="F232" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G232" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H232" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I232" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J232" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="233" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A233">
         <v>234</v>
       </c>
@@ -7983,8 +10796,20 @@
       <c r="F233" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G233" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H233" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I233" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J233" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="234" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A234">
         <v>235</v>
       </c>
@@ -8003,8 +10828,20 @@
       <c r="F234" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G234" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H234" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I234" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J234" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="235" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A235">
         <v>236</v>
       </c>
@@ -8023,8 +10860,20 @@
       <c r="F235" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G235" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H235" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I235" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J235" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="236" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A236">
         <v>237</v>
       </c>
@@ -8043,8 +10892,20 @@
       <c r="F236" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G236" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H236" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I236" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J236" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="237" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A237">
         <v>238</v>
       </c>
@@ -8063,8 +10924,20 @@
       <c r="F237" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G237" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H237" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I237" s="3" t="s">
+        <v>947</v>
+      </c>
+      <c r="J237" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="238" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A238">
         <v>239</v>
       </c>
@@ -8083,8 +10956,20 @@
       <c r="F238" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G238" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H238" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I238" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J238" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="239" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A239">
         <v>240</v>
       </c>
@@ -8103,8 +10988,20 @@
       <c r="F239" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G239" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H239" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I239" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J239" s="3" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="240" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A240">
         <v>241</v>
       </c>
@@ -8123,8 +11020,20 @@
       <c r="F240" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G240" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H240" s="3" t="s">
+        <v>947</v>
+      </c>
+      <c r="I240" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J240" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="241" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A241">
         <v>242</v>
       </c>
@@ -8143,8 +11052,20 @@
       <c r="F241" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G241" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H241" s="3" t="s">
+        <v>947</v>
+      </c>
+      <c r="I241" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J241" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="242" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A242">
         <v>243</v>
       </c>
@@ -8163,8 +11084,20 @@
       <c r="F242" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G242" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H242" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I242" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J242" s="3" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="243" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A243">
         <v>244</v>
       </c>
@@ -8183,8 +11116,20 @@
       <c r="F243" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G243" s="3" t="s">
+        <v>947</v>
+      </c>
+      <c r="H243" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I243" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J243" s="3" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="244" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A244">
         <v>245</v>
       </c>
@@ -8203,8 +11148,20 @@
       <c r="F244" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G244" s="3" t="s">
+        <v>947</v>
+      </c>
+      <c r="H244" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I244" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J244" s="3" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="245" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A245">
         <v>246</v>
       </c>
@@ -8223,8 +11180,20 @@
       <c r="F245" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G245" s="3" t="s">
+        <v>947</v>
+      </c>
+      <c r="H245" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I245" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J245" s="3" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="246" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A246">
         <v>247</v>
       </c>
@@ -8243,8 +11212,20 @@
       <c r="F246" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G246" s="3" t="s">
+        <v>947</v>
+      </c>
+      <c r="H246" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I246" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J246" s="3" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="247" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A247">
         <v>248</v>
       </c>
@@ -8263,8 +11244,20 @@
       <c r="F247" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G247" s="3" t="s">
+        <v>947</v>
+      </c>
+      <c r="H247" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I247" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J247" s="3" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="248" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A248">
         <v>249</v>
       </c>
@@ -8283,8 +11276,20 @@
       <c r="F248" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G248" s="3" t="s">
+        <v>947</v>
+      </c>
+      <c r="H248" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I248" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J248" s="3" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="249" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A249">
         <v>250</v>
       </c>
@@ -8303,8 +11308,20 @@
       <c r="F249" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G249" s="3" t="s">
+        <v>947</v>
+      </c>
+      <c r="H249" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I249" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J249" s="3" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="250" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A250">
         <v>251</v>
       </c>
@@ -8323,8 +11340,20 @@
       <c r="F250" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G250" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H250" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I250" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J250" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="251" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A251">
         <v>252</v>
       </c>
@@ -8343,8 +11372,20 @@
       <c r="F251" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G251" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H251" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I251" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J251" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="252" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A252">
         <v>253</v>
       </c>
@@ -8363,8 +11404,20 @@
       <c r="F252" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G252" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H252" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I252" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J252" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="253" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A253">
         <v>254</v>
       </c>
@@ -8383,8 +11436,20 @@
       <c r="F253" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G253" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H253" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I253" s="3" t="s">
+        <v>947</v>
+      </c>
+      <c r="J253" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="254" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A254">
         <v>255</v>
       </c>
@@ -8403,8 +11468,20 @@
       <c r="F254" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G254" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H254" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I254" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J254" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="255" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A255">
         <v>256</v>
       </c>
@@ -8423,8 +11500,20 @@
       <c r="F255" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G255" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H255" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I255" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J255" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="256" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A256">
         <v>257</v>
       </c>
@@ -8443,8 +11532,20 @@
       <c r="F256" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G256" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H256" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I256" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J256" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="257" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A257">
         <v>258</v>
       </c>
@@ -8463,8 +11564,20 @@
       <c r="F257" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G257" s="3" t="s">
+        <v>947</v>
+      </c>
+      <c r="H257" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I257" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J257" s="3" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="258" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A258">
         <v>259</v>
       </c>
@@ -8483,8 +11596,20 @@
       <c r="F258" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G258" s="3" t="s">
+        <v>947</v>
+      </c>
+      <c r="H258" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I258" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J258" s="3" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="259" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A259">
         <v>260</v>
       </c>
@@ -8503,8 +11628,20 @@
       <c r="F259" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G259" s="3" t="s">
+        <v>947</v>
+      </c>
+      <c r="H259" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I259" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J259" s="3" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="260" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A260">
         <v>261</v>
       </c>
@@ -8523,8 +11660,20 @@
       <c r="F260" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G260" s="3" t="s">
+        <v>947</v>
+      </c>
+      <c r="H260" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I260" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J260" s="3" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="261" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A261">
         <v>262</v>
       </c>
@@ -8543,8 +11692,20 @@
       <c r="F261" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G261" s="3" t="s">
+        <v>947</v>
+      </c>
+      <c r="H261" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I261" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J261" s="3" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="262" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A262">
         <v>263</v>
       </c>
@@ -8563,8 +11724,20 @@
       <c r="F262" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G262" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H262" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I262" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J262" s="3" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="263" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A263">
         <v>264</v>
       </c>
@@ -8577,8 +11750,20 @@
       <c r="D263" s="1"/>
       <c r="E263" s="1"/>
       <c r="F263" s="1"/>
-    </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G263" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H263" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I263" s="3" t="s">
+        <v>947</v>
+      </c>
+      <c r="J263" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="264" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A264">
         <v>265</v>
       </c>
@@ -8591,8 +11776,20 @@
       <c r="D264" s="1"/>
       <c r="E264" s="1"/>
       <c r="F264" s="1"/>
-    </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G264" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H264" s="3" t="s">
+        <v>947</v>
+      </c>
+      <c r="I264" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J264" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="265" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A265">
         <v>266</v>
       </c>
@@ -8605,8 +11802,20 @@
       <c r="D265" s="1"/>
       <c r="E265" s="1"/>
       <c r="F265" s="1"/>
-    </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G265" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H265" s="3" t="s">
+        <v>947</v>
+      </c>
+      <c r="I265" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J265" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="266" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A266">
         <v>267</v>
       </c>
@@ -8619,8 +11828,20 @@
       <c r="D266" s="1"/>
       <c r="E266" s="1"/>
       <c r="F266" s="1"/>
-    </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G266" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H266" s="3" t="s">
+        <v>947</v>
+      </c>
+      <c r="I266" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J266" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="267" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A267">
         <v>268</v>
       </c>
@@ -8633,8 +11854,20 @@
       <c r="D267" s="1"/>
       <c r="E267" s="1"/>
       <c r="F267" s="1"/>
-    </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G267" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H267" s="3" t="s">
+        <v>947</v>
+      </c>
+      <c r="I267" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J267" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="268" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A268">
         <v>269</v>
       </c>
@@ -8647,8 +11880,20 @@
       <c r="D268" s="1"/>
       <c r="E268" s="1"/>
       <c r="F268" s="1"/>
-    </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G268" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H268" s="3" t="s">
+        <v>947</v>
+      </c>
+      <c r="I268" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J268" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="269" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A269">
         <v>270</v>
       </c>
@@ -8661,8 +11906,20 @@
       <c r="D269" s="1"/>
       <c r="E269" s="1"/>
       <c r="F269" s="1"/>
-    </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G269" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H269" s="3" t="s">
+        <v>947</v>
+      </c>
+      <c r="I269" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J269" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="270" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A270">
         <v>271</v>
       </c>
@@ -8675,8 +11932,20 @@
       <c r="D270" s="1"/>
       <c r="E270" s="1"/>
       <c r="F270" s="1"/>
-    </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G270" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H270" s="3" t="s">
+        <v>947</v>
+      </c>
+      <c r="I270" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J270" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="271" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A271">
         <v>272</v>
       </c>
@@ -8689,8 +11958,20 @@
       <c r="D271" s="1"/>
       <c r="E271" s="1"/>
       <c r="F271" s="1"/>
-    </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G271" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H271" s="3" t="s">
+        <v>947</v>
+      </c>
+      <c r="I271" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J271" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="272" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A272">
         <v>273</v>
       </c>
@@ -8703,8 +11984,20 @@
       <c r="D272" s="1"/>
       <c r="E272" s="1"/>
       <c r="F272" s="1"/>
-    </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G272" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H272" s="3" t="s">
+        <v>947</v>
+      </c>
+      <c r="I272" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J272" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="273" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A273">
         <v>274</v>
       </c>
@@ -8717,8 +12010,20 @@
       <c r="D273" s="1"/>
       <c r="E273" s="1"/>
       <c r="F273" s="1"/>
-    </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G273" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H273" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I273" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J273" s="3" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="274" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A274">
         <v>275</v>
       </c>
@@ -8731,8 +12036,20 @@
       <c r="D274" s="1"/>
       <c r="E274" s="1"/>
       <c r="F274" s="1"/>
-    </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G274" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H274" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I274" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J274" s="3" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="275" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A275">
         <v>276</v>
       </c>
@@ -8745,8 +12062,20 @@
       <c r="D275" s="1"/>
       <c r="E275" s="1"/>
       <c r="F275" s="1"/>
-    </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G275" s="3" t="s">
+        <v>947</v>
+      </c>
+      <c r="H275" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I275" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J275" s="3" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="276" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A276">
         <v>277</v>
       </c>
@@ -8759,8 +12088,20 @@
       <c r="D276" s="1"/>
       <c r="E276" s="1"/>
       <c r="F276" s="1"/>
-    </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G276" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H276" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I276" s="3" t="s">
+        <v>947</v>
+      </c>
+      <c r="J276" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="277" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A277">
         <v>278</v>
       </c>
@@ -8773,8 +12114,20 @@
       <c r="D277" s="1"/>
       <c r="E277" s="1"/>
       <c r="F277" s="1"/>
-    </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G277" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H277" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I277" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J277" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="278" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A278">
         <v>279</v>
       </c>
@@ -8787,8 +12140,20 @@
       <c r="D278" s="1"/>
       <c r="E278" s="1"/>
       <c r="F278" s="1"/>
-    </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G278" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H278" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I278" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J278" s="3" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="279" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A279">
         <v>280</v>
       </c>
@@ -8801,8 +12166,20 @@
       <c r="D279" s="1"/>
       <c r="E279" s="1"/>
       <c r="F279" s="1"/>
-    </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G279" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H279" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I279" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J279" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="280" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A280">
         <v>281</v>
       </c>
@@ -8815,8 +12192,20 @@
       <c r="D280" s="1"/>
       <c r="E280" s="1"/>
       <c r="F280" s="1"/>
-    </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G280" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H280" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I280" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J280" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="281" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A281">
         <v>282</v>
       </c>
@@ -8829,8 +12218,20 @@
       <c r="D281" s="1"/>
       <c r="E281" s="1"/>
       <c r="F281" s="1"/>
-    </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G281" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H281" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I281" s="3" t="s">
+        <v>947</v>
+      </c>
+      <c r="J281" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="282" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A282">
         <v>283</v>
       </c>
@@ -8843,8 +12244,20 @@
       <c r="D282" s="1"/>
       <c r="E282" s="1"/>
       <c r="F282" s="1"/>
-    </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G282" s="3" t="s">
+        <v>947</v>
+      </c>
+      <c r="H282" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I282" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J282" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="283" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A283">
         <v>284</v>
       </c>
@@ -8857,8 +12270,20 @@
       <c r="D283" s="1"/>
       <c r="E283" s="1"/>
       <c r="F283" s="1"/>
-    </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G283" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H283" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I283" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J283" s="3" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="284" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A284">
         <v>285</v>
       </c>
@@ -8871,8 +12296,20 @@
       <c r="D284" s="1"/>
       <c r="E284" s="1"/>
       <c r="F284" s="1"/>
-    </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G284" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H284" s="3" t="s">
+        <v>947</v>
+      </c>
+      <c r="I284" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J284" s="3" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="285" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A285">
         <v>286</v>
       </c>
@@ -8885,8 +12322,20 @@
       <c r="D285" s="1"/>
       <c r="E285" s="1"/>
       <c r="F285" s="1"/>
-    </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G285" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H285" s="3" t="s">
+        <v>947</v>
+      </c>
+      <c r="I285" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J285" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="286" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A286">
         <v>287</v>
       </c>
@@ -8899,8 +12348,20 @@
       <c r="D286" s="1"/>
       <c r="E286" s="1"/>
       <c r="F286" s="1"/>
-    </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G286" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H286" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I286" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J286" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="287" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A287">
         <v>288</v>
       </c>
@@ -8913,8 +12374,20 @@
       <c r="D287" s="1"/>
       <c r="E287" s="1"/>
       <c r="F287" s="1"/>
-    </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G287" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H287" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I287" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J287" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="288" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A288">
         <v>289</v>
       </c>
@@ -8927,8 +12400,20 @@
       <c r="D288" s="1"/>
       <c r="E288" s="1"/>
       <c r="F288" s="1"/>
-    </row>
-    <row r="289" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G288" s="3" t="s">
+        <v>947</v>
+      </c>
+      <c r="H288" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I288" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J288" s="3" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="289" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A289">
         <v>290</v>
       </c>
@@ -8941,8 +12426,20 @@
       <c r="D289" s="1"/>
       <c r="E289" s="1"/>
       <c r="F289" s="1"/>
-    </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G289" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H289" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I289" s="3" t="s">
+        <v>947</v>
+      </c>
+      <c r="J289" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="290" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A290">
         <v>291</v>
       </c>
@@ -8955,8 +12452,20 @@
       <c r="D290" s="1"/>
       <c r="E290" s="1"/>
       <c r="F290" s="1"/>
-    </row>
-    <row r="291" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G290" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H290" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I290" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J290" s="3" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="291" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A291">
         <v>292</v>
       </c>
@@ -8969,8 +12478,20 @@
       <c r="D291" s="1"/>
       <c r="E291" s="1"/>
       <c r="F291" s="1"/>
-    </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G291" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H291" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I291" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J291" s="3" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="292" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A292">
         <v>293</v>
       </c>
@@ -8983,8 +12504,20 @@
       <c r="D292" s="1"/>
       <c r="E292" s="1"/>
       <c r="F292" s="1"/>
-    </row>
-    <row r="293" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G292" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H292" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I292" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J292" s="3" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="293" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A293">
         <v>294</v>
       </c>
@@ -8997,8 +12530,20 @@
       <c r="D293" s="1"/>
       <c r="E293" s="1"/>
       <c r="F293" s="1"/>
-    </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G293" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H293" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I293" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J293" s="3" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="294" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A294">
         <v>295</v>
       </c>
@@ -9011,8 +12556,20 @@
       <c r="D294" s="1"/>
       <c r="E294" s="1"/>
       <c r="F294" s="1"/>
-    </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G294" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H294" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I294" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J294" s="3" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="295" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A295">
         <v>296</v>
       </c>
@@ -9025,8 +12582,20 @@
       <c r="D295" s="1"/>
       <c r="E295" s="1"/>
       <c r="F295" s="1"/>
-    </row>
-    <row r="296" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G295" s="3" t="s">
+        <v>947</v>
+      </c>
+      <c r="H295" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I295" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J295" s="3" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="296" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A296">
         <v>297</v>
       </c>
@@ -9039,8 +12608,20 @@
       <c r="D296" s="1"/>
       <c r="E296" s="1"/>
       <c r="F296" s="1"/>
-    </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G296" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H296" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I296" s="3" t="s">
+        <v>947</v>
+      </c>
+      <c r="J296" s="3" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="297" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A297">
         <v>298</v>
       </c>
@@ -9053,8 +12634,20 @@
       <c r="D297" s="1"/>
       <c r="E297" s="1"/>
       <c r="F297" s="1"/>
-    </row>
-    <row r="298" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G297" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H297" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I297" s="3" t="s">
+        <v>947</v>
+      </c>
+      <c r="J297" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="298" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A298">
         <v>299</v>
       </c>
@@ -9067,8 +12660,20 @@
       <c r="D298" s="1"/>
       <c r="E298" s="1"/>
       <c r="F298" s="1"/>
-    </row>
-    <row r="299" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G298" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H298" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I298" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J298" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="299" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A299">
         <v>300</v>
       </c>
@@ -9081,8 +12686,20 @@
       <c r="D299" s="1"/>
       <c r="E299" s="1"/>
       <c r="F299" s="1"/>
-    </row>
-    <row r="300" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G299" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H299" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I299" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J299" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="300" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A300">
         <v>301</v>
       </c>
@@ -9095,8 +12712,20 @@
       <c r="D300" s="1"/>
       <c r="E300" s="1"/>
       <c r="F300" s="1"/>
-    </row>
-    <row r="301" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G300" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H300" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I300" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J300" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="301" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A301">
         <v>302</v>
       </c>
@@ -9109,8 +12738,20 @@
       <c r="D301" s="1"/>
       <c r="E301" s="1"/>
       <c r="F301" s="1"/>
-    </row>
-    <row r="302" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G301" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H301" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I301" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J301" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="302" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A302">
         <v>303</v>
       </c>
@@ -9123,8 +12764,20 @@
       <c r="D302" s="1"/>
       <c r="E302" s="1"/>
       <c r="F302" s="1"/>
-    </row>
-    <row r="303" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G302" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H302" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I302" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J302" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="303" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A303">
         <v>304</v>
       </c>
@@ -9137,8 +12790,20 @@
       <c r="D303" s="1"/>
       <c r="E303" s="1"/>
       <c r="F303" s="1"/>
-    </row>
-    <row r="304" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G303" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H303" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I303" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J303" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="304" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A304">
         <v>305</v>
       </c>
@@ -9151,8 +12816,20 @@
       <c r="D304" s="1"/>
       <c r="E304" s="1"/>
       <c r="F304" s="1"/>
-    </row>
-    <row r="305" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G304" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H304" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I304" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J304" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="305" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A305">
         <v>306</v>
       </c>
@@ -9165,8 +12842,20 @@
       <c r="D305" s="1"/>
       <c r="E305" s="1"/>
       <c r="F305" s="1"/>
-    </row>
-    <row r="306" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G305" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H305" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I305" s="3" t="s">
+        <v>947</v>
+      </c>
+      <c r="J305" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="306" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A306">
         <v>307</v>
       </c>
@@ -9179,8 +12868,20 @@
       <c r="D306" s="1"/>
       <c r="E306" s="1"/>
       <c r="F306" s="1"/>
-    </row>
-    <row r="307" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G306" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H306" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I306" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J306" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="307" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A307">
         <v>308</v>
       </c>
@@ -9193,8 +12894,20 @@
       <c r="D307" s="1"/>
       <c r="E307" s="1"/>
       <c r="F307" s="1"/>
-    </row>
-    <row r="308" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G307" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H307" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I307" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J307" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="308" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A308">
         <v>309</v>
       </c>
@@ -9207,8 +12920,20 @@
       <c r="D308" s="1"/>
       <c r="E308" s="1"/>
       <c r="F308" s="1"/>
-    </row>
-    <row r="309" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G308" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H308" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I308" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J308" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="309" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A309">
         <v>310</v>
       </c>
@@ -9221,8 +12946,20 @@
       <c r="D309" s="1"/>
       <c r="E309" s="1"/>
       <c r="F309" s="1"/>
-    </row>
-    <row r="310" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G309" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H309" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I309" s="3" t="s">
+        <v>947</v>
+      </c>
+      <c r="J309" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="310" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A310">
         <v>311</v>
       </c>
@@ -9235,8 +12972,20 @@
       <c r="D310" s="1"/>
       <c r="E310" s="1"/>
       <c r="F310" s="1"/>
-    </row>
-    <row r="311" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G310" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H310" s="3" t="s">
+        <v>947</v>
+      </c>
+      <c r="I310" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J310" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="311" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A311">
         <v>312</v>
       </c>
@@ -9249,8 +12998,20 @@
       <c r="D311" s="1"/>
       <c r="E311" s="1"/>
       <c r="F311" s="1"/>
-    </row>
-    <row r="312" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G311" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H311" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I311" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J311" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="312" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A312">
         <v>313</v>
       </c>
@@ -9263,8 +13024,20 @@
       <c r="D312" s="1"/>
       <c r="E312" s="1"/>
       <c r="F312" s="1"/>
-    </row>
-    <row r="313" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G312" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H312" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I312" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J312" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="313" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A313">
         <v>314</v>
       </c>
@@ -9277,8 +13050,20 @@
       <c r="D313" s="1"/>
       <c r="E313" s="1"/>
       <c r="F313" s="1"/>
-    </row>
-    <row r="314" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G313" s="3" t="s">
+        <v>947</v>
+      </c>
+      <c r="H313" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I313" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J313" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="314" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A314">
         <v>315</v>
       </c>
@@ -9291,8 +13076,20 @@
       <c r="D314" s="1"/>
       <c r="E314" s="1"/>
       <c r="F314" s="1"/>
-    </row>
-    <row r="315" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G314" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H314" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I314" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J314" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="315" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A315">
         <v>316</v>
       </c>
@@ -9305,8 +13102,20 @@
       <c r="D315" s="1"/>
       <c r="E315" s="1"/>
       <c r="F315" s="1"/>
-    </row>
-    <row r="316" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G315" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H315" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I315" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J315" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="316" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A316">
         <v>317</v>
       </c>
@@ -9319,8 +13128,20 @@
       <c r="D316" s="1"/>
       <c r="E316" s="1"/>
       <c r="F316" s="1"/>
-    </row>
-    <row r="317" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G316" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H316" s="3" t="s">
+        <v>947</v>
+      </c>
+      <c r="I316" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J316" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="317" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A317">
         <v>318</v>
       </c>
@@ -9333,8 +13154,20 @@
       <c r="D317" s="1"/>
       <c r="E317" s="1"/>
       <c r="F317" s="1"/>
-    </row>
-    <row r="318" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G317" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H317" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I317" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J317" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="318" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A318">
         <v>319</v>
       </c>
@@ -9347,8 +13180,20 @@
       <c r="D318" s="1"/>
       <c r="E318" s="1"/>
       <c r="F318" s="1"/>
-    </row>
-    <row r="319" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G318" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H318" s="3" t="s">
+        <v>947</v>
+      </c>
+      <c r="I318" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J318" s="3" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="319" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A319">
         <v>320</v>
       </c>
@@ -9361,8 +13206,20 @@
       <c r="D319" s="1"/>
       <c r="E319" s="1"/>
       <c r="F319" s="1"/>
-    </row>
-    <row r="320" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G319" s="3" t="s">
+        <v>947</v>
+      </c>
+      <c r="H319" s="3" t="s">
+        <v>947</v>
+      </c>
+      <c r="I319" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J319" s="3" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="320" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A320">
         <v>321</v>
       </c>
@@ -9375,8 +13232,20 @@
       <c r="D320" s="1"/>
       <c r="E320" s="1"/>
       <c r="F320" s="1"/>
-    </row>
-    <row r="321" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G320" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H320" s="3" t="s">
+        <v>947</v>
+      </c>
+      <c r="I320" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J320" s="3" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="321" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A321">
         <v>322</v>
       </c>
@@ -9389,8 +13258,20 @@
       <c r="D321" s="1"/>
       <c r="E321" s="1"/>
       <c r="F321" s="1"/>
-    </row>
-    <row r="322" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G321" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H321" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I321" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J321" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="322" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A322">
         <v>323</v>
       </c>
@@ -9403,8 +13284,20 @@
       <c r="D322" s="1"/>
       <c r="E322" s="1"/>
       <c r="F322" s="1"/>
-    </row>
-    <row r="323" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G322" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H322" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I322" s="3" t="s">
+        <v>947</v>
+      </c>
+      <c r="J322" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="323" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A323">
         <v>324</v>
       </c>
@@ -9417,8 +13310,20 @@
       <c r="D323" s="1"/>
       <c r="E323" s="1"/>
       <c r="F323" s="1"/>
-    </row>
-    <row r="324" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G323" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H323" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I323" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J323" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="324" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A324">
         <v>325</v>
       </c>
@@ -9431,8 +13336,20 @@
       <c r="D324" s="1"/>
       <c r="E324" s="1"/>
       <c r="F324" s="1"/>
-    </row>
-    <row r="325" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G324" s="3" t="s">
+        <v>947</v>
+      </c>
+      <c r="H324" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I324" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J324" s="3" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="325" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A325">
         <v>326</v>
       </c>
@@ -9445,8 +13362,20 @@
       <c r="D325" s="1"/>
       <c r="E325" s="1"/>
       <c r="F325" s="1"/>
-    </row>
-    <row r="326" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G325" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H325" s="3" t="s">
+        <v>947</v>
+      </c>
+      <c r="I325" s="3" t="s">
+        <v>947</v>
+      </c>
+      <c r="J325" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="326" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A326">
         <v>327</v>
       </c>
@@ -9459,8 +13388,20 @@
       <c r="D326" s="1"/>
       <c r="E326" s="1"/>
       <c r="F326" s="1"/>
-    </row>
-    <row r="327" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G326" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H326" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I326" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J326" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="327" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A327">
         <v>328</v>
       </c>
@@ -9473,8 +13414,20 @@
       <c r="D327" s="1"/>
       <c r="E327" s="1"/>
       <c r="F327" s="1"/>
-    </row>
-    <row r="328" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G327" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H327" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I327" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J327" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="328" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A328">
         <v>329</v>
       </c>
@@ -9487,8 +13440,20 @@
       <c r="D328" s="1"/>
       <c r="E328" s="1"/>
       <c r="F328" s="1"/>
-    </row>
-    <row r="329" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G328" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H328" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I328" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J328" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="329" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A329">
         <v>330</v>
       </c>
@@ -9501,8 +13466,20 @@
       <c r="D329" s="1"/>
       <c r="E329" s="1"/>
       <c r="F329" s="1"/>
-    </row>
-    <row r="330" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G329" s="3" t="s">
+        <v>947</v>
+      </c>
+      <c r="H329" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I329" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J329" s="3" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="330" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A330">
         <v>331</v>
       </c>
@@ -9515,8 +13492,20 @@
       <c r="D330" s="1"/>
       <c r="E330" s="1"/>
       <c r="F330" s="1"/>
-    </row>
-    <row r="331" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G330" s="3" t="s">
+        <v>947</v>
+      </c>
+      <c r="H330" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I330" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J330" s="3" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="331" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A331">
         <v>332</v>
       </c>
@@ -9529,8 +13518,20 @@
       <c r="D331" s="1"/>
       <c r="E331" s="1"/>
       <c r="F331" s="1"/>
-    </row>
-    <row r="332" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G331" s="3" t="s">
+        <v>947</v>
+      </c>
+      <c r="H331" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I331" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J331" s="3" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="332" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A332">
         <v>333</v>
       </c>
@@ -9543,8 +13544,20 @@
       <c r="D332" s="1"/>
       <c r="E332" s="1"/>
       <c r="F332" s="1"/>
-    </row>
-    <row r="333" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G332" s="3" t="s">
+        <v>947</v>
+      </c>
+      <c r="H332" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I332" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J332" s="3" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="333" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A333">
         <v>334</v>
       </c>
@@ -9557,8 +13570,20 @@
       <c r="D333" s="1"/>
       <c r="E333" s="1"/>
       <c r="F333" s="1"/>
-    </row>
-    <row r="334" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G333" s="3" t="s">
+        <v>947</v>
+      </c>
+      <c r="H333" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I333" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J333" s="3" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="334" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A334">
         <v>335</v>
       </c>
@@ -9571,8 +13596,20 @@
       <c r="D334" s="1"/>
       <c r="E334" s="1"/>
       <c r="F334" s="1"/>
-    </row>
-    <row r="335" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G334" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H334" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I334" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J334" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="335" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A335">
         <v>336</v>
       </c>
@@ -9585,8 +13622,20 @@
       <c r="D335" s="1"/>
       <c r="E335" s="1"/>
       <c r="F335" s="1"/>
-    </row>
-    <row r="336" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G335" s="3" t="s">
+        <v>947</v>
+      </c>
+      <c r="H335" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I335" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J335" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="336" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A336">
         <v>337</v>
       </c>
@@ -9599,8 +13648,20 @@
       <c r="D336" s="1"/>
       <c r="E336" s="1"/>
       <c r="F336" s="1"/>
-    </row>
-    <row r="337" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G336" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H336" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I336" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J336" s="3" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="337" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A337">
         <v>338</v>
       </c>
@@ -9613,8 +13674,20 @@
       <c r="D337" s="1"/>
       <c r="E337" s="1"/>
       <c r="F337" s="1"/>
-    </row>
-    <row r="338" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G337" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H337" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I337" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J337" s="3" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="338" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A338">
         <v>339</v>
       </c>
@@ -9627,8 +13700,20 @@
       <c r="D338" s="1"/>
       <c r="E338" s="1"/>
       <c r="F338" s="1"/>
-    </row>
-    <row r="339" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G338" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H338" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I338" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J338" s="3" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="339" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A339">
         <v>340</v>
       </c>
@@ -9641,8 +13726,20 @@
       <c r="D339" s="1"/>
       <c r="E339" s="1"/>
       <c r="F339" s="1"/>
-    </row>
-    <row r="340" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G339" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H339" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I339" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J339" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="340" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A340">
         <v>341</v>
       </c>
@@ -9655,8 +13752,20 @@
       <c r="D340" s="1"/>
       <c r="E340" s="1"/>
       <c r="F340" s="1"/>
-    </row>
-    <row r="341" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G340" s="3" t="s">
+        <v>947</v>
+      </c>
+      <c r="H340" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I340" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J340" s="3" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="341" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A341">
         <v>342</v>
       </c>
@@ -9669,8 +13778,20 @@
       <c r="D341" s="1"/>
       <c r="E341" s="1"/>
       <c r="F341" s="1"/>
-    </row>
-    <row r="342" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G341" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H341" s="3" t="s">
+        <v>947</v>
+      </c>
+      <c r="I341" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J341" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="342" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A342">
         <v>343</v>
       </c>
@@ -9683,8 +13804,20 @@
       <c r="D342" s="1"/>
       <c r="E342" s="1"/>
       <c r="F342" s="1"/>
-    </row>
-    <row r="343" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G342" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H342" s="3" t="s">
+        <v>947</v>
+      </c>
+      <c r="I342" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J342" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="343" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A343">
         <v>344</v>
       </c>
@@ -9697,8 +13830,20 @@
       <c r="D343" s="1"/>
       <c r="E343" s="1"/>
       <c r="F343" s="1"/>
-    </row>
-    <row r="344" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G343" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H343" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I343" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J343" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="344" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A344">
         <v>345</v>
       </c>
@@ -9711,8 +13856,20 @@
       <c r="D344" s="1"/>
       <c r="E344" s="1"/>
       <c r="F344" s="1"/>
-    </row>
-    <row r="345" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G344" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H344" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I344" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J344" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="345" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A345">
         <v>346</v>
       </c>
@@ -9725,8 +13882,20 @@
       <c r="D345" s="1"/>
       <c r="E345" s="1"/>
       <c r="F345" s="1"/>
-    </row>
-    <row r="346" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G345" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H345" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I345" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J345" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="346" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A346">
         <v>347</v>
       </c>
@@ -9739,8 +13908,20 @@
       <c r="D346" s="1"/>
       <c r="E346" s="1"/>
       <c r="F346" s="1"/>
-    </row>
-    <row r="347" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G346" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H346" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I346" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J346" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="347" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A347">
         <v>348</v>
       </c>
@@ -9753,8 +13934,20 @@
       <c r="D347" s="1"/>
       <c r="E347" s="1"/>
       <c r="F347" s="1"/>
-    </row>
-    <row r="348" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G347" s="3" t="s">
+        <v>947</v>
+      </c>
+      <c r="H347" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I347" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J347" s="3" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="348" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A348">
         <v>349</v>
       </c>
@@ -9767,8 +13960,20 @@
       <c r="D348" s="1"/>
       <c r="E348" s="1"/>
       <c r="F348" s="1"/>
-    </row>
-    <row r="349" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G348" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H348" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I348" s="3" t="s">
+        <v>947</v>
+      </c>
+      <c r="J348" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="349" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A349">
         <v>350</v>
       </c>
@@ -9781,8 +13986,20 @@
       <c r="D349" s="1"/>
       <c r="E349" s="1"/>
       <c r="F349" s="1"/>
-    </row>
-    <row r="350" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G349" s="3" t="s">
+        <v>947</v>
+      </c>
+      <c r="H349" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I349" s="3" t="s">
+        <v>947</v>
+      </c>
+      <c r="J349" s="3" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="350" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A350">
         <v>351</v>
       </c>
@@ -9795,8 +14012,20 @@
       <c r="D350" s="1"/>
       <c r="E350" s="1"/>
       <c r="F350" s="1"/>
-    </row>
-    <row r="351" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G350" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H350" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I350" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J350" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="351" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A351">
         <v>352</v>
       </c>
@@ -9809,8 +14038,20 @@
       <c r="D351" s="1"/>
       <c r="E351" s="1"/>
       <c r="F351" s="1"/>
-    </row>
-    <row r="352" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G351" s="3" t="s">
+        <v>947</v>
+      </c>
+      <c r="H351" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I351" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J351" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="352" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A352">
         <v>353</v>
       </c>
@@ -9823,8 +14064,20 @@
       <c r="D352" s="1"/>
       <c r="E352" s="1"/>
       <c r="F352" s="1"/>
-    </row>
-    <row r="353" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G352" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H352" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I352" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J352" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="353" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A353">
         <v>354</v>
       </c>
@@ -9837,8 +14090,20 @@
       <c r="D353" s="1"/>
       <c r="E353" s="1"/>
       <c r="F353" s="1"/>
-    </row>
-    <row r="354" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G353" s="3" t="s">
+        <v>947</v>
+      </c>
+      <c r="H353" s="3" t="s">
+        <v>947</v>
+      </c>
+      <c r="I353" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J353" s="3" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="354" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A354">
         <v>355</v>
       </c>
@@ -9851,8 +14116,20 @@
       <c r="D354" s="1"/>
       <c r="E354" s="1"/>
       <c r="F354" s="1"/>
-    </row>
-    <row r="355" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G354" s="3" t="s">
+        <v>947</v>
+      </c>
+      <c r="H354" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I354" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J354" s="3" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="355" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A355">
         <v>356</v>
       </c>
@@ -9865,8 +14142,20 @@
       <c r="D355" s="1"/>
       <c r="E355" s="1"/>
       <c r="F355" s="1"/>
-    </row>
-    <row r="356" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G355" s="3" t="s">
+        <v>947</v>
+      </c>
+      <c r="H355" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I355" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J355" s="3" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="356" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A356">
         <v>357</v>
       </c>
@@ -9879,8 +14168,20 @@
       <c r="D356" s="1"/>
       <c r="E356" s="1"/>
       <c r="F356" s="1"/>
-    </row>
-    <row r="357" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G356" s="3" t="s">
+        <v>947</v>
+      </c>
+      <c r="H356" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I356" s="3" t="s">
+        <v>947</v>
+      </c>
+      <c r="J356" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="357" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A357">
         <v>358</v>
       </c>
@@ -9893,6 +14194,18 @@
       <c r="D357" s="1"/>
       <c r="E357" s="1"/>
       <c r="F357" s="1"/>
+      <c r="G357" s="3" t="s">
+        <v>947</v>
+      </c>
+      <c r="H357" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I357" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J357" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10780,7 +15093,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D758ED0-344A-47B5-8000-C5BBB7F38038}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>

--- a/i18n/tr.xlsx
+++ b/i18n/tr.xlsx
@@ -5,14 +5,16 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Birds" sheetId="1" state="visible" r:id="rId3"/>
     <sheet name="Bonuses" sheetId="2" state="visible" r:id="rId4"/>
     <sheet name="Other" sheetId="3" state="visible" r:id="rId5"/>
+    <sheet name="Parameters" sheetId="4" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames>
+    <definedName function="false" hidden="true" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">Parameters!$A$1:$B$2</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="ExternalData_1" vbProcedure="false">Birds!$A$1:$G$357</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="ExternalData_2" vbProcedure="false">Bonuses!$A$1:$H$39</definedName>
   </definedNames>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1970" uniqueCount="1146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1973" uniqueCount="1148">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -3451,27 +3453,36 @@
     <t xml:space="preserve">WHEN ACTIVATED</t>
   </si>
   <si>
-    <t xml:space="preserve">WHEN PLAYED</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ONCE BETWEEN TURNS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ROUND END</t>
+    <t xml:space="preserve">WHEN PLAYED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ONCE BETWEEN TURNS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROUND END</t>
   </si>
   <si>
     <t xml:space="preserve">GAME END</t>
   </si>
   <si>
-    <t xml:space="preserve">of cards</t>
+    <t xml:space="preserve">of cards</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Show bonus cards match symbols</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="&quot;PRAWDA&quot;;&quot;PRAWDA&quot;;&quot;FAŁSZ&quot;"/>
+    <numFmt numFmtId="166" formatCode="@"/>
+    <numFmt numFmtId="167" formatCode="General"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -3559,7 +3570,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -3600,6 +3611,22 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3628,6 +3655,10 @@
     </dxf>
   </dxfs>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3791,7 +3822,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B1" activeCellId="1" sqref="B33:B52 B1"/>
+      <selection pane="bottomLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -13493,10 +13524,10 @@
   </sheetPr>
   <dimension ref="A1:H52"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B33" activeCellId="0" sqref="B33:B52"/>
+      <selection pane="bottomLeft" activeCell="B33" activeCellId="0" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -14310,7 +14341,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="1" sqref="B33:B52 B6"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -14327,32 +14358,32 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>1140</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>1141</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>1142</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>1143</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
         <v>1144</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
         <v>1145</v>
       </c>
@@ -14371,6 +14402,53 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="29.95"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="10" width="11.53"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="11" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>1147</v>
+      </c>
+      <c r="B2" s="13" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:B2"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Normalny"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normalny"&amp;12&amp;KffffffStrona &amp;P</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <DataMashup xmlns="http://schemas.microsoft.com/DataMashup">AAAAAHkEAABQSwMEFAACAAgAHJM1UVR9qGWoAAAA+AAAABIAHABDb25maWcvUGFja2FnZS54bWwgohgAKKAUAAAAAAAAAAAAAAAAAAAAAAAAAAAAhY/RCoIwGIVfRXbvNs1Q5HdedFlCIES3Yy0d6gw3m+/WRY/UKySU1V2X5/Ad+M7jdod86lrvKgejep2hAFPkSS36k9JVhkZ79hOUM9hz0fBKejOsTToZlaHa2ktKiHMOuxXuh4qElAbkWOxKUcuO+0oby7WQ6LM6/V8hBoeXDAtxnOB1HFEcJQGQpYZC6S8SzsaYAvkpYTO2dhwkM41fboEsEcj7BXsCUEsDBBQAAgAIAByTNVEPyumrpAAAAOkAAAATABwAW0NvbnRlbnRfVHlwZXNdLnhtbCCiGAAooBQAAAAAAAAAAAAAAAAAAAAAAAAAAABtjksOwjAMRK8SeZ+6sEAINWUB3IALRMH9iOajxkXhbCw4ElcgbXeIpWfmeebzelfHZAfxoDH23inYFCUIcsbfetcqmLiRezjW1fUZKIocdVFBxxwOiNF0ZHUsfCCXncaPVnM+xxaDNnfdEm7LcofGOybHkucfUFdnavQ0sLikLK+1GQdxWnNzlQKmxLjI+JewP3kdwtAbzdnEJG2UdiFxGV5/AVBLAwQUAAIACAAckzVR5CzVm28BAABJBAAAEwAcAEZvcm11bGFzL1NlY3Rpb24xLm0gohgAKKAUAAAAAAAAAAAAAAAAAAAAAAAAAAAA5ZNPS8NAEMXvhXyHJV5aWIKKVlBykFjRg6WS6qXxsN2Mycr+KTsbtZR+d6dNoYoBD+LJHJLs+21m3iQvCDIoZ1neXo8uol7Uw1p4KNlc+RJZyjSEqMfoyF3jJZCS4Wty5WRjwIb+tdKQZM4GWmA/zs6LBwSPxZ0I8FJMvKu8MEbZqnijE4Lwsi5QerUIWGx7JBJf4wGfXYFWRgXwacxjzjKnG2MxHXI2stKV9HR6dHx6yNl94wLkYakh3d8mY2fhacBbrwcxdTbESnYDoiRDMRmfijlt3JGd3m/H4my20y+1zqXQwmMafPO5ZFYLW1HF6XIB+3JTLyw+O29awxuI/Y7+fLWKVUmD3dowPEk2+9acreKRrbTCmllhgGggnQV4D1uYS0XvVT0r2c0zZwx9v042cW/gt8tvaEzOvojrQdRTtnPQL5lwtkH481S0XX7Ixdl/zsW4Owy2VJv/+BsZvS+0sCI4v+wOxOPkdxn5AFBLAQItABQAAgAIAByTNVFUfahlqAAAAPgAAAASAAAAAAAAAAAAAAAAAAAAAABDb25maWcvUGFja2FnZS54bWxQSwECLQAUAAIACAAckzVRD8rpq6QAAADpAAAAEwAAAAAAAAAAAAAAAAD0AAAAW0NvbnRlbnRfVHlwZXNdLnhtbFBLAQItABQAAgAIAByTNVHkLNWbbwEAAEkEAAATAAAAAAAAAAAAAAAAAOUBAABGb3JtdWxhcy9TZWN0aW9uMS5tUEsFBgAAAAADAAMAwgAAAKEDAAAAABABAADvu788P3htbCB2ZXJzaW9uPSIxLjAiIGVuY29kaW5nPSJ1dGYtOCI/PjxQZXJtaXNzaW9uTGlzdCB4bWxuczp4c2k9Imh0dHA6Ly93d3cudzMub3JnLzIwMDEvWE1MU2NoZW1hLWluc3RhbmNlIiB4bWxuczp4c2Q9Imh0dHA6Ly93d3cudzMub3JnLzIwMDEvWE1MU2NoZW1hIj48Q2FuRXZhbHVhdGVGdXR1cmVQYWNrYWdlcz5mYWxzZTwvQ2FuRXZhbHVhdGVGdXR1cmVQYWNrYWdlcz48RmlyZXdhbGxFbmFibGVkPnRydWU8L0ZpcmV3YWxsRW5hYmxlZD48L1Blcm1pc3Npb25MaXN0PjMVAAAAAAAAERUAAO+7vzw/eG1sIHZlcnNpb249IjEuMCIgZW5jb2Rpbmc9InV0Zi04Ij8+PExvY2FsUGFja2FnZU1ldGFkYXRhRmlsZSB4bWxuczp4c2k9Imh0dHA6Ly93d3cudzMub3JnLzIwMDEvWE1MU2NoZW1hLWluc3RhbmNlIiB4bWxuczp4c2Q9Imh0dHA6Ly93d3cudzMub3JnLzIwMDEvWE1MU2NoZW1hIj48SXRlbXM+PEl0ZW0+PEl0ZW1Mb2NhdGlvbj48SXRlbVR5cGU+QWxsRm9ybXVsYXM8L0l0ZW1UeXBlPjxJdGVtUGF0aCAvPjwvSXRlbUxvY2F0aW9uPjxTdGFibGVFbnRyaWVzIC8+PC9JdGVtPjxJdGVtPjxJdGVtTG9jYXRpb24+PEl0ZW1UeXBlPkZvcm11bGE8L0l0ZW1UeXBlPjxJdGVtUGF0aD5TZWN0aW9uMS9iaXJkczwvSXRlbVBhdGg+PC9JdGVtTG9jYXRpb24+PFN0YWJsZUVudHJpZXM+PEVudHJ5IFR5cGU9IklzUHJpdmF0ZSIgVmFsdWU9ImwwIiAvPjxFbnRyeSBUeXBlPSJGaWxsRW5hYmxlZCIgVmFsdWU9ImwxIiAvPjxFbnRyeSBUeXBlPSJGaWxsT2JqZWN0VHlwZSIgVmFsdWU9InNUYWJsZSIgLz48RW50cnkgVHlwZT0iRmlsbFRvRGF0YU1vZGVsRW5hYmxlZCIgVmFsdWU9ImwwIiAvPjxFbnRyeSBUeXBlPSJCdWZmZXJOZXh0UmVmcmVzaCIgVmFsdWU9ImwxIiAvPjxFbnRyeSBUeXBlPSJSZXN1bHRUeXBlIiBWYWx1ZT0ic1RhYmxlIiAvPjxFbnRyeSBUeXBlPSJOYW1lVXBkYXRlZEFmdGVyRmlsbCIgVmFsdWU9ImwwIiAvPjxFbnRyeSBUeXBlPSJSZWNvdmVyeVRhcmdldFNoZWV0IiBWYWx1ZT0ic1NoZWV0MSIgLz48RW50cnkgVHlwZT0iUmVjb3ZlcnlUYXJnZXRDb2x1bW4iIFZhbHVlPSJsMSIgLz48RW50cnkgVHlwZT0iUmVjb3ZlcnlUYXJnZXRSb3ciIFZhbHVlPSJsMSIgLz48RW50cnkgVHlwZT0iRmlsbFRhcmdldCIgVmFsdWU9InNiaXJkcyIgLz48RW50cnkgVHlwZT0iRmlsbGVkQ29tcGxldGVSZXN1bHRUb1dvcmtzaGVldCIgVmFsdWU9ImwxIiAvPjxFbnRyeSBUeXBlPSJBZGRlZFRvRGF0YU1vZGVsIiBWYWx1ZT0ibDAiIC8+PEVudHJ5IFR5cGU9IkZpbGxDb3VudCIgVmFsdWU9ImwyNjEiIC8+PEVudHJ5IFR5cGU9IkZpbGxFcnJvckNvZGUiIFZhbHVlPSJzVW5rbm93biIgLz48RW50cnkgVHlwZT0iRmlsbEVycm9yQ291bnQiIFZhbHVlPSJsMCIgLz48RW50cnkgVHlwZT0iRmlsbExhc3RVcGRhdGVkIiBWYWx1ZT0iZDIwMjAtMDktMjFUMTY6MjQ6MDYuNDM2NTcyMVoiIC8+PEVudHJ5IFR5cGU9IkZpbGxDb2x1bW5UeXBlcyIgVmFsdWU9InNBd1lHQmdZRyIgLz48RW50cnkgVHlwZT0iRmlsbENvbHVtbk5hbWVzIiBWYWx1ZT0ic1smcXVvdDtpZCZxdW90OywmcXVvdDtFbmdsaXNoIG5hbWUmcXVvdDssJnF1b3Q7U2NpZW50aWZpYyBuYW1lJnF1b3Q7LCZxdW90O0NvbW1vbiBuYW1lJnF1b3Q7LCZxdW90O1Bvd2VyIHRleHQmcXVvdDssJnF1b3Q7Tm90ZSZxdW90O10iIC8+PEVudHJ5IFR5cGU9IkZpbGxTdGF0dXMiIFZhbHVlPSJzQ29tcGxldGUiIC8+PEVudHJ5IFR5cGU9IlJlbGF0aW9uc2hpcEluZm9Db250YWluZXIiIFZhbHVlPSJzeyZxdW90O2NvbHVtbkNvdW50JnF1b3Q7OjYsJnF1b3Q7a2V5Q29sdW1uTmFtZXMmcXVvdDs6W10sJnF1b3Q7cXVlcnlSZWxhdGlvbnNoaXBzJnF1b3Q7OltdLCZxdW90O2NvbHVtbklkZW50aXRpZXMmcXVvdDs6WyZxdW90O1NlY3Rpb24xL2JpcmRzL0NoYW5nZWQgVHlwZS57aWQsMH0mcXVvdDssJnF1b3Q7U2VjdGlvbjEvYmlyZHMvQ2hhbmdlZCBUeXBlLntFbmdsaXNoIG5hbWUsMX0mcXVvdDssJnF1b3Q7U2VjdGlvbjEvYmlyZHMvQ2hhbmdlZCBUeXBlLntTY2llbnRpZmljIG5hbWUsMn0mcXVvdDssJnF1b3Q7U2VjdGlvbjEvYmlyZHMvQ2hhbmdlZCBUeXBlLntDb21tb24gbmFtZSwzfSZxdW90OywmcXVvdDtTZWN0aW9uMS9iaXJkcy9DaGFuZ2VkIFR5cGUue1Bvd2VyIHRleHQsNH0mcXVvdDssJnF1b3Q7U2VjdGlvbjEvYmlyZHMvQ2hhbmdlZCBUeXBlLntOb3RlLDV9JnF1b3Q7XSwmcXVvdDtDb2x1bW5Db3VudCZxdW90Ozo2LCZxdW90O0tleUNvbHVtbk5hbWVzJnF1b3Q7OltdLCZxdW90O0NvbHVtbklkZW50aXRpZXMmcXVvdDs6WyZxdW90O1NlY3Rpb24xL2JpcmRzL0NoYW5nZWQgVHlwZS57aWQsMH0mcXVvdDssJnF1b3Q7U2VjdGlvbjEvYmlyZHMvQ2hhbmdlZCBUeXBlLntFbmdsaXNoIG5hbWUsMX0mcXVvdDssJnF1b3Q7U2VjdGlvbjEvYmlyZHMvQ2hhbmdlZCBUeXBlLntTY2llbnRpZmljIG5hbWUsMn0mcXVvdDssJnF1b3Q7U2VjdGlvbjEvYmlyZHMvQ2hhbmdlZCBUeXBlLntDb21tb24gbmFtZSwzfSZxdW90OywmcXVvdDtTZWN0aW9uMS9iaXJkcy9DaGFuZ2VkIFR5cGUue1Bvd2VyIHRleHQsNH0mcXVvdDssJnF1b3Q7U2VjdGlvbjEvYmlyZHMvQ2hhbmdlZCBUeXBlLntOb3RlLDV9JnF1b3Q7XSwmcXVvdDtSZWxhdGlvbnNoaXBJbmZvJnF1b3Q7OltdfSIgLz48L1N0YWJsZUVudHJpZXM+PC9JdGVtPjxJdGVtPjxJdGVtTG9jYXRpb24+PEl0ZW1UeXBlPkZvcm11bGE8L0l0ZW1UeXBlPjxJdGVtUGF0aD5TZWN0aW9uMS9iaXJkcy9Tb3VyY2U8L0l0ZW1QYXRoPjwvSXRlbUxvY2F0aW9uPjxTdGFibGVFbnRyaWVzIC8+PC9JdGVtPjxJdGVtPjxJdGVtTG9jYXRpb24+PEl0ZW1UeXBlPkZvcm11bGE8L0l0ZW1UeXBlPjxJdGVtUGF0aD5TZWN0aW9uMS9iaXJkcy9Qcm9tb3RlZCUyMEhlYWRlcnM8L0l0ZW1QYXRoPjwvSXRlbUxvY2F0aW9uPjxTdGFibGVFbnRyaWVzIC8+PC9JdGVtPjxJdGVtPjxJdGVtTG9jYXRpb24+PEl0ZW1UeXBlPkZvcm11bGE8L0l0ZW1UeXBlPjxJdGVtUGF0aD5TZWN0aW9uMS9iaXJkcy9DaGFuZ2VkJTIwVHlwZTwvSXRlbVBhdGg+PC9JdGVtTG9jYXRpb24+PFN0YWJsZUVudHJpZXMgLz48L0l0ZW0+PEl0ZW0+PEl0ZW1Mb2NhdGlvbj48SXRlbVR5cGU+Rm9ybXVsYTwvSXRlbVR5cGU+PEl0ZW1QYXRoPlNlY3Rpb24xL2JvbnVzZXM8L0l0ZW1QYXRoPjwvSXRlbUxvY2F0aW9uPjxTdGFibGVFbnRyaWVzPjxFbnRyeSBUeXBlPSJJc1ByaXZhdGUiIFZhbHVlPSJsMCIgLz48RW50cnkgVHlwZT0iRmlsbEVuYWJsZWQiIFZhbHVlPSJsMSIgLz48RW50cnkgVHlwZT0iRmlsbE9iamVjdFR5cGUiIFZhbHVlPSJzVGFibGUiIC8+PEVudHJ5IFR5cGU9IkZpbGxUb0RhdGFNb2RlbEVuYWJsZWQiIFZhbHVlPSJsMCIgLz48RW50cnkgVHlwZT0iQnVmZmVyTmV4dFJlZnJlc2giIFZhbHVlPSJsMSIgLz48RW50cnkgVHlwZT0iUmVzdWx0VHlwZSIgVmFsdWU9InNUYWJsZSIgLz48RW50cnkgVHlwZT0iTmFtZVVwZGF0ZWRBZnRlckZpbGwiIFZhbHVlPSJsMCIgLz48RW50cnkgVHlwZT0iRmlsbFRhcmdldCIgVmFsdWU9InNib251c2VzIiAvPjxFbnRyeSBUeXBlPSJGaWxsZWRDb21wbGV0ZVJlc3VsdFRvV29ya3NoZWV0IiBWYWx1ZT0ibDEiIC8+PEVudHJ5IFR5cGU9IkFkZGVkVG9EYXRhTW9kZWwiIFZhbHVlPSJsMCIgLz48RW50cnkgVHlwZT0iRmlsbENvdW50IiBWYWx1ZT0ibDMzIiAvPjxFbnRyeSBUeXBlPSJGaWxsRXJyb3JDb2RlIiBWYWx1ZT0ic1Vua25vd24iIC8+PEVudHJ5IFR5cGU9IkZpbGxFcnJvckNvdW50IiBWYWx1ZT0ibDAiIC8+PEVudHJ5IFR5cGU9IkZpbGxMYXN0VXBkYXRlZCIgVmFsdWU9ImQyMDIwLTA5LTIxVDE2OjI0OjU3Ljg0NTcwNTRaIiAvPjxFbnRyeSBUeXBlPSJGaWxsQ29sdW1uVHlwZXMiIFZhbHVlPSJzQXdZR0JnWUdCZz09IiAvPjxFbnRyeSBUeXBlPSJGaWxsQ29sdW1uTmFtZXMiIFZhbHVlPSJzWyZxdW90O2lkJnF1b3Q7LCZxdW90O0VuZ2xpc2ggbmFtZSZxdW90OywmcXVvdDtOYW1lJnF1b3Q7LCZxdW90O0NvbmRpdGlvbiZxdW90OywmcXVvdDtFeHBsYW5hdG9yeSB0ZXh0JnF1b3Q7LCZxdW90O1ZQJnF1b3Q7LCZxdW90O05vdGUmcXVvdDtdIiAvPjxFbnRyeSBUeXBlPSJGaWxsU3RhdHVzIiBWYWx1ZT0ic0NvbXBsZXRlIiAvPjxFbnRyeSBUeXBlPSJSZWxhdGlvbnNoaXBJbmZvQ29udGFpbmVyIiBWYWx1ZT0ic3smcXVvdDtjb2x1bW5Db3VudCZxdW90Ozo3LCZxdW90O2tleUNvbHVtbk5hbWVzJnF1b3Q7OltdLCZxdW90O3F1ZXJ5UmVsYXRpb25zaGlwcyZxdW90OzpbXSwmcXVvdDtjb2x1bW5JZGVudGl0aWVzJnF1b3Q7OlsmcXVvdDtTZWN0aW9uMS9ib251c2VzL0NoYW5nZWQgVHlwZS57aWQsMH0mcXVvdDssJnF1b3Q7U2VjdGlvbjEvYm9udXNlcy9DaGFuZ2VkIFR5cGUue0VuZ2xpc2ggbmFtZSwxfSZxdW90OywmcXVvdDtTZWN0aW9uMS9ib251c2VzL0NoYW5nZWQgVHlwZS57TmFtZSwyfSZxdW90OywmcXVvdDtTZWN0aW9uMS9ib251c2VzL0NoYW5nZWQgVHlwZS57Q29uZGl0aW9uLDN9JnF1b3Q7LCZxdW90O1NlY3Rpb24xL2JvbnVzZXMvQ2hhbmdlZCBUeXBlLntFeHBsYW5hdG9yeSB0ZXh0LDR9JnF1b3Q7LCZxdW90O1NlY3Rpb24xL2JvbnVzZXMvQ2hhbmdlZCBUeXBlLntWUCw1fSZxdW90OywmcXVvdDtTZWN0aW9uMS9ib251c2VzL0NoYW5nZWQgVHlwZS57Tm90ZSw2fSZxdW90O10sJnF1b3Q7Q29sdW1uQ291bnQmcXVvdDs6NywmcXVvdDtLZXlDb2x1bW5OYW1lcyZxdW90OzpbXSwmcXVvdDtDb2x1bW5JZGVudGl0aWVzJnF1b3Q7OlsmcXVvdDtTZWN0aW9uMS9ib251c2VzL0NoYW5nZWQgVHlwZS57aWQsMH0mcXVvdDssJnF1b3Q7U2VjdGlvbjEvYm9udXNlcy9DaGFuZ2VkIFR5cGUue0VuZ2xpc2ggbmFtZSwxfSZxdW90OywmcXVvdDtTZWN0aW9uMS9ib251c2VzL0NoYW5nZWQgVHlwZS57TmFtZSwyfSZxdW90OywmcXVvdDtTZWN0aW9uMS9ib251c2VzL0NoYW5nZWQgVHlwZS57Q29uZGl0aW9uLDN9JnF1b3Q7LCZxdW90O1NlY3Rpb24xL2JvbnVzZXMvQ2hhbmdlZCBUeXBlLntFeHBsYW5hdG9yeSB0ZXh0LDR9JnF1b3Q7LCZxdW90O1NlY3Rpb24xL2JvbnVzZXMvQ2hhbmdlZCBUeXBlLntWUCw1fSZxdW90OywmcXVvdDtTZWN0aW9uMS9ib251c2VzL0NoYW5nZWQgVHlwZS57Tm90ZSw2fSZxdW90O10sJnF1b3Q7UmVsYXRpb25zaGlwSW5mbyZxdW90OzpbXX0iIC8+PC9TdGFibGVFbnRyaWVzPjwvSXRlbT48SXRlbT48SXRlbUxvY2F0aW9uPjxJdGVtVHlwZT5Gb3JtdWxhPC9JdGVtVHlwZT48SXRlbVBhdGg+U2VjdGlvbjEvYm9udXNlcy9Tb3VyY2U8L0l0ZW1QYXRoPjwvSXRlbUxvY2F0aW9uPjxTdGFibGVFbnRyaWVzIC8+PC9JdGVtPjxJdGVtPjxJdGVtTG9jYXRpb24+PEl0ZW1UeXBlPkZvcm11bGE8L0l0ZW1UeXBlPjxJdGVtUGF0aD5TZWN0aW9uMS9ib251c2VzL1Byb21vdGVkJTIwSGVhZGVyczwvSXRlbVBhdGg+PC9JdGVtTG9jYXRpb24+PFN0YWJsZUVudHJpZXMgLz48L0l0ZW0+PEl0ZW0+PEl0ZW1Mb2NhdGlvbj48SXRlbVR5cGU+Rm9ybXVsYTwvSXRlbVR5cGU+PEl0ZW1QYXRoPlNlY3Rpb24xL2JvbnVzZXMvQ2hhbmdlZCUyMFR5cGU8L0l0ZW1QYXRoPjwvSXRlbUxvY2F0aW9uPjxTdGFibGVFbnRyaWVzIC8+PC9JdGVtPjwvSXRlbXM+PC9Mb2NhbFBhY2thZ2VNZXRhZGF0YUZpbGU+FgAAAFBLBQYAAAAAAAAAAAAAAAAAAAAAAAAmAQAAAQAAANCMnd8BFdERjHoAwE/Cl+sBAAAAMPVTOTTsnEW3BCpn531nnwAAAAACAAAAAAAQZgAAAAEAACAAAABqqtf0BhRFLmQ1UnB9JAYgugein6Su4KxWR/7zGuHsoAAAAAAOgAAAAAIAACAAAADHjhrYRrEEO2B2fKEbcP/HljaXS9xRUgoHBw3hh5c6UFAAAAC1+c8D9K2VoF5K3NPIlPcEAa/uKms+XJVFitIQ4I/f35lvHe4qzUSOpUZYuBUj4s2Lyr/RgcK5dixhA+cnA9RqGTGqnTyv34PdVc2FHewY9EAAAAA7FawTNmU1GiAm4MYe2+g7AQb2UlTnYdkopm883F2+UKZ7RkHla3LnohEme5oTn/4h+Y+izLS7/+tPrnGhneOY</DataMashup>
 </file>

--- a/i18n/tr.xlsx
+++ b/i18n/tr.xlsx
@@ -5,16 +5,18 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Birds" sheetId="1" state="visible" r:id="rId3"/>
     <sheet name="Bonuses" sheetId="2" state="visible" r:id="rId4"/>
-    <sheet name="Other" sheetId="3" state="visible" r:id="rId5"/>
-    <sheet name="Parameters" sheetId="4" state="visible" r:id="rId6"/>
+    <sheet name="Goals" sheetId="3" state="visible" r:id="rId5"/>
+    <sheet name="Other" sheetId="4" state="visible" r:id="rId6"/>
+    <sheet name="Parameters" sheetId="5" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">Parameters!$A$1:$B$2</definedName>
+    <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">Goals!$A:$F</definedName>
+    <definedName function="false" hidden="true" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">Parameters!$A$1:$B$2</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="ExternalData_1" vbProcedure="false">Birds!$A$1:$G$357</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="ExternalData_2" vbProcedure="false">Bonuses!$A$1:$H$39</definedName>
   </definedNames>
@@ -28,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1973" uniqueCount="1148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2071" uniqueCount="1195">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -3445,6 +3447,147 @@
   </si>
   <si>
     <t xml:space="preserve">[automa] Rare Species Lister</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Explanatory Text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bird in Forest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bird in Grassland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bird in Wetland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Egg in Forest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Egg in Grassland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Egg in Wetland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cavity Nest Bird with Egg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bowl Nest Bird with Egg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ground Nest Bird with Egg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Platform Nest Bird with Egg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Egg in Cavity Nest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Egg in Bowl Nest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Egg in Ground Nest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Egg in Platform Nest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sets of Eggs in 3 Habitats</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total Bird</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Food in Supply</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Birds Cards in Hand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Birds Worth over 4 Points</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Birds with No Eggs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Birds in 1 Row</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Filled Columns</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brown Powers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">White &amp; No Powers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Birds with Tucked Cards</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Food Cost of Played Birds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Invertebrate in Food Cost of Your Birds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fruit + Seed in Food Cost of Your Birds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rodent + Fish in Food Cost of Your Birds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No Goal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beak Pointing Left</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beak Pointing Right</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cubes on "Play a Bird"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Birds Worth Less than or Equal to 3 Points</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pairs of Matching Symbols</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nest Symbols</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Food Symbols</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not on Edge of Map</t>
+  </si>
+  <si>
+    <t xml:space="preserve">On Edge of Map</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tokens in Any One Horizontal Row</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Horizontal Rows with at Least One of Your Tokens</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fewest Tokens on Bonus Spaces</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In Forest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In Grassland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In Wetland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total Duet Tokens</t>
   </si>
   <si>
     <t xml:space="preserve">Translated</t>
@@ -3570,7 +3713,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -3611,19 +3754,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3658,6 +3797,10 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
 </file>
 
@@ -3820,9 +3963,11 @@
   <dimension ref="A1:K447"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -13525,14 +13670,16 @@
   <dimension ref="A1:H52"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B33" activeCellId="0" sqref="B33"/>
+      <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="6.02"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="22.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="12.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="7.76"/>
@@ -14338,10 +14485,714 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:F47"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="C2" activeCellId="0" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="45.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="12.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="49.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="51.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="19.25"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>1088</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>1089</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="n">
+        <v>2000</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>1140</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="n">
+        <v>2001</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>1141</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="n">
+        <v>2002</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>1142</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="n">
+        <v>2013</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>1143</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="n">
+        <v>2014</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>1144</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="2" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>1145</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2" t="n">
+        <v>2010</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>1146</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="2" t="n">
+        <v>2008</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>1147</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="2" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>1148</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>1149</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="2" t="n">
+        <v>2012</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>1150</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="2" t="n">
+        <v>2011</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>1151</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="2" t="n">
+        <v>2015</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>1152</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="2" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>1153</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="2" t="n">
+        <v>2023</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>1154</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="2" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>1155</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="2"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="2" t="n">
+        <v>2020</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>1156</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D18" s="2"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="n">
+        <v>2003</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>1157</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D19" s="2"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="2" t="n">
+        <v>2004</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>1158</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D20" s="2"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="2" t="n">
+        <v>2006</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>1159</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D21" s="2"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="2" t="n">
+        <v>2005</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>1160</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D22" s="2"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="2" t="n">
+        <v>2018</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>1161</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D23" s="2"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="2" t="n">
+        <v>2009</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>1162</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D24" s="2"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+    </row>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="2" t="n">
+        <v>2025</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>1163</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D25" s="2"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+    </row>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="2" t="n">
+        <v>2007</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>1164</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D26" s="2"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+    </row>
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="2" t="n">
+        <v>2019</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>1165</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="9"/>
+    </row>
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="2" t="n">
+        <v>2031</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>1166</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>718</v>
+      </c>
+      <c r="D28" s="2"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+    </row>
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="2" t="n">
+        <v>2030</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>1167</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>718</v>
+      </c>
+      <c r="D29" s="2"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+    </row>
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="2" t="n">
+        <v>2033</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>1168</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>718</v>
+      </c>
+      <c r="D30" s="2"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+    </row>
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="2" t="n">
+        <v>2032</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>1169</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>718</v>
+      </c>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="9"/>
+    </row>
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="2" t="n">
+        <v>2026</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>1170</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>718</v>
+      </c>
+      <c r="D32" s="2"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+    </row>
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="2" t="n">
+        <v>2027</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>1171</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>718</v>
+      </c>
+      <c r="D33" s="2"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+    </row>
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="2" t="n">
+        <v>2029</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>1172</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>718</v>
+      </c>
+      <c r="D34" s="2"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+    </row>
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="2" t="n">
+        <v>2028</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>1173</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>718</v>
+      </c>
+      <c r="D35" s="2"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+    </row>
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="2" t="n">
+        <v>2043</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>1174</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>909</v>
+      </c>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+    </row>
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="2" t="n">
+        <v>2040</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>1175</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>909</v>
+      </c>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+    </row>
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="2" t="n">
+        <v>2035</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>1176</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>909</v>
+      </c>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+    </row>
+    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="2" t="n">
+        <v>2041</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>1177</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>909</v>
+      </c>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9"/>
+    </row>
+    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="2" t="n">
+        <v>2042</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>909</v>
+      </c>
+      <c r="D40" s="9"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="9"/>
+    </row>
+    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="2" t="n">
+        <v>2044</v>
+      </c>
+      <c r="B41" s="9" t="s">
+        <v>1179</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>909</v>
+      </c>
+      <c r="D41" s="9"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="9"/>
+    </row>
+    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="2" t="n">
+        <v>2036</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>1180</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>909</v>
+      </c>
+      <c r="D42" s="9"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="9"/>
+    </row>
+    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="2" t="n">
+        <v>2034</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>1181</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>909</v>
+      </c>
+      <c r="D43" s="9"/>
+      <c r="E43" s="9"/>
+      <c r="F43" s="9"/>
+    </row>
+    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="2" t="n">
+        <v>2037</v>
+      </c>
+      <c r="B44" s="9" t="s">
+        <v>1182</v>
+      </c>
+      <c r="C44" s="9" t="s">
+        <v>909</v>
+      </c>
+      <c r="D44" s="9"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="9"/>
+    </row>
+    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="2" t="n">
+        <v>2038</v>
+      </c>
+      <c r="B45" s="9" t="s">
+        <v>1183</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>909</v>
+      </c>
+      <c r="D45" s="9"/>
+      <c r="E45" s="9"/>
+      <c r="F45" s="9"/>
+    </row>
+    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="2" t="n">
+        <v>2039</v>
+      </c>
+      <c r="B46" s="9" t="s">
+        <v>1184</v>
+      </c>
+      <c r="C46" s="9" t="s">
+        <v>909</v>
+      </c>
+      <c r="D46" s="9"/>
+      <c r="E46" s="9"/>
+      <c r="F46" s="9"/>
+    </row>
+    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="2" t="n">
+        <v>2045</v>
+      </c>
+      <c r="B47" s="9" t="s">
+        <v>1185</v>
+      </c>
+      <c r="C47" s="9" t="s">
+        <v>909</v>
+      </c>
+      <c r="D47" s="9"/>
+      <c r="E47" s="9"/>
+      <c r="F47" s="9"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A:F"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Normalny"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normalny"&amp;12&amp;KffffffStrona &amp;P</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -14355,37 +15206,37 @@
         <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1139</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>1140</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>1141</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>1142</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>1143</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>1144</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>1145</v>
+        <v>1192</v>
       </c>
     </row>
   </sheetData>
@@ -14402,36 +15253,38 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="29.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="29.95"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="10" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="2" t="s">
         <v>1088</v>
       </c>
-      <c r="B1" s="12" t="s">
-        <v>1146</v>
+      <c r="B1" s="11" t="s">
+        <v>1193</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>1147</v>
-      </c>
-      <c r="B2" s="13" t="b">
+      <c r="A2" s="1" t="s">
+        <v>1194</v>
+      </c>
+      <c r="B2" s="12" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>

--- a/i18n/tr.xlsx
+++ b/i18n/tr.xlsx
@@ -21,7 +21,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Goals!$A:$F</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Parameters!$A$1:$B$2</definedName>
-    <definedName name="ExternalData_1" localSheetId="0">Birds!$A$1:$G$357</definedName>
+    <definedName name="ExternalData_1" localSheetId="0">Birds!$A$1:$H$357</definedName>
     <definedName name="ExternalData_2" localSheetId="1">Bonuses!$A$1:$H$39</definedName>
   </definedNames>
   <calcPr calcId="152511" iterateDelta="1E-4"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2071" uniqueCount="1195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2072" uniqueCount="1196">
   <si>
     <t>id</t>
   </si>
@@ -3619,6 +3619,9 @@
   </si>
   <si>
     <t>Kākāpō</t>
+  </si>
+  <si>
+    <t>Flavor text</t>
   </si>
 </sst>
 </file>
@@ -3683,7 +3686,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1"/>
@@ -3709,12 +3712,33 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Excel Built-in Normal" xfId="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -3728,15 +3752,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="birds" displayName="birds" ref="A1:K357" totalsRowShown="0">
-  <autoFilter ref="A1:K357"/>
-  <tableColumns count="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="birds" displayName="birds" ref="A1:L357" totalsRowShown="0">
+  <autoFilter ref="A1:L357"/>
+  <tableColumns count="12">
     <tableColumn id="1" name="id"/>
     <tableColumn id="2" name="English name"/>
     <tableColumn id="3" name="Scientific name"/>
     <tableColumn id="4" name="Expansion"/>
     <tableColumn id="5" name="Common name"/>
     <tableColumn id="6" name="Power text"/>
+    <tableColumn id="12" name="Flavor text" dataDxfId="0"/>
     <tableColumn id="7" name="Note"/>
     <tableColumn id="8" name="Anatomist"/>
     <tableColumn id="9" name="Cartographer"/>
@@ -3885,13 +3910,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K447"/>
+  <dimension ref="A1:L447"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C281" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B298" sqref="B298"/>
+      <selection pane="bottomRight" activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3902,10 +3927,11 @@
     <col min="4" max="4" width="12.85546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="15.42578125" style="1" customWidth="1"/>
     <col min="6" max="6" width="11.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="6.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" style="12" customWidth="1"/>
+    <col min="8" max="8" width="6.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3924,23 +3950,26 @@
       <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="15" t="s">
+        <v>1195</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>2</v>
       </c>
@@ -3958,12 +3987,13 @@
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
-      <c r="H2" s="4"/>
+      <c r="H2" s="2"/>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L2" s="4"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>3</v>
       </c>
@@ -3981,14 +4011,15 @@
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="J3" s="4"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="K3" s="4"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L3" s="4"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>4</v>
       </c>
@@ -4006,14 +4037,15 @@
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="J4" s="4"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="K4" s="4"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L4" s="4"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>5</v>
       </c>
@@ -4031,14 +4063,15 @@
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="J5" s="4"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="K5" s="4"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L5" s="4"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>6</v>
       </c>
@@ -4056,14 +4089,15 @@
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="J6" s="4"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="K6" s="4"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L6" s="4"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>7</v>
       </c>
@@ -4081,16 +4115,17 @@
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H7" s="2"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>8</v>
       </c>
@@ -4108,14 +4143,15 @@
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="J8" s="4"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="K8" s="4"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L8" s="4"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>9</v>
       </c>
@@ -4133,14 +4169,15 @@
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="J9" s="4"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="K9" s="4"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L9" s="4"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>10</v>
       </c>
@@ -4158,16 +4195,17 @@
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H10" s="2"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>11</v>
       </c>
@@ -4185,14 +4223,15 @@
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="J11" s="4"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="K11" s="4"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L11" s="4"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>12</v>
       </c>
@@ -4210,16 +4249,17 @@
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H12" s="2"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>13</v>
       </c>
@@ -4237,14 +4277,15 @@
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="J13" s="4"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="K13" s="4"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L13" s="4"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>14</v>
       </c>
@@ -4262,14 +4303,15 @@
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
-      <c r="H14" s="4"/>
+      <c r="H14" s="2"/>
       <c r="I14" s="4"/>
-      <c r="J14" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="K14" s="4"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J14" s="4"/>
+      <c r="K14" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L14" s="4"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>15</v>
       </c>
@@ -4287,12 +4329,13 @@
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
-      <c r="H15" s="4"/>
+      <c r="H15" s="2"/>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
       <c r="K15" s="4"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L15" s="4"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>16</v>
       </c>
@@ -4310,16 +4353,17 @@
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
-      <c r="H16" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I16" s="4"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="J16" s="4"/>
-      <c r="K16" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K16" s="4"/>
+      <c r="L16" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>17</v>
       </c>
@@ -4337,16 +4381,17 @@
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4" t="s">
-        <v>18</v>
-      </c>
+      <c r="H17" s="2"/>
+      <c r="I17" s="4"/>
       <c r="J17" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="K17" s="4"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K17" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L17" s="4"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>18</v>
       </c>
@@ -4361,11 +4406,12 @@
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
-      <c r="H18" s="4"/>
+      <c r="H18" s="2"/>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K18" s="4"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>19</v>
       </c>
@@ -4383,12 +4429,13 @@
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
-      <c r="H19" s="4"/>
+      <c r="H19" s="2"/>
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
       <c r="K19" s="4"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L19" s="4"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>20</v>
       </c>
@@ -4406,12 +4453,13 @@
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
-      <c r="H20" s="4"/>
+      <c r="H20" s="2"/>
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
       <c r="K20" s="4"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L20" s="4"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>21</v>
       </c>
@@ -4429,14 +4477,15 @@
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="J21" s="4"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="K21" s="4"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L21" s="4"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>22</v>
       </c>
@@ -4454,12 +4503,13 @@
       </c>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
-      <c r="H22" s="4"/>
+      <c r="H22" s="2"/>
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
       <c r="K22" s="4"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L22" s="4"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>23</v>
       </c>
@@ -4477,12 +4527,13 @@
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
-      <c r="H23" s="4"/>
+      <c r="H23" s="2"/>
       <c r="I23" s="4"/>
       <c r="J23" s="4"/>
       <c r="K23" s="4"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L23" s="4"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>24</v>
       </c>
@@ -4500,14 +4551,15 @@
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
-      <c r="H24" s="4"/>
+      <c r="H24" s="2"/>
       <c r="I24" s="4"/>
-      <c r="J24" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="K24" s="4"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J24" s="4"/>
+      <c r="K24" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L24" s="4"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>25</v>
       </c>
@@ -4525,18 +4577,19 @@
       </c>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
-      <c r="H25" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I25" s="4"/>
-      <c r="J25" s="4" t="s">
-        <v>18</v>
-      </c>
+      <c r="H25" s="2"/>
+      <c r="I25" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J25" s="4"/>
       <c r="K25" s="4" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L25" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>26</v>
       </c>
@@ -4554,12 +4607,13 @@
       </c>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
-      <c r="H26" s="4"/>
+      <c r="H26" s="2"/>
       <c r="I26" s="4"/>
       <c r="J26" s="4"/>
       <c r="K26" s="4"/>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L26" s="4"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>27</v>
       </c>
@@ -4577,14 +4631,15 @@
       </c>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
-      <c r="H27" s="4"/>
+      <c r="H27" s="2"/>
       <c r="I27" s="4"/>
-      <c r="J27" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="K27" s="4"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J27" s="4"/>
+      <c r="K27" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L27" s="4"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>28</v>
       </c>
@@ -4602,12 +4657,13 @@
       </c>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
-      <c r="H28" s="4"/>
+      <c r="H28" s="2"/>
       <c r="I28" s="4"/>
       <c r="J28" s="4"/>
       <c r="K28" s="4"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L28" s="4"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>29</v>
       </c>
@@ -4622,14 +4678,15 @@
       </c>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
-      <c r="H29" s="4"/>
+      <c r="H29" s="2"/>
       <c r="I29" s="4"/>
       <c r="J29" s="4"/>
-      <c r="K29" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K29" s="4"/>
+      <c r="L29" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>30</v>
       </c>
@@ -4647,14 +4704,15 @@
       </c>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
-      <c r="H30" s="4"/>
+      <c r="H30" s="2"/>
       <c r="I30" s="4"/>
       <c r="J30" s="4"/>
-      <c r="K30" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K30" s="4"/>
+      <c r="L30" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>31</v>
       </c>
@@ -4672,14 +4730,15 @@
       </c>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
-      <c r="H31" s="4"/>
+      <c r="H31" s="2"/>
       <c r="I31" s="4"/>
       <c r="J31" s="4"/>
-      <c r="K31" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K31" s="4"/>
+      <c r="L31" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>32</v>
       </c>
@@ -4697,14 +4756,15 @@
       </c>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
-      <c r="H32" s="4"/>
+      <c r="H32" s="2"/>
       <c r="I32" s="4"/>
       <c r="J32" s="4"/>
-      <c r="K32" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K32" s="4"/>
+      <c r="L32" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>33</v>
       </c>
@@ -4719,14 +4779,15 @@
       </c>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
-      <c r="H33" s="4"/>
+      <c r="H33" s="2"/>
       <c r="I33" s="4"/>
       <c r="J33" s="4"/>
-      <c r="K33" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K33" s="4"/>
+      <c r="L33" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>34</v>
       </c>
@@ -4744,16 +4805,17 @@
       </c>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
-      <c r="H34" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I34" s="4"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="J34" s="4"/>
-      <c r="K34" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K34" s="4"/>
+      <c r="L34" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>35</v>
       </c>
@@ -4771,16 +4833,17 @@
       </c>
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
-      <c r="H35" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I35" s="4"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="J35" s="4"/>
-      <c r="K35" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K35" s="4"/>
+      <c r="L35" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>36</v>
       </c>
@@ -4798,16 +4861,17 @@
       </c>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
-      <c r="H36" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I36" s="4"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="J36" s="4"/>
-      <c r="K36" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K36" s="4"/>
+      <c r="L36" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>37</v>
       </c>
@@ -4825,16 +4889,17 @@
       </c>
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
-      <c r="H37" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I37" s="4"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="J37" s="4"/>
-      <c r="K37" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K37" s="4"/>
+      <c r="L37" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>38</v>
       </c>
@@ -4849,16 +4914,17 @@
       </c>
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
-      <c r="H38" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I38" s="4"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="J38" s="4"/>
-      <c r="K38" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K38" s="4"/>
+      <c r="L38" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>39</v>
       </c>
@@ -4876,16 +4942,17 @@
       </c>
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
-      <c r="H39" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I39" s="4"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="J39" s="4"/>
-      <c r="K39" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K39" s="4"/>
+      <c r="L39" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>40</v>
       </c>
@@ -4900,16 +4967,17 @@
       </c>
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
-      <c r="H40" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I40" s="4"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="J40" s="4"/>
-      <c r="K40" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K40" s="4"/>
+      <c r="L40" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>41</v>
       </c>
@@ -4924,16 +4992,17 @@
       </c>
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
-      <c r="H41" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I41" s="4"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="J41" s="4"/>
-      <c r="K41" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K41" s="4"/>
+      <c r="L41" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>42</v>
       </c>
@@ -4951,16 +5020,17 @@
       </c>
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
-      <c r="H42" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I42" s="4"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="J42" s="4"/>
-      <c r="K42" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K42" s="4"/>
+      <c r="L42" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>43</v>
       </c>
@@ -4978,14 +5048,15 @@
       </c>
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
-      <c r="H43" s="4"/>
+      <c r="H43" s="2"/>
       <c r="I43" s="4"/>
       <c r="J43" s="4"/>
-      <c r="K43" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K43" s="4"/>
+      <c r="L43" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>44</v>
       </c>
@@ -5003,14 +5074,15 @@
       </c>
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
-      <c r="H44" s="4"/>
+      <c r="H44" s="2"/>
       <c r="I44" s="4"/>
       <c r="J44" s="4"/>
-      <c r="K44" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K44" s="4"/>
+      <c r="L44" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>45</v>
       </c>
@@ -5028,16 +5100,17 @@
       </c>
       <c r="F45" s="2"/>
       <c r="G45" s="2"/>
-      <c r="H45" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I45" s="4"/>
+      <c r="H45" s="2"/>
+      <c r="I45" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="J45" s="4"/>
-      <c r="K45" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K45" s="4"/>
+      <c r="L45" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>46</v>
       </c>
@@ -5052,18 +5125,19 @@
       </c>
       <c r="F46" s="2"/>
       <c r="G46" s="2"/>
-      <c r="H46" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I46" s="4"/>
-      <c r="J46" s="4" t="s">
-        <v>18</v>
-      </c>
+      <c r="H46" s="2"/>
+      <c r="I46" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J46" s="4"/>
       <c r="K46" s="4" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L46" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>47</v>
       </c>
@@ -5081,14 +5155,15 @@
       </c>
       <c r="F47" s="2"/>
       <c r="G47" s="2"/>
-      <c r="H47" s="4"/>
+      <c r="H47" s="2"/>
       <c r="I47" s="4"/>
-      <c r="J47" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="K47" s="4"/>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J47" s="4"/>
+      <c r="K47" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L47" s="4"/>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>48</v>
       </c>
@@ -5103,11 +5178,12 @@
       </c>
       <c r="F48" s="2"/>
       <c r="G48" s="2"/>
-      <c r="H48" s="4"/>
+      <c r="H48" s="2"/>
       <c r="I48" s="4"/>
       <c r="J48" s="4"/>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K48" s="4"/>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>49</v>
       </c>
@@ -5125,14 +5201,15 @@
       </c>
       <c r="F49" s="2"/>
       <c r="G49" s="2"/>
-      <c r="H49" s="4"/>
+      <c r="H49" s="2"/>
       <c r="I49" s="4"/>
-      <c r="J49" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="K49" s="4"/>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J49" s="4"/>
+      <c r="K49" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L49" s="4"/>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>50</v>
       </c>
@@ -5150,14 +5227,15 @@
       </c>
       <c r="F50" s="2"/>
       <c r="G50" s="2"/>
-      <c r="H50" s="4"/>
+      <c r="H50" s="2"/>
       <c r="I50" s="4"/>
       <c r="J50" s="4"/>
-      <c r="K50" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K50" s="4"/>
+      <c r="L50" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>51</v>
       </c>
@@ -5175,14 +5253,15 @@
       </c>
       <c r="F51" s="2"/>
       <c r="G51" s="2"/>
-      <c r="H51" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I51" s="4"/>
+      <c r="H51" s="2"/>
+      <c r="I51" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="J51" s="4"/>
       <c r="K51" s="4"/>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L51" s="4"/>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>52</v>
       </c>
@@ -5200,14 +5279,15 @@
       </c>
       <c r="F52" s="2"/>
       <c r="G52" s="2"/>
-      <c r="H52" s="4"/>
+      <c r="H52" s="2"/>
       <c r="I52" s="4"/>
       <c r="J52" s="4"/>
-      <c r="K52" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K52" s="4"/>
+      <c r="L52" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>53</v>
       </c>
@@ -5225,14 +5305,15 @@
       </c>
       <c r="F53" s="2"/>
       <c r="G53" s="2"/>
-      <c r="H53" s="4"/>
+      <c r="H53" s="2"/>
       <c r="I53" s="4"/>
       <c r="J53" s="4"/>
-      <c r="K53" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K53" s="4"/>
+      <c r="L53" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>54</v>
       </c>
@@ -5250,16 +5331,17 @@
       </c>
       <c r="F54" s="2"/>
       <c r="G54" s="2"/>
-      <c r="H54" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I54" s="4"/>
+      <c r="H54" s="2"/>
+      <c r="I54" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="J54" s="4"/>
-      <c r="K54" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K54" s="4"/>
+      <c r="L54" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>55</v>
       </c>
@@ -5274,11 +5356,12 @@
       </c>
       <c r="F55" s="2"/>
       <c r="G55" s="2"/>
-      <c r="H55" s="4"/>
+      <c r="H55" s="2"/>
       <c r="I55" s="4"/>
       <c r="J55" s="4"/>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K55" s="4"/>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>56</v>
       </c>
@@ -5296,12 +5379,13 @@
       </c>
       <c r="F56" s="2"/>
       <c r="G56" s="2"/>
-      <c r="H56" s="4"/>
+      <c r="H56" s="2"/>
       <c r="I56" s="4"/>
       <c r="J56" s="4"/>
       <c r="K56" s="4"/>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L56" s="4"/>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>57</v>
       </c>
@@ -5319,12 +5403,13 @@
       </c>
       <c r="F57" s="2"/>
       <c r="G57" s="2"/>
-      <c r="H57" s="4"/>
+      <c r="H57" s="2"/>
       <c r="I57" s="4"/>
       <c r="J57" s="4"/>
       <c r="K57" s="4"/>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L57" s="4"/>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>58</v>
       </c>
@@ -5342,14 +5427,15 @@
       </c>
       <c r="F58" s="2"/>
       <c r="G58" s="2"/>
-      <c r="H58" s="4"/>
-      <c r="I58" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="J58" s="4"/>
+      <c r="H58" s="2"/>
+      <c r="I58" s="4"/>
+      <c r="J58" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="K58" s="4"/>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L58" s="4"/>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>59</v>
       </c>
@@ -5367,14 +5453,15 @@
       </c>
       <c r="F59" s="2"/>
       <c r="G59" s="2"/>
-      <c r="H59" s="4"/>
-      <c r="I59" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="J59" s="4"/>
+      <c r="H59" s="2"/>
+      <c r="I59" s="4"/>
+      <c r="J59" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="K59" s="4"/>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L59" s="4"/>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>60</v>
       </c>
@@ -5392,14 +5479,15 @@
       </c>
       <c r="F60" s="2"/>
       <c r="G60" s="2"/>
-      <c r="H60" s="4"/>
-      <c r="I60" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="J60" s="4"/>
+      <c r="H60" s="2"/>
+      <c r="I60" s="4"/>
+      <c r="J60" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="K60" s="4"/>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L60" s="4"/>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>61</v>
       </c>
@@ -5417,14 +5505,15 @@
       </c>
       <c r="F61" s="2"/>
       <c r="G61" s="2"/>
-      <c r="H61" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I61" s="4"/>
+      <c r="H61" s="2"/>
+      <c r="I61" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="J61" s="4"/>
       <c r="K61" s="4"/>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L61" s="4"/>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>62</v>
       </c>
@@ -5442,14 +5531,15 @@
       </c>
       <c r="F62" s="2"/>
       <c r="G62" s="2"/>
-      <c r="H62" s="4"/>
-      <c r="I62" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="J62" s="4"/>
+      <c r="H62" s="2"/>
+      <c r="I62" s="4"/>
+      <c r="J62" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="K62" s="4"/>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L62" s="4"/>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>63</v>
       </c>
@@ -5467,14 +5557,15 @@
       </c>
       <c r="F63" s="2"/>
       <c r="G63" s="2"/>
-      <c r="H63" s="4"/>
-      <c r="I63" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="J63" s="4"/>
+      <c r="H63" s="2"/>
+      <c r="I63" s="4"/>
+      <c r="J63" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="K63" s="4"/>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L63" s="4"/>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>64</v>
       </c>
@@ -5489,14 +5580,15 @@
       </c>
       <c r="F64" s="2"/>
       <c r="G64" s="2"/>
-      <c r="H64" s="4"/>
+      <c r="H64" s="2"/>
       <c r="I64" s="4"/>
-      <c r="J64" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="K64" s="4"/>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J64" s="4"/>
+      <c r="K64" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L64" s="4"/>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>65</v>
       </c>
@@ -5514,14 +5606,15 @@
       </c>
       <c r="F65" s="2"/>
       <c r="G65" s="2"/>
-      <c r="H65" s="4"/>
+      <c r="H65" s="2"/>
       <c r="I65" s="4"/>
-      <c r="J65" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="K65" s="4"/>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J65" s="4"/>
+      <c r="K65" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L65" s="4"/>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>66</v>
       </c>
@@ -5539,12 +5632,13 @@
       </c>
       <c r="F66" s="2"/>
       <c r="G66" s="2"/>
-      <c r="H66" s="4"/>
+      <c r="H66" s="2"/>
       <c r="I66" s="4"/>
       <c r="J66" s="4"/>
       <c r="K66" s="4"/>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L66" s="4"/>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>67</v>
       </c>
@@ -5562,14 +5656,15 @@
       </c>
       <c r="F67" s="2"/>
       <c r="G67" s="2"/>
-      <c r="H67" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I67" s="4"/>
+      <c r="H67" s="2"/>
+      <c r="I67" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="J67" s="4"/>
       <c r="K67" s="4"/>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L67" s="4"/>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>68</v>
       </c>
@@ -5587,16 +5682,17 @@
       </c>
       <c r="F68" s="2"/>
       <c r="G68" s="2"/>
-      <c r="H68" s="4"/>
+      <c r="H68" s="2"/>
       <c r="I68" s="4"/>
-      <c r="J68" s="4" t="s">
-        <v>18</v>
-      </c>
+      <c r="J68" s="4"/>
       <c r="K68" s="4" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L68" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>69</v>
       </c>
@@ -5611,11 +5707,12 @@
       </c>
       <c r="F69" s="2"/>
       <c r="G69" s="2"/>
-      <c r="H69" s="4"/>
+      <c r="H69" s="2"/>
       <c r="I69" s="4"/>
       <c r="J69" s="4"/>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K69" s="4"/>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>70</v>
       </c>
@@ -5633,16 +5730,17 @@
       </c>
       <c r="F70" s="2"/>
       <c r="G70" s="2"/>
-      <c r="H70" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I70" s="4"/>
+      <c r="H70" s="2"/>
+      <c r="I70" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="J70" s="4"/>
-      <c r="K70" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K70" s="4"/>
+      <c r="L70" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>71</v>
       </c>
@@ -5660,14 +5758,15 @@
       </c>
       <c r="F71" s="2"/>
       <c r="G71" s="2"/>
-      <c r="H71" s="4"/>
-      <c r="I71" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="J71" s="4"/>
+      <c r="H71" s="2"/>
+      <c r="I71" s="4"/>
+      <c r="J71" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="K71" s="4"/>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L71" s="4"/>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>72</v>
       </c>
@@ -5685,12 +5784,13 @@
       </c>
       <c r="F72" s="2"/>
       <c r="G72" s="2"/>
-      <c r="H72" s="4"/>
+      <c r="H72" s="2"/>
       <c r="I72" s="4"/>
       <c r="J72" s="4"/>
       <c r="K72" s="4"/>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L72" s="4"/>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>73</v>
       </c>
@@ -5708,14 +5808,15 @@
       </c>
       <c r="F73" s="2"/>
       <c r="G73" s="2"/>
-      <c r="H73" s="4"/>
+      <c r="H73" s="2"/>
       <c r="I73" s="4"/>
-      <c r="J73" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="K73" s="4"/>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J73" s="4"/>
+      <c r="K73" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L73" s="4"/>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>74</v>
       </c>
@@ -5733,14 +5834,15 @@
       </c>
       <c r="F74" s="2"/>
       <c r="G74" s="2"/>
-      <c r="H74" s="4"/>
+      <c r="H74" s="2"/>
       <c r="I74" s="4"/>
-      <c r="J74" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="K74" s="4"/>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J74" s="4"/>
+      <c r="K74" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L74" s="4"/>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>75</v>
       </c>
@@ -5758,12 +5860,13 @@
       </c>
       <c r="F75" s="2"/>
       <c r="G75" s="2"/>
-      <c r="H75" s="4"/>
+      <c r="H75" s="2"/>
       <c r="I75" s="4"/>
       <c r="J75" s="4"/>
       <c r="K75" s="4"/>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L75" s="4"/>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>76</v>
       </c>
@@ -5778,14 +5881,15 @@
       </c>
       <c r="F76" s="2"/>
       <c r="G76" s="2"/>
-      <c r="H76" s="4"/>
+      <c r="H76" s="2"/>
       <c r="I76" s="4"/>
       <c r="J76" s="4"/>
-      <c r="K76" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K76" s="4"/>
+      <c r="L76" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>77</v>
       </c>
@@ -5800,14 +5904,15 @@
       </c>
       <c r="F77" s="2"/>
       <c r="G77" s="2"/>
-      <c r="H77" s="4"/>
+      <c r="H77" s="2"/>
       <c r="I77" s="4"/>
       <c r="J77" s="4"/>
-      <c r="K77" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K77" s="4"/>
+      <c r="L77" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>78</v>
       </c>
@@ -5822,11 +5927,12 @@
       </c>
       <c r="F78" s="2"/>
       <c r="G78" s="2"/>
-      <c r="H78" s="4"/>
+      <c r="H78" s="2"/>
       <c r="I78" s="4"/>
       <c r="J78" s="4"/>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K78" s="4"/>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>79</v>
       </c>
@@ -5841,11 +5947,12 @@
       </c>
       <c r="F79" s="2"/>
       <c r="G79" s="2"/>
-      <c r="H79" s="4"/>
+      <c r="H79" s="2"/>
       <c r="I79" s="4"/>
       <c r="J79" s="4"/>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K79" s="4"/>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>80</v>
       </c>
@@ -5860,11 +5967,12 @@
       </c>
       <c r="F80" s="2"/>
       <c r="G80" s="2"/>
-      <c r="H80" s="4"/>
+      <c r="H80" s="2"/>
       <c r="I80" s="4"/>
       <c r="J80" s="4"/>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K80" s="4"/>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>81</v>
       </c>
@@ -5879,11 +5987,12 @@
       </c>
       <c r="F81" s="2"/>
       <c r="G81" s="2"/>
-      <c r="H81" s="4"/>
+      <c r="H81" s="2"/>
       <c r="I81" s="4"/>
       <c r="J81" s="4"/>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K81" s="4"/>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>82</v>
       </c>
@@ -5898,16 +6007,17 @@
       </c>
       <c r="F82" s="2"/>
       <c r="G82" s="2"/>
-      <c r="H82" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I82" s="4"/>
+      <c r="H82" s="2"/>
+      <c r="I82" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="J82" s="4"/>
-      <c r="K82" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K82" s="4"/>
+      <c r="L82" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>83</v>
       </c>
@@ -5925,12 +6035,13 @@
       </c>
       <c r="F83" s="2"/>
       <c r="G83" s="2"/>
-      <c r="H83" s="4"/>
+      <c r="H83" s="2"/>
       <c r="I83" s="4"/>
       <c r="J83" s="4"/>
       <c r="K83" s="4"/>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L83" s="4"/>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>84</v>
       </c>
@@ -5945,11 +6056,12 @@
       </c>
       <c r="F84" s="2"/>
       <c r="G84" s="2"/>
-      <c r="H84" s="4"/>
+      <c r="H84" s="2"/>
       <c r="I84" s="4"/>
       <c r="J84" s="4"/>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K84" s="4"/>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>85</v>
       </c>
@@ -5964,11 +6076,12 @@
       </c>
       <c r="F85" s="2"/>
       <c r="G85" s="2"/>
-      <c r="H85" s="4"/>
+      <c r="H85" s="2"/>
       <c r="I85" s="4"/>
       <c r="J85" s="4"/>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K85" s="4"/>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>86</v>
       </c>
@@ -5986,12 +6099,13 @@
       </c>
       <c r="F86" s="2"/>
       <c r="G86" s="2"/>
-      <c r="H86" s="4"/>
+      <c r="H86" s="2"/>
       <c r="I86" s="4"/>
       <c r="J86" s="4"/>
       <c r="K86" s="4"/>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L86" s="4"/>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>87</v>
       </c>
@@ -6009,12 +6123,13 @@
       </c>
       <c r="F87" s="2"/>
       <c r="G87" s="2"/>
-      <c r="H87" s="4"/>
+      <c r="H87" s="2"/>
       <c r="I87" s="4"/>
       <c r="J87" s="4"/>
       <c r="K87" s="4"/>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L87" s="4"/>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>88</v>
       </c>
@@ -6029,14 +6144,15 @@
       </c>
       <c r="F88" s="2"/>
       <c r="G88" s="2"/>
-      <c r="H88" s="4"/>
-      <c r="I88" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="J88" s="4"/>
+      <c r="H88" s="2"/>
+      <c r="I88" s="4"/>
+      <c r="J88" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="K88" s="4"/>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L88" s="4"/>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>89</v>
       </c>
@@ -6054,12 +6170,13 @@
       </c>
       <c r="F89" s="2"/>
       <c r="G89" s="2"/>
-      <c r="H89" s="4"/>
+      <c r="H89" s="2"/>
       <c r="I89" s="4"/>
       <c r="J89" s="4"/>
       <c r="K89" s="4"/>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L89" s="4"/>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>90</v>
       </c>
@@ -6074,11 +6191,12 @@
       </c>
       <c r="F90" s="2"/>
       <c r="G90" s="2"/>
-      <c r="H90" s="4"/>
+      <c r="H90" s="2"/>
       <c r="I90" s="4"/>
       <c r="J90" s="4"/>
-    </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K90" s="4"/>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>91</v>
       </c>
@@ -6096,12 +6214,13 @@
       </c>
       <c r="F91" s="2"/>
       <c r="G91" s="2"/>
-      <c r="H91" s="4"/>
+      <c r="H91" s="2"/>
       <c r="I91" s="4"/>
       <c r="J91" s="4"/>
       <c r="K91" s="4"/>
-    </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L91" s="4"/>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>92</v>
       </c>
@@ -6116,11 +6235,12 @@
       </c>
       <c r="F92" s="2"/>
       <c r="G92" s="2"/>
-      <c r="H92" s="4"/>
+      <c r="H92" s="2"/>
       <c r="I92" s="4"/>
       <c r="J92" s="4"/>
-    </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K92" s="4"/>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>93</v>
       </c>
@@ -6135,11 +6255,12 @@
       </c>
       <c r="F93" s="2"/>
       <c r="G93" s="2"/>
-      <c r="H93" s="4"/>
+      <c r="H93" s="2"/>
       <c r="I93" s="4"/>
       <c r="J93" s="4"/>
-    </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K93" s="4"/>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>94</v>
       </c>
@@ -6157,18 +6278,19 @@
       </c>
       <c r="F94" s="2"/>
       <c r="G94" s="2"/>
-      <c r="H94" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I94" s="4"/>
-      <c r="J94" s="4" t="s">
-        <v>18</v>
-      </c>
+      <c r="H94" s="2"/>
+      <c r="I94" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J94" s="4"/>
       <c r="K94" s="4" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L94" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>95</v>
       </c>
@@ -6186,12 +6308,13 @@
       </c>
       <c r="F95" s="2"/>
       <c r="G95" s="2"/>
-      <c r="H95" s="4"/>
+      <c r="H95" s="2"/>
       <c r="I95" s="4"/>
       <c r="J95" s="4"/>
       <c r="K95" s="4"/>
-    </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L95" s="4"/>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>96</v>
       </c>
@@ -6206,16 +6329,17 @@
       </c>
       <c r="F96" s="2"/>
       <c r="G96" s="2"/>
-      <c r="H96" s="4"/>
-      <c r="I96" s="4" t="s">
-        <v>18</v>
-      </c>
+      <c r="H96" s="2"/>
+      <c r="I96" s="4"/>
       <c r="J96" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="K96" s="4"/>
-    </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K96" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L96" s="4"/>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>97</v>
       </c>
@@ -6233,14 +6357,15 @@
       </c>
       <c r="F97" s="2"/>
       <c r="G97" s="2"/>
-      <c r="H97" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I97" s="4"/>
+      <c r="H97" s="2"/>
+      <c r="I97" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="J97" s="4"/>
       <c r="K97" s="4"/>
-    </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L97" s="4"/>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>98</v>
       </c>
@@ -6258,12 +6383,13 @@
       </c>
       <c r="F98" s="2"/>
       <c r="G98" s="2"/>
-      <c r="H98" s="4"/>
+      <c r="H98" s="2"/>
       <c r="I98" s="4"/>
       <c r="J98" s="4"/>
       <c r="K98" s="4"/>
-    </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L98" s="4"/>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>99</v>
       </c>
@@ -6281,14 +6407,15 @@
       </c>
       <c r="F99" s="2"/>
       <c r="G99" s="2"/>
-      <c r="H99" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I99" s="4"/>
+      <c r="H99" s="2"/>
+      <c r="I99" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="J99" s="4"/>
       <c r="K99" s="4"/>
-    </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L99" s="4"/>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>100</v>
       </c>
@@ -6306,12 +6433,13 @@
       </c>
       <c r="F100" s="2"/>
       <c r="G100" s="2"/>
-      <c r="H100" s="4"/>
+      <c r="H100" s="2"/>
       <c r="I100" s="4"/>
       <c r="J100" s="4"/>
       <c r="K100" s="4"/>
-    </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L100" s="4"/>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>101</v>
       </c>
@@ -6326,11 +6454,12 @@
       </c>
       <c r="F101" s="2"/>
       <c r="G101" s="2"/>
-      <c r="H101" s="4"/>
+      <c r="H101" s="2"/>
       <c r="I101" s="4"/>
       <c r="J101" s="4"/>
-    </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K101" s="4"/>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>102</v>
       </c>
@@ -6348,16 +6477,17 @@
       </c>
       <c r="F102" s="2"/>
       <c r="G102" s="2"/>
-      <c r="H102" s="4"/>
-      <c r="I102" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="J102" s="4"/>
-      <c r="K102" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H102" s="2"/>
+      <c r="I102" s="4"/>
+      <c r="J102" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K102" s="4"/>
+      <c r="L102" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>103</v>
       </c>
@@ -6372,14 +6502,15 @@
       </c>
       <c r="F103" s="2"/>
       <c r="G103" s="2"/>
-      <c r="H103" s="4"/>
-      <c r="I103" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="J103" s="4"/>
+      <c r="H103" s="2"/>
+      <c r="I103" s="4"/>
+      <c r="J103" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="K103" s="4"/>
-    </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L103" s="4"/>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>104</v>
       </c>
@@ -6397,14 +6528,15 @@
       </c>
       <c r="F104" s="2"/>
       <c r="G104" s="2"/>
-      <c r="H104" s="4"/>
-      <c r="I104" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="J104" s="4"/>
+      <c r="H104" s="2"/>
+      <c r="I104" s="4"/>
+      <c r="J104" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="K104" s="4"/>
-    </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L104" s="4"/>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>105</v>
       </c>
@@ -6422,14 +6554,15 @@
       </c>
       <c r="F105" s="2"/>
       <c r="G105" s="2"/>
-      <c r="H105" s="4"/>
-      <c r="I105" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="J105" s="4"/>
+      <c r="H105" s="2"/>
+      <c r="I105" s="4"/>
+      <c r="J105" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="K105" s="4"/>
-    </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L105" s="4"/>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>106</v>
       </c>
@@ -6447,14 +6580,15 @@
       </c>
       <c r="F106" s="2"/>
       <c r="G106" s="2"/>
-      <c r="H106" s="4"/>
-      <c r="I106" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="J106" s="4"/>
+      <c r="H106" s="2"/>
+      <c r="I106" s="4"/>
+      <c r="J106" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="K106" s="4"/>
-    </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L106" s="4"/>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>107</v>
       </c>
@@ -6469,11 +6603,12 @@
       </c>
       <c r="F107" s="2"/>
       <c r="G107" s="2"/>
-      <c r="H107" s="4"/>
+      <c r="H107" s="2"/>
       <c r="I107" s="4"/>
       <c r="J107" s="4"/>
-    </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K107" s="4"/>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>108</v>
       </c>
@@ -6488,16 +6623,17 @@
       </c>
       <c r="F108" s="2"/>
       <c r="G108" s="2"/>
-      <c r="H108" s="4" t="s">
-        <v>18</v>
-      </c>
+      <c r="H108" s="2"/>
       <c r="I108" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="J108" s="4"/>
+      <c r="J108" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="K108" s="4"/>
-    </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L108" s="4"/>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>109</v>
       </c>
@@ -6512,16 +6648,17 @@
       </c>
       <c r="F109" s="2"/>
       <c r="G109" s="2"/>
-      <c r="H109" s="4"/>
-      <c r="I109" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="J109" s="4"/>
-      <c r="K109" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H109" s="2"/>
+      <c r="I109" s="4"/>
+      <c r="J109" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K109" s="4"/>
+      <c r="L109" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>110</v>
       </c>
@@ -6536,16 +6673,17 @@
       </c>
       <c r="F110" s="2"/>
       <c r="G110" s="2"/>
-      <c r="H110" s="4"/>
-      <c r="I110" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="J110" s="4"/>
-      <c r="K110" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H110" s="2"/>
+      <c r="I110" s="4"/>
+      <c r="J110" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K110" s="4"/>
+      <c r="L110" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>111</v>
       </c>
@@ -6560,14 +6698,15 @@
       </c>
       <c r="F111" s="2"/>
       <c r="G111" s="2"/>
-      <c r="H111" s="4"/>
-      <c r="I111" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="J111" s="4"/>
+      <c r="H111" s="2"/>
+      <c r="I111" s="4"/>
+      <c r="J111" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="K111" s="4"/>
-    </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L111" s="4"/>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>112</v>
       </c>
@@ -6582,14 +6721,15 @@
       </c>
       <c r="F112" s="2"/>
       <c r="G112" s="2"/>
-      <c r="H112" s="4"/>
-      <c r="I112" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="J112" s="4"/>
+      <c r="H112" s="2"/>
+      <c r="I112" s="4"/>
+      <c r="J112" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="K112" s="4"/>
-    </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L112" s="4"/>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>113</v>
       </c>
@@ -6604,14 +6744,15 @@
       </c>
       <c r="F113" s="2"/>
       <c r="G113" s="2"/>
-      <c r="H113" s="4"/>
-      <c r="I113" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="J113" s="4"/>
+      <c r="H113" s="2"/>
+      <c r="I113" s="4"/>
+      <c r="J113" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="K113" s="4"/>
-    </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L113" s="4"/>
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>114</v>
       </c>
@@ -6626,14 +6767,15 @@
       </c>
       <c r="F114" s="2"/>
       <c r="G114" s="2"/>
-      <c r="H114" s="4"/>
-      <c r="I114" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="J114" s="4"/>
+      <c r="H114" s="2"/>
+      <c r="I114" s="4"/>
+      <c r="J114" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="K114" s="4"/>
-    </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L114" s="4"/>
+    </row>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>115</v>
       </c>
@@ -6648,14 +6790,15 @@
       </c>
       <c r="F115" s="2"/>
       <c r="G115" s="2"/>
-      <c r="H115" s="4"/>
-      <c r="I115" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="J115" s="4"/>
+      <c r="H115" s="2"/>
+      <c r="I115" s="4"/>
+      <c r="J115" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="K115" s="4"/>
-    </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L115" s="4"/>
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>116</v>
       </c>
@@ -6670,14 +6813,15 @@
       </c>
       <c r="F116" s="2"/>
       <c r="G116" s="2"/>
-      <c r="H116" s="4"/>
-      <c r="I116" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="J116" s="4"/>
+      <c r="H116" s="2"/>
+      <c r="I116" s="4"/>
+      <c r="J116" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="K116" s="4"/>
-    </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L116" s="4"/>
+    </row>
+    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>117</v>
       </c>
@@ -6692,14 +6836,15 @@
       </c>
       <c r="F117" s="2"/>
       <c r="G117" s="2"/>
-      <c r="H117" s="4"/>
-      <c r="I117" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="J117" s="4"/>
+      <c r="H117" s="2"/>
+      <c r="I117" s="4"/>
+      <c r="J117" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="K117" s="4"/>
-    </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L117" s="4"/>
+    </row>
+    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>118</v>
       </c>
@@ -6714,14 +6859,15 @@
       </c>
       <c r="F118" s="2"/>
       <c r="G118" s="2"/>
-      <c r="H118" s="4"/>
-      <c r="I118" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="J118" s="4"/>
+      <c r="H118" s="2"/>
+      <c r="I118" s="4"/>
+      <c r="J118" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="K118" s="4"/>
-    </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L118" s="4"/>
+    </row>
+    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>119</v>
       </c>
@@ -6736,16 +6882,17 @@
       </c>
       <c r="F119" s="2"/>
       <c r="G119" s="2"/>
-      <c r="H119" s="4"/>
-      <c r="I119" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="J119" s="4"/>
-      <c r="K119" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H119" s="2"/>
+      <c r="I119" s="4"/>
+      <c r="J119" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K119" s="4"/>
+      <c r="L119" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>120</v>
       </c>
@@ -6760,14 +6907,15 @@
       </c>
       <c r="F120" s="2"/>
       <c r="G120" s="2"/>
-      <c r="H120" s="4"/>
-      <c r="I120" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="J120" s="4"/>
+      <c r="H120" s="2"/>
+      <c r="I120" s="4"/>
+      <c r="J120" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="K120" s="4"/>
-    </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L120" s="4"/>
+    </row>
+    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>121</v>
       </c>
@@ -6782,14 +6930,15 @@
       </c>
       <c r="F121" s="2"/>
       <c r="G121" s="2"/>
-      <c r="H121" s="4"/>
-      <c r="I121" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="J121" s="4"/>
+      <c r="H121" s="2"/>
+      <c r="I121" s="4"/>
+      <c r="J121" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="K121" s="4"/>
-    </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L121" s="4"/>
+    </row>
+    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>122</v>
       </c>
@@ -6804,14 +6953,15 @@
       </c>
       <c r="F122" s="2"/>
       <c r="G122" s="2"/>
-      <c r="H122" s="4"/>
-      <c r="I122" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="J122" s="4"/>
+      <c r="H122" s="2"/>
+      <c r="I122" s="4"/>
+      <c r="J122" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="K122" s="4"/>
-    </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L122" s="4"/>
+    </row>
+    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>123</v>
       </c>
@@ -6826,14 +6976,15 @@
       </c>
       <c r="F123" s="2"/>
       <c r="G123" s="2"/>
-      <c r="H123" s="4"/>
-      <c r="I123" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="J123" s="4"/>
+      <c r="H123" s="2"/>
+      <c r="I123" s="4"/>
+      <c r="J123" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="K123" s="4"/>
-    </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L123" s="4"/>
+    </row>
+    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>124</v>
       </c>
@@ -6851,14 +7002,15 @@
       </c>
       <c r="F124" s="2"/>
       <c r="G124" s="2"/>
-      <c r="H124" s="4"/>
+      <c r="H124" s="2"/>
       <c r="I124" s="4"/>
       <c r="J124" s="4"/>
-      <c r="K124" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K124" s="4"/>
+      <c r="L124" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>125</v>
       </c>
@@ -6876,14 +7028,15 @@
       </c>
       <c r="F125" s="2"/>
       <c r="G125" s="2"/>
-      <c r="H125" s="4"/>
+      <c r="H125" s="2"/>
       <c r="I125" s="4"/>
-      <c r="J125" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="K125" s="4"/>
-    </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J125" s="4"/>
+      <c r="K125" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L125" s="4"/>
+    </row>
+    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>126</v>
       </c>
@@ -6901,14 +7054,15 @@
       </c>
       <c r="F126" s="2"/>
       <c r="G126" s="2"/>
-      <c r="H126" s="4"/>
+      <c r="H126" s="2"/>
       <c r="I126" s="4"/>
-      <c r="J126" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="K126" s="4"/>
-    </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J126" s="4"/>
+      <c r="K126" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L126" s="4"/>
+    </row>
+    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>127</v>
       </c>
@@ -6926,12 +7080,13 @@
       </c>
       <c r="F127" s="2"/>
       <c r="G127" s="2"/>
-      <c r="H127" s="4"/>
+      <c r="H127" s="2"/>
       <c r="I127" s="4"/>
       <c r="J127" s="4"/>
       <c r="K127" s="4"/>
-    </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L127" s="4"/>
+    </row>
+    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>128</v>
       </c>
@@ -6946,16 +7101,17 @@
       </c>
       <c r="F128" s="2"/>
       <c r="G128" s="2"/>
-      <c r="H128" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I128" s="4"/>
+      <c r="H128" s="2"/>
+      <c r="I128" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="J128" s="4"/>
-      <c r="K128" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K128" s="4"/>
+      <c r="L128" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>129</v>
       </c>
@@ -6973,14 +7129,15 @@
       </c>
       <c r="F129" s="2"/>
       <c r="G129" s="2"/>
-      <c r="H129" s="4"/>
+      <c r="H129" s="2"/>
       <c r="I129" s="4"/>
       <c r="J129" s="4"/>
-      <c r="K129" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K129" s="4"/>
+      <c r="L129" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>130</v>
       </c>
@@ -6998,12 +7155,13 @@
       </c>
       <c r="F130" s="2"/>
       <c r="G130" s="2"/>
-      <c r="H130" s="4"/>
+      <c r="H130" s="2"/>
       <c r="I130" s="4"/>
       <c r="J130" s="4"/>
       <c r="K130" s="4"/>
-    </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L130" s="4"/>
+    </row>
+    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>131</v>
       </c>
@@ -7021,14 +7179,15 @@
       </c>
       <c r="F131" s="2"/>
       <c r="G131" s="2"/>
-      <c r="H131" s="4"/>
+      <c r="H131" s="2"/>
       <c r="I131" s="4"/>
       <c r="J131" s="4"/>
-      <c r="K131" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K131" s="4"/>
+      <c r="L131" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>132</v>
       </c>
@@ -7046,14 +7205,15 @@
       </c>
       <c r="F132" s="2"/>
       <c r="G132" s="2"/>
-      <c r="H132" s="4"/>
+      <c r="H132" s="2"/>
       <c r="I132" s="4"/>
       <c r="J132" s="4"/>
-      <c r="K132" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K132" s="4"/>
+      <c r="L132" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>133</v>
       </c>
@@ -7071,14 +7231,15 @@
       </c>
       <c r="F133" s="2"/>
       <c r="G133" s="2"/>
-      <c r="H133" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I133" s="4"/>
+      <c r="H133" s="2"/>
+      <c r="I133" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="J133" s="4"/>
       <c r="K133" s="4"/>
-    </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L133" s="4"/>
+    </row>
+    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>134</v>
       </c>
@@ -7093,14 +7254,15 @@
       </c>
       <c r="F134" s="2"/>
       <c r="G134" s="2"/>
-      <c r="H134" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I134" s="4"/>
+      <c r="H134" s="2"/>
+      <c r="I134" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="J134" s="4"/>
       <c r="K134" s="4"/>
-    </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L134" s="4"/>
+    </row>
+    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>135</v>
       </c>
@@ -7118,12 +7280,13 @@
       </c>
       <c r="F135" s="2"/>
       <c r="G135" s="2"/>
-      <c r="H135" s="4"/>
+      <c r="H135" s="2"/>
       <c r="I135" s="4"/>
       <c r="J135" s="4"/>
       <c r="K135" s="4"/>
-    </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L135" s="4"/>
+    </row>
+    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>136</v>
       </c>
@@ -7141,12 +7304,13 @@
       </c>
       <c r="F136" s="2"/>
       <c r="G136" s="2"/>
-      <c r="H136" s="4"/>
+      <c r="H136" s="2"/>
       <c r="I136" s="4"/>
       <c r="J136" s="4"/>
       <c r="K136" s="4"/>
-    </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L136" s="4"/>
+    </row>
+    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>137</v>
       </c>
@@ -7161,11 +7325,12 @@
       </c>
       <c r="F137" s="2"/>
       <c r="G137" s="2"/>
-      <c r="H137" s="4"/>
+      <c r="H137" s="2"/>
       <c r="I137" s="4"/>
       <c r="J137" s="4"/>
-    </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K137" s="4"/>
+    </row>
+    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>138</v>
       </c>
@@ -7180,11 +7345,12 @@
       </c>
       <c r="F138" s="2"/>
       <c r="G138" s="2"/>
-      <c r="H138" s="4"/>
+      <c r="H138" s="2"/>
       <c r="I138" s="4"/>
       <c r="J138" s="4"/>
-    </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K138" s="4"/>
+    </row>
+    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>139</v>
       </c>
@@ -7202,14 +7368,15 @@
       </c>
       <c r="F139" s="2"/>
       <c r="G139" s="2"/>
-      <c r="H139" s="4"/>
-      <c r="I139" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="J139" s="4"/>
+      <c r="H139" s="2"/>
+      <c r="I139" s="4"/>
+      <c r="J139" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="K139" s="4"/>
-    </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L139" s="4"/>
+    </row>
+    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>140</v>
       </c>
@@ -7227,12 +7394,13 @@
       </c>
       <c r="F140" s="2"/>
       <c r="G140" s="2"/>
-      <c r="H140" s="4"/>
+      <c r="H140" s="2"/>
       <c r="I140" s="4"/>
       <c r="J140" s="4"/>
       <c r="K140" s="4"/>
-    </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L140" s="4"/>
+    </row>
+    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>141</v>
       </c>
@@ -7250,14 +7418,15 @@
       </c>
       <c r="F141" s="2"/>
       <c r="G141" s="2"/>
-      <c r="H141" s="4"/>
+      <c r="H141" s="2"/>
       <c r="I141" s="4"/>
       <c r="J141" s="4"/>
-      <c r="K141" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K141" s="4"/>
+      <c r="L141" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>142</v>
       </c>
@@ -7272,14 +7441,15 @@
       </c>
       <c r="F142" s="2"/>
       <c r="G142" s="2"/>
-      <c r="H142" s="4"/>
+      <c r="H142" s="2"/>
       <c r="I142" s="4"/>
       <c r="J142" s="4"/>
-      <c r="K142" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K142" s="4"/>
+      <c r="L142" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>143</v>
       </c>
@@ -7294,14 +7464,15 @@
       </c>
       <c r="F143" s="2"/>
       <c r="G143" s="2"/>
-      <c r="H143" s="4"/>
+      <c r="H143" s="2"/>
       <c r="I143" s="4"/>
       <c r="J143" s="4"/>
-      <c r="K143" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K143" s="4"/>
+      <c r="L143" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>144</v>
       </c>
@@ -7316,11 +7487,12 @@
       </c>
       <c r="F144" s="2"/>
       <c r="G144" s="2"/>
-      <c r="H144" s="4"/>
+      <c r="H144" s="2"/>
       <c r="I144" s="4"/>
       <c r="J144" s="4"/>
-    </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K144" s="4"/>
+    </row>
+    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>145</v>
       </c>
@@ -7335,11 +7507,12 @@
       </c>
       <c r="F145" s="2"/>
       <c r="G145" s="2"/>
-      <c r="H145" s="4"/>
+      <c r="H145" s="2"/>
       <c r="I145" s="4"/>
       <c r="J145" s="4"/>
-    </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K145" s="4"/>
+    </row>
+    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>146</v>
       </c>
@@ -7357,12 +7530,13 @@
       </c>
       <c r="F146" s="2"/>
       <c r="G146" s="2"/>
-      <c r="H146" s="4"/>
+      <c r="H146" s="2"/>
       <c r="I146" s="4"/>
       <c r="J146" s="4"/>
       <c r="K146" s="4"/>
-    </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L146" s="4"/>
+    </row>
+    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>147</v>
       </c>
@@ -7377,11 +7551,12 @@
       </c>
       <c r="F147" s="2"/>
       <c r="G147" s="2"/>
-      <c r="H147" s="4"/>
+      <c r="H147" s="2"/>
       <c r="I147" s="4"/>
       <c r="J147" s="4"/>
-    </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K147" s="4"/>
+    </row>
+    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>148</v>
       </c>
@@ -7399,12 +7574,13 @@
       </c>
       <c r="F148" s="2"/>
       <c r="G148" s="2"/>
-      <c r="H148" s="4"/>
+      <c r="H148" s="2"/>
       <c r="I148" s="4"/>
       <c r="J148" s="4"/>
       <c r="K148" s="4"/>
-    </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L148" s="4"/>
+    </row>
+    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>149</v>
       </c>
@@ -7422,12 +7598,13 @@
       </c>
       <c r="F149" s="2"/>
       <c r="G149" s="2"/>
-      <c r="H149" s="4"/>
+      <c r="H149" s="2"/>
       <c r="I149" s="4"/>
       <c r="J149" s="4"/>
       <c r="K149" s="4"/>
-    </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L149" s="4"/>
+    </row>
+    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>150</v>
       </c>
@@ -7445,14 +7622,15 @@
       </c>
       <c r="F150" s="2"/>
       <c r="G150" s="2"/>
-      <c r="H150" s="4"/>
+      <c r="H150" s="2"/>
       <c r="I150" s="4"/>
-      <c r="J150" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="K150" s="4"/>
-    </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J150" s="4"/>
+      <c r="K150" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L150" s="4"/>
+    </row>
+    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>151</v>
       </c>
@@ -7470,12 +7648,13 @@
       </c>
       <c r="F151" s="2"/>
       <c r="G151" s="2"/>
-      <c r="H151" s="4"/>
+      <c r="H151" s="2"/>
       <c r="I151" s="4"/>
       <c r="J151" s="4"/>
       <c r="K151" s="4"/>
-    </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L151" s="4"/>
+    </row>
+    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>152</v>
       </c>
@@ -7490,11 +7669,12 @@
       </c>
       <c r="F152" s="2"/>
       <c r="G152" s="2"/>
-      <c r="H152" s="4"/>
+      <c r="H152" s="2"/>
       <c r="I152" s="4"/>
       <c r="J152" s="4"/>
-    </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K152" s="4"/>
+    </row>
+    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>153</v>
       </c>
@@ -7512,12 +7692,13 @@
       </c>
       <c r="F153" s="2"/>
       <c r="G153" s="2"/>
-      <c r="H153" s="4"/>
+      <c r="H153" s="2"/>
       <c r="I153" s="4"/>
       <c r="J153" s="4"/>
       <c r="K153" s="4"/>
-    </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L153" s="4"/>
+    </row>
+    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>154</v>
       </c>
@@ -7535,14 +7716,15 @@
       </c>
       <c r="F154" s="2"/>
       <c r="G154" s="2"/>
-      <c r="H154" s="4"/>
-      <c r="I154" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="J154" s="4"/>
+      <c r="H154" s="2"/>
+      <c r="I154" s="4"/>
+      <c r="J154" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="K154" s="4"/>
-    </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L154" s="4"/>
+    </row>
+    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>155</v>
       </c>
@@ -7560,14 +7742,15 @@
       </c>
       <c r="F155" s="2"/>
       <c r="G155" s="2"/>
-      <c r="H155" s="4"/>
+      <c r="H155" s="2"/>
       <c r="I155" s="4"/>
       <c r="J155" s="4"/>
-      <c r="K155" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K155" s="4"/>
+      <c r="L155" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>156</v>
       </c>
@@ -7585,12 +7768,13 @@
       </c>
       <c r="F156" s="2"/>
       <c r="G156" s="2"/>
-      <c r="H156" s="4"/>
+      <c r="H156" s="2"/>
       <c r="I156" s="4"/>
       <c r="J156" s="4"/>
       <c r="K156" s="4"/>
-    </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L156" s="4"/>
+    </row>
+    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>157</v>
       </c>
@@ -7608,12 +7792,13 @@
       </c>
       <c r="F157" s="2"/>
       <c r="G157" s="2"/>
-      <c r="H157" s="4"/>
+      <c r="H157" s="2"/>
       <c r="I157" s="4"/>
       <c r="J157" s="4"/>
       <c r="K157" s="4"/>
-    </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L157" s="4"/>
+    </row>
+    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>158</v>
       </c>
@@ -7631,12 +7816,13 @@
       </c>
       <c r="F158" s="2"/>
       <c r="G158" s="2"/>
-      <c r="H158" s="4"/>
+      <c r="H158" s="2"/>
       <c r="I158" s="4"/>
       <c r="J158" s="4"/>
       <c r="K158" s="4"/>
-    </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L158" s="4"/>
+    </row>
+    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>159</v>
       </c>
@@ -7654,14 +7840,15 @@
       </c>
       <c r="F159" s="2"/>
       <c r="G159" s="2"/>
-      <c r="H159" s="4"/>
+      <c r="H159" s="2"/>
       <c r="I159" s="4"/>
       <c r="J159" s="4"/>
-      <c r="K159" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K159" s="4"/>
+      <c r="L159" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>160</v>
       </c>
@@ -7676,18 +7863,19 @@
       </c>
       <c r="F160" s="2"/>
       <c r="G160" s="2"/>
-      <c r="H160" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I160" s="4"/>
-      <c r="J160" s="4" t="s">
-        <v>18</v>
-      </c>
+      <c r="H160" s="2"/>
+      <c r="I160" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J160" s="4"/>
       <c r="K160" s="4" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L160" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>161</v>
       </c>
@@ -7705,12 +7893,13 @@
       </c>
       <c r="F161" s="2"/>
       <c r="G161" s="2"/>
-      <c r="H161" s="4"/>
+      <c r="H161" s="2"/>
       <c r="I161" s="4"/>
       <c r="J161" s="4"/>
       <c r="K161" s="4"/>
-    </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L161" s="4"/>
+    </row>
+    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>162</v>
       </c>
@@ -7725,11 +7914,12 @@
       </c>
       <c r="F162" s="2"/>
       <c r="G162" s="2"/>
-      <c r="H162" s="4"/>
+      <c r="H162" s="2"/>
       <c r="I162" s="4"/>
       <c r="J162" s="4"/>
-    </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K162" s="4"/>
+    </row>
+    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>163</v>
       </c>
@@ -7744,11 +7934,12 @@
       </c>
       <c r="F163" s="2"/>
       <c r="G163" s="2"/>
-      <c r="H163" s="4"/>
+      <c r="H163" s="2"/>
       <c r="I163" s="4"/>
       <c r="J163" s="4"/>
-    </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K163" s="4"/>
+    </row>
+    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>164</v>
       </c>
@@ -7766,14 +7957,15 @@
       </c>
       <c r="F164" s="2"/>
       <c r="G164" s="2"/>
-      <c r="H164" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I164" s="4"/>
+      <c r="H164" s="2"/>
+      <c r="I164" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="J164" s="4"/>
       <c r="K164" s="4"/>
-    </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L164" s="4"/>
+    </row>
+    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>165</v>
       </c>
@@ -7788,14 +7980,15 @@
       </c>
       <c r="F165" s="2"/>
       <c r="G165" s="2"/>
-      <c r="H165" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I165" s="4"/>
+      <c r="H165" s="2"/>
+      <c r="I165" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="J165" s="4"/>
       <c r="K165" s="4"/>
-    </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L165" s="4"/>
+    </row>
+    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>166</v>
       </c>
@@ -7813,12 +8006,13 @@
       </c>
       <c r="F166" s="2"/>
       <c r="G166" s="2"/>
-      <c r="H166" s="4"/>
+      <c r="H166" s="2"/>
       <c r="I166" s="4"/>
       <c r="J166" s="4"/>
       <c r="K166" s="4"/>
-    </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L166" s="4"/>
+    </row>
+    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>167</v>
       </c>
@@ -7836,14 +8030,15 @@
       </c>
       <c r="F167" s="2"/>
       <c r="G167" s="2"/>
-      <c r="H167" s="4"/>
-      <c r="I167" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="J167" s="4"/>
+      <c r="H167" s="2"/>
+      <c r="I167" s="4"/>
+      <c r="J167" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="K167" s="4"/>
-    </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L167" s="4"/>
+    </row>
+    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>168</v>
       </c>
@@ -7858,14 +8053,15 @@
       </c>
       <c r="F168" s="2"/>
       <c r="G168" s="2"/>
-      <c r="H168" s="4"/>
+      <c r="H168" s="2"/>
       <c r="I168" s="4"/>
-      <c r="J168" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="K168" s="4"/>
-    </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J168" s="4"/>
+      <c r="K168" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L168" s="4"/>
+    </row>
+    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>169</v>
       </c>
@@ -7880,11 +8076,12 @@
       </c>
       <c r="F169" s="2"/>
       <c r="G169" s="2"/>
-      <c r="H169" s="4"/>
+      <c r="H169" s="2"/>
       <c r="I169" s="4"/>
       <c r="J169" s="4"/>
-    </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K169" s="4"/>
+    </row>
+    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>170</v>
       </c>
@@ -7902,16 +8099,17 @@
       </c>
       <c r="F170" s="2"/>
       <c r="G170" s="2"/>
-      <c r="H170" s="4"/>
-      <c r="I170" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="J170" s="4"/>
-      <c r="K170" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H170" s="2"/>
+      <c r="I170" s="4"/>
+      <c r="J170" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K170" s="4"/>
+      <c r="L170" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>171</v>
       </c>
@@ -7929,14 +8127,15 @@
       </c>
       <c r="F171" s="2"/>
       <c r="G171" s="2"/>
-      <c r="H171" s="4"/>
-      <c r="I171" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="J171" s="4"/>
+      <c r="H171" s="2"/>
+      <c r="I171" s="4"/>
+      <c r="J171" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="K171" s="4"/>
-    </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L171" s="4"/>
+    </row>
+    <row r="172" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>172</v>
       </c>
@@ -7954,12 +8153,13 @@
       </c>
       <c r="F172" s="2"/>
       <c r="G172" s="2"/>
-      <c r="H172" s="4"/>
+      <c r="H172" s="2"/>
       <c r="I172" s="4"/>
       <c r="J172" s="4"/>
       <c r="K172" s="4"/>
-    </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L172" s="4"/>
+    </row>
+    <row r="173" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>173</v>
       </c>
@@ -7974,11 +8174,12 @@
       </c>
       <c r="F173" s="2"/>
       <c r="G173" s="2"/>
-      <c r="H173" s="4"/>
+      <c r="H173" s="2"/>
       <c r="I173" s="4"/>
       <c r="J173" s="4"/>
-    </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K173" s="4"/>
+    </row>
+    <row r="174" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>174</v>
       </c>
@@ -7996,16 +8197,17 @@
       </c>
       <c r="F174" s="2"/>
       <c r="G174" s="2"/>
-      <c r="H174" s="4"/>
-      <c r="I174" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="J174" s="4"/>
-      <c r="K174" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H174" s="2"/>
+      <c r="I174" s="4"/>
+      <c r="J174" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K174" s="4"/>
+      <c r="L174" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="175" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
         <v>175</v>
       </c>
@@ -8023,14 +8225,15 @@
       </c>
       <c r="F175" s="2"/>
       <c r="G175" s="2"/>
-      <c r="H175" s="4"/>
-      <c r="I175" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="J175" s="4"/>
+      <c r="H175" s="2"/>
+      <c r="I175" s="4"/>
+      <c r="J175" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="K175" s="4"/>
-    </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L175" s="4"/>
+    </row>
+    <row r="176" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <v>176</v>
       </c>
@@ -8048,14 +8251,15 @@
       </c>
       <c r="F176" s="2"/>
       <c r="G176" s="2"/>
-      <c r="H176" s="4"/>
-      <c r="I176" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="J176" s="4"/>
+      <c r="H176" s="2"/>
+      <c r="I176" s="4"/>
+      <c r="J176" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="K176" s="4"/>
-    </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L176" s="4"/>
+    </row>
+    <row r="177" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
         <v>177</v>
       </c>
@@ -8070,14 +8274,15 @@
       </c>
       <c r="F177" s="2"/>
       <c r="G177" s="2"/>
-      <c r="H177" s="4"/>
-      <c r="I177" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="J177" s="4"/>
+      <c r="H177" s="2"/>
+      <c r="I177" s="4"/>
+      <c r="J177" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="K177" s="4"/>
-    </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L177" s="4"/>
+    </row>
+    <row r="178" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
         <v>178</v>
       </c>
@@ -8092,14 +8297,15 @@
       </c>
       <c r="F178" s="2"/>
       <c r="G178" s="2"/>
-      <c r="H178" s="4"/>
-      <c r="I178" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="J178" s="4"/>
+      <c r="H178" s="2"/>
+      <c r="I178" s="4"/>
+      <c r="J178" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="K178" s="4"/>
-    </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L178" s="4"/>
+    </row>
+    <row r="179" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
         <v>179</v>
       </c>
@@ -8117,14 +8323,15 @@
       </c>
       <c r="F179" s="2"/>
       <c r="G179" s="2"/>
-      <c r="H179" s="4"/>
-      <c r="I179" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="J179" s="4"/>
+      <c r="H179" s="2"/>
+      <c r="I179" s="4"/>
+      <c r="J179" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="K179" s="4"/>
-    </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L179" s="4"/>
+    </row>
+    <row r="180" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
         <v>180</v>
       </c>
@@ -8142,14 +8349,15 @@
       </c>
       <c r="F180" s="2"/>
       <c r="G180" s="2"/>
-      <c r="H180" s="4"/>
-      <c r="I180" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="J180" s="4"/>
+      <c r="H180" s="2"/>
+      <c r="I180" s="4"/>
+      <c r="J180" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="K180" s="4"/>
-    </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L180" s="4"/>
+    </row>
+    <row r="181" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
         <v>181</v>
       </c>
@@ -8167,14 +8375,15 @@
       </c>
       <c r="F181" s="2"/>
       <c r="G181" s="2"/>
-      <c r="H181" s="4"/>
-      <c r="I181" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="J181" s="4"/>
+      <c r="H181" s="2"/>
+      <c r="I181" s="4"/>
+      <c r="J181" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="K181" s="4"/>
-    </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L181" s="4"/>
+    </row>
+    <row r="182" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
         <v>182</v>
       </c>
@@ -8192,12 +8401,13 @@
       </c>
       <c r="F182" s="2"/>
       <c r="G182" s="2"/>
-      <c r="H182" s="4"/>
+      <c r="H182" s="2"/>
       <c r="I182" s="4"/>
       <c r="J182" s="4"/>
       <c r="K182" s="4"/>
-    </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L182" s="4"/>
+    </row>
+    <row r="183" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
         <v>183</v>
       </c>
@@ -8215,12 +8425,13 @@
       </c>
       <c r="F183" s="2"/>
       <c r="G183" s="2"/>
-      <c r="H183" s="4"/>
+      <c r="H183" s="2"/>
       <c r="I183" s="4"/>
       <c r="J183" s="4"/>
       <c r="K183" s="4"/>
-    </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L183" s="4"/>
+    </row>
+    <row r="184" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
         <v>184</v>
       </c>
@@ -8238,14 +8449,15 @@
       </c>
       <c r="F184" s="2"/>
       <c r="G184" s="2"/>
-      <c r="H184" s="4"/>
+      <c r="H184" s="2"/>
       <c r="I184" s="4"/>
       <c r="J184" s="4"/>
-      <c r="K184" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K184" s="4"/>
+      <c r="L184" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="185" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
         <v>185</v>
       </c>
@@ -8260,14 +8472,15 @@
       </c>
       <c r="F185" s="2"/>
       <c r="G185" s="2"/>
-      <c r="H185" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I185" s="4"/>
+      <c r="H185" s="2"/>
+      <c r="I185" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="J185" s="4"/>
       <c r="K185" s="4"/>
-    </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L185" s="4"/>
+    </row>
+    <row r="186" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
         <v>186</v>
       </c>
@@ -8285,14 +8498,15 @@
       </c>
       <c r="F186" s="2"/>
       <c r="G186" s="2"/>
-      <c r="H186" s="4"/>
+      <c r="H186" s="2"/>
       <c r="I186" s="4"/>
-      <c r="J186" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="K186" s="4"/>
-    </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J186" s="4"/>
+      <c r="K186" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L186" s="4"/>
+    </row>
+    <row r="187" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
         <v>187</v>
       </c>
@@ -8310,14 +8524,15 @@
       </c>
       <c r="F187" s="2"/>
       <c r="G187" s="2"/>
-      <c r="H187" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I187" s="4"/>
+      <c r="H187" s="2"/>
+      <c r="I187" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="J187" s="4"/>
       <c r="K187" s="4"/>
-    </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L187" s="4"/>
+    </row>
+    <row r="188" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
         <v>188</v>
       </c>
@@ -8335,12 +8550,13 @@
       </c>
       <c r="F188" s="2"/>
       <c r="G188" s="2"/>
-      <c r="H188" s="4"/>
+      <c r="H188" s="2"/>
       <c r="I188" s="4"/>
       <c r="J188" s="4"/>
       <c r="K188" s="4"/>
-    </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L188" s="4"/>
+    </row>
+    <row r="189" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
         <v>189</v>
       </c>
@@ -8358,12 +8574,13 @@
       </c>
       <c r="F189" s="2"/>
       <c r="G189" s="2"/>
-      <c r="H189" s="4"/>
+      <c r="H189" s="2"/>
       <c r="I189" s="4"/>
       <c r="J189" s="4"/>
       <c r="K189" s="4"/>
-    </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L189" s="4"/>
+    </row>
+    <row r="190" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
         <v>190</v>
       </c>
@@ -8381,12 +8598,13 @@
       </c>
       <c r="F190" s="2"/>
       <c r="G190" s="2"/>
-      <c r="H190" s="4"/>
+      <c r="H190" s="2"/>
       <c r="I190" s="4"/>
       <c r="J190" s="4"/>
       <c r="K190" s="4"/>
-    </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L190" s="4"/>
+    </row>
+    <row r="191" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
         <v>191</v>
       </c>
@@ -8404,14 +8622,15 @@
       </c>
       <c r="F191" s="2"/>
       <c r="G191" s="2"/>
-      <c r="H191" s="4"/>
+      <c r="H191" s="2"/>
       <c r="I191" s="4"/>
       <c r="J191" s="4"/>
-      <c r="K191" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K191" s="4"/>
+      <c r="L191" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="192" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
         <v>192</v>
       </c>
@@ -8429,14 +8648,15 @@
       </c>
       <c r="F192" s="2"/>
       <c r="G192" s="2"/>
-      <c r="H192" s="4"/>
+      <c r="H192" s="2"/>
       <c r="I192" s="4"/>
       <c r="J192" s="4"/>
-      <c r="K192" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K192" s="4"/>
+      <c r="L192" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="193" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
         <v>193</v>
       </c>
@@ -8454,12 +8674,13 @@
       </c>
       <c r="F193" s="2"/>
       <c r="G193" s="2"/>
-      <c r="H193" s="4"/>
+      <c r="H193" s="2"/>
       <c r="I193" s="4"/>
       <c r="J193" s="4"/>
       <c r="K193" s="4"/>
-    </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L193" s="4"/>
+    </row>
+    <row r="194" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
         <v>194</v>
       </c>
@@ -8477,16 +8698,17 @@
       </c>
       <c r="F194" s="2"/>
       <c r="G194" s="2"/>
-      <c r="H194" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I194" s="4"/>
+      <c r="H194" s="2"/>
+      <c r="I194" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="J194" s="4"/>
-      <c r="K194" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K194" s="4"/>
+      <c r="L194" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="195" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
         <v>195</v>
       </c>
@@ -8501,14 +8723,15 @@
       </c>
       <c r="F195" s="2"/>
       <c r="G195" s="2"/>
-      <c r="H195" s="4"/>
+      <c r="H195" s="2"/>
       <c r="I195" s="4"/>
       <c r="J195" s="4"/>
-      <c r="K195" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K195" s="4"/>
+      <c r="L195" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="196" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
         <v>196</v>
       </c>
@@ -8523,14 +8746,15 @@
       </c>
       <c r="F196" s="2"/>
       <c r="G196" s="2"/>
-      <c r="H196" s="4"/>
+      <c r="H196" s="2"/>
       <c r="I196" s="4"/>
       <c r="J196" s="4"/>
-      <c r="K196" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K196" s="4"/>
+      <c r="L196" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="197" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
         <v>197</v>
       </c>
@@ -8545,16 +8769,17 @@
       </c>
       <c r="F197" s="2"/>
       <c r="G197" s="2"/>
-      <c r="H197" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I197" s="4"/>
+      <c r="H197" s="2"/>
+      <c r="I197" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="J197" s="4"/>
-      <c r="K197" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K197" s="4"/>
+      <c r="L197" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="198" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
         <v>198</v>
       </c>
@@ -8572,16 +8797,17 @@
       </c>
       <c r="F198" s="2"/>
       <c r="G198" s="2"/>
-      <c r="H198" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I198" s="4"/>
+      <c r="H198" s="2"/>
+      <c r="I198" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="J198" s="4"/>
-      <c r="K198" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K198" s="4"/>
+      <c r="L198" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="199" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
         <v>199</v>
       </c>
@@ -8599,16 +8825,17 @@
       </c>
       <c r="F199" s="2"/>
       <c r="G199" s="2"/>
-      <c r="H199" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I199" s="4"/>
+      <c r="H199" s="2"/>
+      <c r="I199" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="J199" s="4"/>
-      <c r="K199" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K199" s="4"/>
+      <c r="L199" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="200" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
         <v>200</v>
       </c>
@@ -8626,16 +8853,17 @@
       </c>
       <c r="F200" s="2"/>
       <c r="G200" s="2"/>
-      <c r="H200" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I200" s="4"/>
+      <c r="H200" s="2"/>
+      <c r="I200" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="J200" s="4"/>
-      <c r="K200" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K200" s="4"/>
+      <c r="L200" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="201" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
         <v>201</v>
       </c>
@@ -8653,14 +8881,15 @@
       </c>
       <c r="F201" s="2"/>
       <c r="G201" s="2"/>
-      <c r="H201" s="4"/>
+      <c r="H201" s="2"/>
       <c r="I201" s="4"/>
       <c r="J201" s="4"/>
-      <c r="K201" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K201" s="4"/>
+      <c r="L201" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="202" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
         <v>202</v>
       </c>
@@ -8678,16 +8907,17 @@
       </c>
       <c r="F202" s="2"/>
       <c r="G202" s="2"/>
-      <c r="H202" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I202" s="4"/>
+      <c r="H202" s="2"/>
+      <c r="I202" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="J202" s="4"/>
-      <c r="K202" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K202" s="4"/>
+      <c r="L202" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="203" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
         <v>203</v>
       </c>
@@ -8705,16 +8935,17 @@
       </c>
       <c r="F203" s="2"/>
       <c r="G203" s="2"/>
-      <c r="H203" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I203" s="4"/>
+      <c r="H203" s="2"/>
+      <c r="I203" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="J203" s="4"/>
-      <c r="K203" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K203" s="4"/>
+      <c r="L203" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="204" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
         <v>204</v>
       </c>
@@ -8729,16 +8960,17 @@
       </c>
       <c r="F204" s="2"/>
       <c r="G204" s="2"/>
-      <c r="H204" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I204" s="4"/>
+      <c r="H204" s="2"/>
+      <c r="I204" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="J204" s="4"/>
-      <c r="K204" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K204" s="4"/>
+      <c r="L204" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="205" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
         <v>205</v>
       </c>
@@ -8756,16 +8988,17 @@
       </c>
       <c r="F205" s="2"/>
       <c r="G205" s="2"/>
-      <c r="H205" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I205" s="4"/>
+      <c r="H205" s="2"/>
+      <c r="I205" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="J205" s="4"/>
-      <c r="K205" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K205" s="4"/>
+      <c r="L205" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="206" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
         <v>206</v>
       </c>
@@ -8783,16 +9016,17 @@
       </c>
       <c r="F206" s="2"/>
       <c r="G206" s="2"/>
-      <c r="H206" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I206" s="4"/>
+      <c r="H206" s="2"/>
+      <c r="I206" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="J206" s="4"/>
-      <c r="K206" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K206" s="4"/>
+      <c r="L206" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="207" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
         <v>207</v>
       </c>
@@ -8810,16 +9044,17 @@
       </c>
       <c r="F207" s="2"/>
       <c r="G207" s="2"/>
-      <c r="H207" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I207" s="4"/>
+      <c r="H207" s="2"/>
+      <c r="I207" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="J207" s="4"/>
-      <c r="K207" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K207" s="4"/>
+      <c r="L207" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="208" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
         <v>208</v>
       </c>
@@ -8837,14 +9072,15 @@
       </c>
       <c r="F208" s="2"/>
       <c r="G208" s="2"/>
-      <c r="H208" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I208" s="4"/>
+      <c r="H208" s="2"/>
+      <c r="I208" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="J208" s="4"/>
       <c r="K208" s="4"/>
-    </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L208" s="4"/>
+    </row>
+    <row r="209" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
         <v>209</v>
       </c>
@@ -8862,16 +9098,17 @@
       </c>
       <c r="F209" s="2"/>
       <c r="G209" s="2"/>
-      <c r="H209" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I209" s="4"/>
+      <c r="H209" s="2"/>
+      <c r="I209" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="J209" s="4"/>
-      <c r="K209" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K209" s="4"/>
+      <c r="L209" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="210" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
         <v>210</v>
       </c>
@@ -8889,16 +9126,17 @@
       </c>
       <c r="F210" s="2"/>
       <c r="G210" s="2"/>
-      <c r="H210" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I210" s="4"/>
+      <c r="H210" s="2"/>
+      <c r="I210" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="J210" s="4"/>
-      <c r="K210" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K210" s="4"/>
+      <c r="L210" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="211" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
         <v>211</v>
       </c>
@@ -8916,16 +9154,17 @@
       </c>
       <c r="F211" s="2"/>
       <c r="G211" s="2"/>
-      <c r="H211" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I211" s="4"/>
+      <c r="H211" s="2"/>
+      <c r="I211" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="J211" s="4"/>
-      <c r="K211" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K211" s="4"/>
+      <c r="L211" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="212" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
         <v>212</v>
       </c>
@@ -8943,16 +9182,17 @@
       </c>
       <c r="F212" s="2"/>
       <c r="G212" s="2"/>
-      <c r="H212" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I212" s="4"/>
+      <c r="H212" s="2"/>
+      <c r="I212" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="J212" s="4"/>
-      <c r="K212" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K212" s="4"/>
+      <c r="L212" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="213" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
         <v>213</v>
       </c>
@@ -8970,14 +9210,15 @@
       </c>
       <c r="F213" s="2"/>
       <c r="G213" s="2"/>
-      <c r="H213" s="4"/>
+      <c r="H213" s="2"/>
       <c r="I213" s="4"/>
       <c r="J213" s="4"/>
-      <c r="K213" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K213" s="4"/>
+      <c r="L213" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="214" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
         <v>214</v>
       </c>
@@ -8992,11 +9233,12 @@
       </c>
       <c r="F214" s="2"/>
       <c r="G214" s="2"/>
-      <c r="H214" s="4"/>
+      <c r="H214" s="2"/>
       <c r="I214" s="4"/>
       <c r="J214" s="4"/>
-    </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K214" s="4"/>
+    </row>
+    <row r="215" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
         <v>215</v>
       </c>
@@ -9014,14 +9256,15 @@
       </c>
       <c r="F215" s="2"/>
       <c r="G215" s="2"/>
-      <c r="H215" s="4"/>
-      <c r="I215" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="J215" s="4"/>
+      <c r="H215" s="2"/>
+      <c r="I215" s="4"/>
+      <c r="J215" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="K215" s="4"/>
-    </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L215" s="4"/>
+    </row>
+    <row r="216" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
         <v>216</v>
       </c>
@@ -9039,16 +9282,17 @@
       </c>
       <c r="F216" s="2"/>
       <c r="G216" s="2"/>
-      <c r="H216" s="4"/>
-      <c r="I216" s="4" t="s">
-        <v>18</v>
-      </c>
+      <c r="H216" s="2"/>
+      <c r="I216" s="4"/>
       <c r="J216" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="K216" s="4"/>
-    </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K216" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L216" s="4"/>
+    </row>
+    <row r="217" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
         <v>217</v>
       </c>
@@ -9063,14 +9307,15 @@
       </c>
       <c r="F217" s="2"/>
       <c r="G217" s="2"/>
-      <c r="H217" s="4"/>
+      <c r="H217" s="2"/>
       <c r="I217" s="4"/>
-      <c r="J217" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="K217" s="4"/>
-    </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J217" s="4"/>
+      <c r="K217" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L217" s="4"/>
+    </row>
+    <row r="218" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
         <v>218</v>
       </c>
@@ -9088,12 +9333,13 @@
       </c>
       <c r="F218" s="2"/>
       <c r="G218" s="2"/>
-      <c r="H218" s="4"/>
+      <c r="H218" s="2"/>
       <c r="I218" s="4"/>
       <c r="J218" s="4"/>
       <c r="K218" s="4"/>
-    </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L218" s="4"/>
+    </row>
+    <row r="219" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
         <v>219</v>
       </c>
@@ -9111,12 +9357,13 @@
       </c>
       <c r="F219" s="2"/>
       <c r="G219" s="2"/>
-      <c r="H219" s="4"/>
+      <c r="H219" s="2"/>
       <c r="I219" s="4"/>
       <c r="J219" s="4"/>
       <c r="K219" s="4"/>
-    </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L219" s="4"/>
+    </row>
+    <row r="220" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
         <v>220</v>
       </c>
@@ -9134,14 +9381,15 @@
       </c>
       <c r="F220" s="2"/>
       <c r="G220" s="2"/>
-      <c r="H220" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I220" s="4"/>
+      <c r="H220" s="2"/>
+      <c r="I220" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="J220" s="4"/>
       <c r="K220" s="4"/>
-    </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L220" s="4"/>
+    </row>
+    <row r="221" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
         <v>221</v>
       </c>
@@ -9156,14 +9404,15 @@
       </c>
       <c r="F221" s="2"/>
       <c r="G221" s="2"/>
-      <c r="H221" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I221" s="4"/>
+      <c r="H221" s="2"/>
+      <c r="I221" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="J221" s="4"/>
       <c r="K221" s="4"/>
-    </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L221" s="4"/>
+    </row>
+    <row r="222" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
         <v>222</v>
       </c>
@@ -9178,11 +9427,12 @@
       </c>
       <c r="F222" s="2"/>
       <c r="G222" s="2"/>
-      <c r="H222" s="4"/>
+      <c r="H222" s="2"/>
       <c r="I222" s="4"/>
       <c r="J222" s="4"/>
-    </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K222" s="4"/>
+    </row>
+    <row r="223" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
         <v>223</v>
       </c>
@@ -9200,14 +9450,15 @@
       </c>
       <c r="F223" s="2"/>
       <c r="G223" s="2"/>
-      <c r="H223" s="4"/>
+      <c r="H223" s="2"/>
       <c r="I223" s="4"/>
       <c r="J223" s="4"/>
-      <c r="K223" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K223" s="4"/>
+      <c r="L223" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="224" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A224" s="1">
         <v>224</v>
       </c>
@@ -9222,14 +9473,15 @@
       </c>
       <c r="F224" s="2"/>
       <c r="G224" s="2"/>
-      <c r="H224" s="4"/>
+      <c r="H224" s="2"/>
       <c r="I224" s="4"/>
       <c r="J224" s="4"/>
-      <c r="K224" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K224" s="4"/>
+      <c r="L224" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="225" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A225" s="1">
         <v>225</v>
       </c>
@@ -9247,12 +9499,13 @@
       </c>
       <c r="F225" s="2"/>
       <c r="G225" s="2"/>
-      <c r="H225" s="4"/>
+      <c r="H225" s="2"/>
       <c r="I225" s="4"/>
       <c r="J225" s="4"/>
       <c r="K225" s="4"/>
-    </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L225" s="4"/>
+    </row>
+    <row r="226" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A226" s="1">
         <v>226</v>
       </c>
@@ -9270,12 +9523,13 @@
       </c>
       <c r="F226" s="2"/>
       <c r="G226" s="2"/>
-      <c r="H226" s="4"/>
+      <c r="H226" s="2"/>
       <c r="I226" s="4"/>
       <c r="J226" s="4"/>
       <c r="K226" s="4"/>
-    </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L226" s="4"/>
+    </row>
+    <row r="227" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A227" s="1">
         <v>227</v>
       </c>
@@ -9293,12 +9547,13 @@
       </c>
       <c r="F227" s="2"/>
       <c r="G227" s="2"/>
-      <c r="H227" s="4"/>
+      <c r="H227" s="2"/>
       <c r="I227" s="4"/>
       <c r="J227" s="4"/>
       <c r="K227" s="4"/>
-    </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L227" s="4"/>
+    </row>
+    <row r="228" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A228" s="1">
         <v>228</v>
       </c>
@@ -9316,14 +9571,15 @@
       </c>
       <c r="F228" s="2"/>
       <c r="G228" s="2"/>
-      <c r="H228" s="4"/>
+      <c r="H228" s="2"/>
       <c r="I228" s="4"/>
-      <c r="J228" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="K228" s="4"/>
-    </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J228" s="4"/>
+      <c r="K228" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L228" s="4"/>
+    </row>
+    <row r="229" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A229" s="1">
         <v>229</v>
       </c>
@@ -9341,12 +9597,13 @@
       </c>
       <c r="F229" s="2"/>
       <c r="G229" s="2"/>
-      <c r="H229" s="4"/>
+      <c r="H229" s="2"/>
       <c r="I229" s="4"/>
       <c r="J229" s="4"/>
       <c r="K229" s="4"/>
-    </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L229" s="4"/>
+    </row>
+    <row r="230" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A230" s="1">
         <v>230</v>
       </c>
@@ -9361,14 +9618,15 @@
       </c>
       <c r="F230" s="2"/>
       <c r="G230" s="2"/>
-      <c r="H230" s="4"/>
+      <c r="H230" s="2"/>
       <c r="I230" s="4"/>
-      <c r="J230" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="K230" s="4"/>
-    </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J230" s="4"/>
+      <c r="K230" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L230" s="4"/>
+    </row>
+    <row r="231" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A231" s="1">
         <v>231</v>
       </c>
@@ -9386,12 +9644,13 @@
       </c>
       <c r="F231" s="2"/>
       <c r="G231" s="2"/>
-      <c r="H231" s="4"/>
+      <c r="H231" s="2"/>
       <c r="I231" s="4"/>
       <c r="J231" s="4"/>
       <c r="K231" s="4"/>
-    </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L231" s="4"/>
+    </row>
+    <row r="232" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A232" s="1">
         <v>232</v>
       </c>
@@ -9409,12 +9668,13 @@
       </c>
       <c r="F232" s="2"/>
       <c r="G232" s="2"/>
-      <c r="H232" s="4"/>
+      <c r="H232" s="2"/>
       <c r="I232" s="4"/>
       <c r="J232" s="4"/>
       <c r="K232" s="4"/>
-    </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L232" s="4"/>
+    </row>
+    <row r="233" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A233" s="1">
         <v>233</v>
       </c>
@@ -9429,11 +9689,12 @@
       </c>
       <c r="F233" s="2"/>
       <c r="G233" s="2"/>
-      <c r="H233" s="4"/>
+      <c r="H233" s="2"/>
       <c r="I233" s="4"/>
       <c r="J233" s="4"/>
-    </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K233" s="4"/>
+    </row>
+    <row r="234" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A234" s="1">
         <v>234</v>
       </c>
@@ -9451,12 +9712,13 @@
       </c>
       <c r="F234" s="2"/>
       <c r="G234" s="2"/>
-      <c r="H234" s="4"/>
+      <c r="H234" s="2"/>
       <c r="I234" s="4"/>
       <c r="J234" s="4"/>
       <c r="K234" s="4"/>
-    </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L234" s="4"/>
+    </row>
+    <row r="235" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A235" s="1">
         <v>235</v>
       </c>
@@ -9474,12 +9736,13 @@
       </c>
       <c r="F235" s="2"/>
       <c r="G235" s="2"/>
-      <c r="H235" s="4"/>
+      <c r="H235" s="2"/>
       <c r="I235" s="4"/>
       <c r="J235" s="4"/>
       <c r="K235" s="4"/>
-    </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L235" s="4"/>
+    </row>
+    <row r="236" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A236" s="1">
         <v>236</v>
       </c>
@@ -9497,12 +9760,13 @@
       </c>
       <c r="F236" s="2"/>
       <c r="G236" s="2"/>
-      <c r="H236" s="4"/>
+      <c r="H236" s="2"/>
       <c r="I236" s="4"/>
       <c r="J236" s="4"/>
       <c r="K236" s="4"/>
-    </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L236" s="4"/>
+    </row>
+    <row r="237" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A237" s="1">
         <v>237</v>
       </c>
@@ -9520,14 +9784,15 @@
       </c>
       <c r="F237" s="2"/>
       <c r="G237" s="2"/>
-      <c r="H237" s="4"/>
+      <c r="H237" s="2"/>
       <c r="I237" s="4"/>
-      <c r="J237" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="K237" s="4"/>
-    </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J237" s="4"/>
+      <c r="K237" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L237" s="4"/>
+    </row>
+    <row r="238" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A238" s="1">
         <v>238</v>
       </c>
@@ -9545,12 +9810,13 @@
       </c>
       <c r="F238" s="2"/>
       <c r="G238" s="2"/>
-      <c r="H238" s="4"/>
+      <c r="H238" s="2"/>
       <c r="I238" s="4"/>
       <c r="J238" s="4"/>
       <c r="K238" s="4"/>
-    </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L238" s="4"/>
+    </row>
+    <row r="239" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A239" s="1">
         <v>239</v>
       </c>
@@ -9568,14 +9834,15 @@
       </c>
       <c r="F239" s="2"/>
       <c r="G239" s="2"/>
-      <c r="H239" s="4"/>
+      <c r="H239" s="2"/>
       <c r="I239" s="4"/>
       <c r="J239" s="4"/>
-      <c r="K239" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K239" s="4"/>
+      <c r="L239" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="240" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A240" s="1">
         <v>240</v>
       </c>
@@ -9593,14 +9860,15 @@
       </c>
       <c r="F240" s="2"/>
       <c r="G240" s="2"/>
-      <c r="H240" s="4"/>
-      <c r="I240" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="J240" s="4"/>
+      <c r="H240" s="2"/>
+      <c r="I240" s="4"/>
+      <c r="J240" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="K240" s="4"/>
-    </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L240" s="4"/>
+    </row>
+    <row r="241" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A241" s="1">
         <v>241</v>
       </c>
@@ -9618,14 +9886,15 @@
       </c>
       <c r="F241" s="2"/>
       <c r="G241" s="2"/>
-      <c r="H241" s="4"/>
-      <c r="I241" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="J241" s="4"/>
+      <c r="H241" s="2"/>
+      <c r="I241" s="4"/>
+      <c r="J241" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="K241" s="4"/>
-    </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L241" s="4"/>
+    </row>
+    <row r="242" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A242" s="1">
         <v>242</v>
       </c>
@@ -9640,14 +9909,15 @@
       </c>
       <c r="F242" s="2"/>
       <c r="G242" s="2"/>
-      <c r="H242" s="4"/>
+      <c r="H242" s="2"/>
       <c r="I242" s="4"/>
       <c r="J242" s="4"/>
-      <c r="K242" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K242" s="4"/>
+      <c r="L242" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="243" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A243" s="1">
         <v>243</v>
       </c>
@@ -9662,16 +9932,17 @@
       </c>
       <c r="F243" s="2"/>
       <c r="G243" s="2"/>
-      <c r="H243" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I243" s="4"/>
+      <c r="H243" s="2"/>
+      <c r="I243" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="J243" s="4"/>
-      <c r="K243" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K243" s="4"/>
+      <c r="L243" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="244" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A244" s="1">
         <v>244</v>
       </c>
@@ -9686,16 +9957,17 @@
       </c>
       <c r="F244" s="2"/>
       <c r="G244" s="2"/>
-      <c r="H244" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I244" s="4"/>
+      <c r="H244" s="2"/>
+      <c r="I244" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="J244" s="4"/>
-      <c r="K244" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K244" s="4"/>
+      <c r="L244" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="245" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A245" s="1">
         <v>245</v>
       </c>
@@ -9713,16 +9985,17 @@
       </c>
       <c r="F245" s="2"/>
       <c r="G245" s="2"/>
-      <c r="H245" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I245" s="4"/>
+      <c r="H245" s="2"/>
+      <c r="I245" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="J245" s="4"/>
-      <c r="K245" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K245" s="4"/>
+      <c r="L245" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="246" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A246" s="1">
         <v>246</v>
       </c>
@@ -9740,16 +10013,17 @@
       </c>
       <c r="F246" s="2"/>
       <c r="G246" s="2"/>
-      <c r="H246" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I246" s="4"/>
+      <c r="H246" s="2"/>
+      <c r="I246" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="J246" s="4"/>
-      <c r="K246" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K246" s="4"/>
+      <c r="L246" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="247" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A247" s="1">
         <v>247</v>
       </c>
@@ -9767,16 +10041,17 @@
       </c>
       <c r="F247" s="2"/>
       <c r="G247" s="2"/>
-      <c r="H247" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I247" s="4"/>
+      <c r="H247" s="2"/>
+      <c r="I247" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="J247" s="4"/>
-      <c r="K247" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K247" s="4"/>
+      <c r="L247" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="248" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A248" s="1">
         <v>248</v>
       </c>
@@ -9791,16 +10066,17 @@
       </c>
       <c r="F248" s="2"/>
       <c r="G248" s="2"/>
-      <c r="H248" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I248" s="4"/>
+      <c r="H248" s="2"/>
+      <c r="I248" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="J248" s="4"/>
-      <c r="K248" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K248" s="4"/>
+      <c r="L248" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="249" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A249" s="1">
         <v>249</v>
       </c>
@@ -9818,16 +10094,17 @@
       </c>
       <c r="F249" s="2"/>
       <c r="G249" s="2"/>
-      <c r="H249" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I249" s="4"/>
+      <c r="H249" s="2"/>
+      <c r="I249" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="J249" s="4"/>
-      <c r="K249" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K249" s="4"/>
+      <c r="L249" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="250" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A250" s="1">
         <v>250</v>
       </c>
@@ -9845,12 +10122,13 @@
       </c>
       <c r="F250" s="2"/>
       <c r="G250" s="2"/>
-      <c r="H250" s="4"/>
+      <c r="H250" s="2"/>
       <c r="I250" s="4"/>
       <c r="J250" s="4"/>
       <c r="K250" s="4"/>
-    </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L250" s="4"/>
+    </row>
+    <row r="251" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A251" s="1">
         <v>251</v>
       </c>
@@ -9868,12 +10146,13 @@
       </c>
       <c r="F251" s="2"/>
       <c r="G251" s="2"/>
-      <c r="H251" s="4"/>
+      <c r="H251" s="2"/>
       <c r="I251" s="4"/>
       <c r="J251" s="4"/>
       <c r="K251" s="4"/>
-    </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L251" s="4"/>
+    </row>
+    <row r="252" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A252" s="1">
         <v>252</v>
       </c>
@@ -9891,12 +10170,13 @@
       </c>
       <c r="F252" s="2"/>
       <c r="G252" s="2"/>
-      <c r="H252" s="4"/>
+      <c r="H252" s="2"/>
       <c r="I252" s="4"/>
       <c r="J252" s="4"/>
       <c r="K252" s="4"/>
-    </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L252" s="4"/>
+    </row>
+    <row r="253" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A253" s="1">
         <v>253</v>
       </c>
@@ -9914,14 +10194,15 @@
       </c>
       <c r="F253" s="2"/>
       <c r="G253" s="2"/>
-      <c r="H253" s="4"/>
+      <c r="H253" s="2"/>
       <c r="I253" s="4"/>
-      <c r="J253" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="K253" s="4"/>
-    </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J253" s="4"/>
+      <c r="K253" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L253" s="4"/>
+    </row>
+    <row r="254" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A254" s="1">
         <v>254</v>
       </c>
@@ -9936,11 +10217,12 @@
       </c>
       <c r="F254" s="2"/>
       <c r="G254" s="2"/>
-      <c r="H254" s="4"/>
+      <c r="H254" s="2"/>
       <c r="I254" s="4"/>
       <c r="J254" s="4"/>
-    </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K254" s="4"/>
+    </row>
+    <row r="255" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A255" s="1">
         <v>255</v>
       </c>
@@ -9958,12 +10240,13 @@
       </c>
       <c r="F255" s="2"/>
       <c r="G255" s="2"/>
-      <c r="H255" s="4"/>
+      <c r="H255" s="2"/>
       <c r="I255" s="4"/>
       <c r="J255" s="4"/>
       <c r="K255" s="4"/>
-    </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L255" s="4"/>
+    </row>
+    <row r="256" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A256" s="1">
         <v>256</v>
       </c>
@@ -9981,12 +10264,13 @@
       </c>
       <c r="F256" s="2"/>
       <c r="G256" s="2"/>
-      <c r="H256" s="4"/>
+      <c r="H256" s="2"/>
       <c r="I256" s="4"/>
       <c r="J256" s="4"/>
       <c r="K256" s="4"/>
-    </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L256" s="4"/>
+    </row>
+    <row r="257" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A257" s="1">
         <v>257</v>
       </c>
@@ -10004,16 +10288,17 @@
       </c>
       <c r="F257" s="2"/>
       <c r="G257" s="2"/>
-      <c r="H257" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I257" s="4"/>
+      <c r="H257" s="2"/>
+      <c r="I257" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="J257" s="4"/>
-      <c r="K257" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K257" s="4"/>
+      <c r="L257" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="258" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A258" s="1">
         <v>258</v>
       </c>
@@ -10031,16 +10316,17 @@
       </c>
       <c r="F258" s="2"/>
       <c r="G258" s="2"/>
-      <c r="H258" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I258" s="4"/>
+      <c r="H258" s="2"/>
+      <c r="I258" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="J258" s="4"/>
-      <c r="K258" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K258" s="4"/>
+      <c r="L258" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="259" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A259" s="1">
         <v>259</v>
       </c>
@@ -10058,16 +10344,17 @@
       </c>
       <c r="F259" s="2"/>
       <c r="G259" s="2"/>
-      <c r="H259" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I259" s="4"/>
+      <c r="H259" s="2"/>
+      <c r="I259" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="J259" s="4"/>
-      <c r="K259" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K259" s="4"/>
+      <c r="L259" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="260" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A260" s="1">
         <v>260</v>
       </c>
@@ -10085,16 +10372,17 @@
       </c>
       <c r="F260" s="2"/>
       <c r="G260" s="2"/>
-      <c r="H260" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I260" s="4"/>
+      <c r="H260" s="2"/>
+      <c r="I260" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="J260" s="4"/>
-      <c r="K260" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K260" s="4"/>
+      <c r="L260" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="261" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A261" s="1">
         <v>261</v>
       </c>
@@ -10112,16 +10400,17 @@
       </c>
       <c r="F261" s="2"/>
       <c r="G261" s="2"/>
-      <c r="H261" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I261" s="4"/>
+      <c r="H261" s="2"/>
+      <c r="I261" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="J261" s="4"/>
-      <c r="K261" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K261" s="4"/>
+      <c r="L261" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="262" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A262" s="1">
         <v>262</v>
       </c>
@@ -10136,14 +10425,15 @@
       </c>
       <c r="F262" s="2"/>
       <c r="G262" s="2"/>
-      <c r="H262" s="4"/>
+      <c r="H262" s="2"/>
       <c r="I262" s="4"/>
       <c r="J262" s="4"/>
-      <c r="K262" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K262" s="4"/>
+      <c r="L262" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="263" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A263" s="1">
         <v>263</v>
       </c>
@@ -10159,14 +10449,15 @@
       <c r="E263" s="2"/>
       <c r="F263" s="2"/>
       <c r="G263" s="2"/>
-      <c r="H263" s="4"/>
+      <c r="H263" s="2"/>
       <c r="I263" s="4"/>
-      <c r="J263" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="K263" s="4"/>
-    </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J263" s="4"/>
+      <c r="K263" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L263" s="4"/>
+    </row>
+    <row r="264" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A264" s="1">
         <v>264</v>
       </c>
@@ -10182,14 +10473,15 @@
       <c r="E264" s="2"/>
       <c r="F264" s="2"/>
       <c r="G264" s="2"/>
-      <c r="H264" s="4"/>
-      <c r="I264" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="J264" s="4"/>
+      <c r="H264" s="2"/>
+      <c r="I264" s="4"/>
+      <c r="J264" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="K264" s="4"/>
-    </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L264" s="4"/>
+    </row>
+    <row r="265" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A265" s="1">
         <v>265</v>
       </c>
@@ -10205,14 +10497,15 @@
       <c r="E265" s="2"/>
       <c r="F265" s="2"/>
       <c r="G265" s="2"/>
-      <c r="H265" s="4"/>
-      <c r="I265" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="J265" s="4"/>
+      <c r="H265" s="2"/>
+      <c r="I265" s="4"/>
+      <c r="J265" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="K265" s="4"/>
-    </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L265" s="4"/>
+    </row>
+    <row r="266" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A266" s="1">
         <v>266</v>
       </c>
@@ -10228,14 +10521,15 @@
       <c r="E266" s="2"/>
       <c r="F266" s="2"/>
       <c r="G266" s="2"/>
-      <c r="H266" s="4"/>
-      <c r="I266" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="J266" s="4"/>
+      <c r="H266" s="2"/>
+      <c r="I266" s="4"/>
+      <c r="J266" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="K266" s="4"/>
-    </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L266" s="4"/>
+    </row>
+    <row r="267" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A267" s="1">
         <v>267</v>
       </c>
@@ -10251,14 +10545,15 @@
       <c r="E267" s="2"/>
       <c r="F267" s="2"/>
       <c r="G267" s="2"/>
-      <c r="H267" s="4"/>
-      <c r="I267" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="J267" s="4"/>
+      <c r="H267" s="2"/>
+      <c r="I267" s="4"/>
+      <c r="J267" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="K267" s="4"/>
-    </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L267" s="4"/>
+    </row>
+    <row r="268" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A268" s="1">
         <v>268</v>
       </c>
@@ -10274,14 +10569,15 @@
       <c r="E268" s="2"/>
       <c r="F268" s="2"/>
       <c r="G268" s="2"/>
-      <c r="H268" s="4"/>
-      <c r="I268" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="J268" s="4"/>
+      <c r="H268" s="2"/>
+      <c r="I268" s="4"/>
+      <c r="J268" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="K268" s="4"/>
-    </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L268" s="4"/>
+    </row>
+    <row r="269" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A269" s="1">
         <v>269</v>
       </c>
@@ -10297,14 +10593,15 @@
       <c r="E269" s="2"/>
       <c r="F269" s="2"/>
       <c r="G269" s="2"/>
-      <c r="H269" s="4"/>
-      <c r="I269" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="J269" s="4"/>
+      <c r="H269" s="2"/>
+      <c r="I269" s="4"/>
+      <c r="J269" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="K269" s="4"/>
-    </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L269" s="4"/>
+    </row>
+    <row r="270" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A270" s="1">
         <v>270</v>
       </c>
@@ -10320,14 +10617,15 @@
       <c r="E270" s="2"/>
       <c r="F270" s="2"/>
       <c r="G270" s="2"/>
-      <c r="H270" s="4"/>
-      <c r="I270" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="J270" s="4"/>
+      <c r="H270" s="2"/>
+      <c r="I270" s="4"/>
+      <c r="J270" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="K270" s="4"/>
-    </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L270" s="4"/>
+    </row>
+    <row r="271" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A271" s="1">
         <v>271</v>
       </c>
@@ -10343,14 +10641,15 @@
       <c r="E271" s="2"/>
       <c r="F271" s="2"/>
       <c r="G271" s="2"/>
-      <c r="H271" s="4"/>
-      <c r="I271" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="J271" s="4"/>
+      <c r="H271" s="2"/>
+      <c r="I271" s="4"/>
+      <c r="J271" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="K271" s="4"/>
-    </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L271" s="4"/>
+    </row>
+    <row r="272" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A272" s="1">
         <v>272</v>
       </c>
@@ -10366,14 +10665,15 @@
       <c r="E272" s="2"/>
       <c r="F272" s="2"/>
       <c r="G272" s="2"/>
-      <c r="H272" s="4"/>
-      <c r="I272" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="J272" s="4"/>
+      <c r="H272" s="2"/>
+      <c r="I272" s="4"/>
+      <c r="J272" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="K272" s="4"/>
-    </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L272" s="4"/>
+    </row>
+    <row r="273" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A273" s="1">
         <v>273</v>
       </c>
@@ -10389,14 +10689,15 @@
       <c r="E273" s="2"/>
       <c r="F273" s="2"/>
       <c r="G273" s="2"/>
-      <c r="H273" s="4"/>
+      <c r="H273" s="2"/>
       <c r="I273" s="4"/>
       <c r="J273" s="4"/>
-      <c r="K273" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K273" s="4"/>
+      <c r="L273" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="274" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A274" s="1">
         <v>274</v>
       </c>
@@ -10412,14 +10713,15 @@
       <c r="E274" s="2"/>
       <c r="F274" s="2"/>
       <c r="G274" s="2"/>
-      <c r="H274" s="4"/>
+      <c r="H274" s="2"/>
       <c r="I274" s="4"/>
       <c r="J274" s="4"/>
-      <c r="K274" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K274" s="4"/>
+      <c r="L274" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="275" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A275" s="1">
         <v>275</v>
       </c>
@@ -10435,16 +10737,17 @@
       <c r="E275" s="2"/>
       <c r="F275" s="2"/>
       <c r="G275" s="2"/>
-      <c r="H275" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I275" s="4"/>
+      <c r="H275" s="2"/>
+      <c r="I275" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="J275" s="4"/>
-      <c r="K275" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K275" s="4"/>
+      <c r="L275" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="276" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A276" s="1">
         <v>276</v>
       </c>
@@ -10460,14 +10763,15 @@
       <c r="E276" s="2"/>
       <c r="F276" s="2"/>
       <c r="G276" s="2"/>
-      <c r="H276" s="4"/>
+      <c r="H276" s="2"/>
       <c r="I276" s="4"/>
-      <c r="J276" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="K276" s="4"/>
-    </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J276" s="4"/>
+      <c r="K276" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L276" s="4"/>
+    </row>
+    <row r="277" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A277" s="1">
         <v>277</v>
       </c>
@@ -10483,12 +10787,13 @@
       <c r="E277" s="2"/>
       <c r="F277" s="2"/>
       <c r="G277" s="2"/>
-      <c r="H277" s="4"/>
+      <c r="H277" s="2"/>
       <c r="I277" s="4"/>
       <c r="J277" s="4"/>
       <c r="K277" s="4"/>
-    </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L277" s="4"/>
+    </row>
+    <row r="278" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A278" s="1">
         <v>278</v>
       </c>
@@ -10504,14 +10809,15 @@
       <c r="E278" s="2"/>
       <c r="F278" s="2"/>
       <c r="G278" s="2"/>
-      <c r="H278" s="4"/>
+      <c r="H278" s="2"/>
       <c r="I278" s="4"/>
       <c r="J278" s="4"/>
-      <c r="K278" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K278" s="4"/>
+      <c r="L278" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="279" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A279" s="1">
         <v>279</v>
       </c>
@@ -10527,12 +10833,13 @@
       <c r="E279" s="2"/>
       <c r="F279" s="2"/>
       <c r="G279" s="2"/>
-      <c r="H279" s="4"/>
+      <c r="H279" s="2"/>
       <c r="I279" s="4"/>
       <c r="J279" s="4"/>
       <c r="K279" s="4"/>
-    </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L279" s="4"/>
+    </row>
+    <row r="280" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A280" s="1">
         <v>280</v>
       </c>
@@ -10548,12 +10855,13 @@
       <c r="E280" s="2"/>
       <c r="F280" s="2"/>
       <c r="G280" s="2"/>
-      <c r="H280" s="4"/>
+      <c r="H280" s="2"/>
       <c r="I280" s="4"/>
       <c r="J280" s="4"/>
       <c r="K280" s="4"/>
-    </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L280" s="4"/>
+    </row>
+    <row r="281" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A281" s="1">
         <v>281</v>
       </c>
@@ -10569,14 +10877,15 @@
       <c r="E281" s="2"/>
       <c r="F281" s="2"/>
       <c r="G281" s="2"/>
-      <c r="H281" s="4"/>
+      <c r="H281" s="2"/>
       <c r="I281" s="4"/>
-      <c r="J281" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="K281" s="4"/>
-    </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J281" s="4"/>
+      <c r="K281" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L281" s="4"/>
+    </row>
+    <row r="282" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A282" s="1">
         <v>282</v>
       </c>
@@ -10592,14 +10901,15 @@
       <c r="E282" s="2"/>
       <c r="F282" s="2"/>
       <c r="G282" s="2"/>
-      <c r="H282" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I282" s="4"/>
+      <c r="H282" s="2"/>
+      <c r="I282" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="J282" s="4"/>
       <c r="K282" s="4"/>
-    </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L282" s="4"/>
+    </row>
+    <row r="283" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A283" s="1">
         <v>283</v>
       </c>
@@ -10615,14 +10925,15 @@
       <c r="E283" s="2"/>
       <c r="F283" s="2"/>
       <c r="G283" s="2"/>
-      <c r="H283" s="4"/>
+      <c r="H283" s="2"/>
       <c r="I283" s="4"/>
       <c r="J283" s="4"/>
-      <c r="K283" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K283" s="4"/>
+      <c r="L283" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="284" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A284" s="1">
         <v>284</v>
       </c>
@@ -10638,16 +10949,17 @@
       <c r="E284" s="2"/>
       <c r="F284" s="2"/>
       <c r="G284" s="2"/>
-      <c r="H284" s="4"/>
-      <c r="I284" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="J284" s="4"/>
-      <c r="K284" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H284" s="2"/>
+      <c r="I284" s="4"/>
+      <c r="J284" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K284" s="4"/>
+      <c r="L284" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="285" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A285" s="1">
         <v>285</v>
       </c>
@@ -10663,14 +10975,15 @@
       <c r="E285" s="2"/>
       <c r="F285" s="2"/>
       <c r="G285" s="2"/>
-      <c r="H285" s="4"/>
-      <c r="I285" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="J285" s="4"/>
+      <c r="H285" s="2"/>
+      <c r="I285" s="4"/>
+      <c r="J285" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="K285" s="4"/>
-    </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L285" s="4"/>
+    </row>
+    <row r="286" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A286" s="1">
         <v>286</v>
       </c>
@@ -10686,12 +10999,13 @@
       <c r="E286" s="2"/>
       <c r="F286" s="2"/>
       <c r="G286" s="2"/>
-      <c r="H286" s="4"/>
+      <c r="H286" s="2"/>
       <c r="I286" s="4"/>
       <c r="J286" s="4"/>
       <c r="K286" s="4"/>
-    </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L286" s="4"/>
+    </row>
+    <row r="287" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A287" s="1">
         <v>287</v>
       </c>
@@ -10707,12 +11021,13 @@
       <c r="E287" s="2"/>
       <c r="F287" s="2"/>
       <c r="G287" s="2"/>
-      <c r="H287" s="4"/>
+      <c r="H287" s="2"/>
       <c r="I287" s="4"/>
       <c r="J287" s="4"/>
       <c r="K287" s="4"/>
-    </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L287" s="4"/>
+    </row>
+    <row r="288" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A288" s="1">
         <v>288</v>
       </c>
@@ -10728,16 +11043,17 @@
       <c r="E288" s="2"/>
       <c r="F288" s="2"/>
       <c r="G288" s="2"/>
-      <c r="H288" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I288" s="4"/>
+      <c r="H288" s="2"/>
+      <c r="I288" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="J288" s="4"/>
-      <c r="K288" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K288" s="4"/>
+      <c r="L288" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="289" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A289" s="1">
         <v>289</v>
       </c>
@@ -10753,14 +11069,15 @@
       <c r="E289" s="2"/>
       <c r="F289" s="2"/>
       <c r="G289" s="2"/>
-      <c r="H289" s="4"/>
+      <c r="H289" s="2"/>
       <c r="I289" s="4"/>
-      <c r="J289" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="K289" s="4"/>
-    </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J289" s="4"/>
+      <c r="K289" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L289" s="4"/>
+    </row>
+    <row r="290" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A290" s="1">
         <v>290</v>
       </c>
@@ -10776,14 +11093,15 @@
       <c r="E290" s="2"/>
       <c r="F290" s="2"/>
       <c r="G290" s="2"/>
-      <c r="H290" s="4"/>
+      <c r="H290" s="2"/>
       <c r="I290" s="4"/>
       <c r="J290" s="4"/>
-      <c r="K290" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K290" s="4"/>
+      <c r="L290" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="291" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A291" s="1">
         <v>291</v>
       </c>
@@ -10799,14 +11117,15 @@
       <c r="E291" s="2"/>
       <c r="F291" s="2"/>
       <c r="G291" s="2"/>
-      <c r="H291" s="4"/>
+      <c r="H291" s="2"/>
       <c r="I291" s="4"/>
       <c r="J291" s="4"/>
-      <c r="K291" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K291" s="4"/>
+      <c r="L291" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="292" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A292" s="1">
         <v>292</v>
       </c>
@@ -10822,14 +11141,15 @@
       <c r="E292" s="2"/>
       <c r="F292" s="2"/>
       <c r="G292" s="2"/>
-      <c r="H292" s="4"/>
+      <c r="H292" s="2"/>
       <c r="I292" s="4"/>
       <c r="J292" s="4"/>
-      <c r="K292" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K292" s="4"/>
+      <c r="L292" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="293" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A293" s="1">
         <v>293</v>
       </c>
@@ -10845,14 +11165,15 @@
       <c r="E293" s="2"/>
       <c r="F293" s="2"/>
       <c r="G293" s="2"/>
-      <c r="H293" s="4"/>
+      <c r="H293" s="2"/>
       <c r="I293" s="4"/>
       <c r="J293" s="4"/>
-      <c r="K293" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K293" s="4"/>
+      <c r="L293" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="294" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A294" s="1">
         <v>294</v>
       </c>
@@ -10868,14 +11189,15 @@
       <c r="E294" s="2"/>
       <c r="F294" s="2"/>
       <c r="G294" s="2"/>
-      <c r="H294" s="4"/>
+      <c r="H294" s="2"/>
       <c r="I294" s="4"/>
       <c r="J294" s="4"/>
-      <c r="K294" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K294" s="4"/>
+      <c r="L294" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="295" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A295" s="1">
         <v>295</v>
       </c>
@@ -10891,16 +11213,17 @@
       <c r="E295" s="2"/>
       <c r="F295" s="2"/>
       <c r="G295" s="2"/>
-      <c r="H295" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I295" s="4"/>
+      <c r="H295" s="2"/>
+      <c r="I295" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="J295" s="4"/>
-      <c r="K295" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K295" s="4"/>
+      <c r="L295" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="296" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A296" s="1">
         <v>296</v>
       </c>
@@ -10916,16 +11239,17 @@
       <c r="E296" s="2"/>
       <c r="F296" s="2"/>
       <c r="G296" s="2"/>
-      <c r="H296" s="4"/>
+      <c r="H296" s="2"/>
       <c r="I296" s="4"/>
-      <c r="J296" s="4" t="s">
-        <v>18</v>
-      </c>
+      <c r="J296" s="4"/>
       <c r="K296" s="4" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L296" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="297" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A297" s="1">
         <v>297</v>
       </c>
@@ -10941,14 +11265,15 @@
       <c r="E297" s="2"/>
       <c r="F297" s="2"/>
       <c r="G297" s="2"/>
-      <c r="H297" s="4"/>
+      <c r="H297" s="2"/>
       <c r="I297" s="4"/>
-      <c r="J297" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="K297" s="4"/>
-    </row>
-    <row r="298" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J297" s="4"/>
+      <c r="K297" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L297" s="4"/>
+    </row>
+    <row r="298" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A298" s="1">
         <v>298</v>
       </c>
@@ -10964,12 +11289,13 @@
       <c r="E298" s="2"/>
       <c r="F298" s="2"/>
       <c r="G298" s="2"/>
-      <c r="H298" s="4"/>
+      <c r="H298" s="2"/>
       <c r="I298" s="4"/>
       <c r="J298" s="4"/>
       <c r="K298" s="4"/>
-    </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L298" s="4"/>
+    </row>
+    <row r="299" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A299" s="1">
         <v>299</v>
       </c>
@@ -10985,12 +11311,13 @@
       <c r="E299" s="2"/>
       <c r="F299" s="2"/>
       <c r="G299" s="2"/>
-      <c r="H299" s="4"/>
+      <c r="H299" s="2"/>
       <c r="I299" s="4"/>
       <c r="J299" s="4"/>
       <c r="K299" s="4"/>
-    </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L299" s="4"/>
+    </row>
+    <row r="300" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A300" s="1">
         <v>300</v>
       </c>
@@ -11006,12 +11333,13 @@
       <c r="E300" s="2"/>
       <c r="F300" s="2"/>
       <c r="G300" s="2"/>
-      <c r="H300" s="4"/>
+      <c r="H300" s="2"/>
       <c r="I300" s="4"/>
       <c r="J300" s="4"/>
       <c r="K300" s="4"/>
-    </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L300" s="4"/>
+    </row>
+    <row r="301" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A301" s="1">
         <v>301</v>
       </c>
@@ -11027,12 +11355,13 @@
       <c r="E301" s="2"/>
       <c r="F301" s="2"/>
       <c r="G301" s="2"/>
-      <c r="H301" s="4"/>
+      <c r="H301" s="2"/>
       <c r="I301" s="4"/>
       <c r="J301" s="4"/>
       <c r="K301" s="4"/>
-    </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L301" s="4"/>
+    </row>
+    <row r="302" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A302" s="1">
         <v>302</v>
       </c>
@@ -11048,12 +11377,13 @@
       <c r="E302" s="2"/>
       <c r="F302" s="2"/>
       <c r="G302" s="2"/>
-      <c r="H302" s="4"/>
+      <c r="H302" s="2"/>
       <c r="I302" s="4"/>
       <c r="J302" s="4"/>
       <c r="K302" s="4"/>
-    </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L302" s="4"/>
+    </row>
+    <row r="303" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A303" s="1">
         <v>303</v>
       </c>
@@ -11069,12 +11399,13 @@
       <c r="E303" s="2"/>
       <c r="F303" s="2"/>
       <c r="G303" s="2"/>
-      <c r="H303" s="4"/>
+      <c r="H303" s="2"/>
       <c r="I303" s="4"/>
       <c r="J303" s="4"/>
       <c r="K303" s="4"/>
-    </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L303" s="4"/>
+    </row>
+    <row r="304" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A304" s="1">
         <v>304</v>
       </c>
@@ -11090,12 +11421,13 @@
       <c r="E304" s="2"/>
       <c r="F304" s="2"/>
       <c r="G304" s="2"/>
-      <c r="H304" s="4"/>
+      <c r="H304" s="2"/>
       <c r="I304" s="4"/>
       <c r="J304" s="4"/>
       <c r="K304" s="4"/>
-    </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L304" s="4"/>
+    </row>
+    <row r="305" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A305" s="1">
         <v>305</v>
       </c>
@@ -11111,14 +11443,15 @@
       <c r="E305" s="2"/>
       <c r="F305" s="2"/>
       <c r="G305" s="2"/>
-      <c r="H305" s="4"/>
+      <c r="H305" s="2"/>
       <c r="I305" s="4"/>
-      <c r="J305" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="K305" s="4"/>
-    </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J305" s="4"/>
+      <c r="K305" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L305" s="4"/>
+    </row>
+    <row r="306" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A306" s="1">
         <v>306</v>
       </c>
@@ -11134,12 +11467,13 @@
       <c r="E306" s="2"/>
       <c r="F306" s="2"/>
       <c r="G306" s="2"/>
-      <c r="H306" s="4"/>
+      <c r="H306" s="2"/>
       <c r="I306" s="4"/>
       <c r="J306" s="4"/>
       <c r="K306" s="4"/>
-    </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L306" s="4"/>
+    </row>
+    <row r="307" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A307" s="1">
         <v>307</v>
       </c>
@@ -11155,12 +11489,13 @@
       <c r="E307" s="2"/>
       <c r="F307" s="2"/>
       <c r="G307" s="2"/>
-      <c r="H307" s="4"/>
+      <c r="H307" s="2"/>
       <c r="I307" s="4"/>
       <c r="J307" s="4"/>
       <c r="K307" s="4"/>
-    </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L307" s="4"/>
+    </row>
+    <row r="308" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A308" s="1">
         <v>308</v>
       </c>
@@ -11176,12 +11511,13 @@
       <c r="E308" s="2"/>
       <c r="F308" s="2"/>
       <c r="G308" s="2"/>
-      <c r="H308" s="4"/>
+      <c r="H308" s="2"/>
       <c r="I308" s="4"/>
       <c r="J308" s="4"/>
       <c r="K308" s="4"/>
-    </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L308" s="4"/>
+    </row>
+    <row r="309" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A309" s="1">
         <v>309</v>
       </c>
@@ -11197,14 +11533,15 @@
       <c r="E309" s="2"/>
       <c r="F309" s="2"/>
       <c r="G309" s="2"/>
-      <c r="H309" s="4"/>
+      <c r="H309" s="2"/>
       <c r="I309" s="4"/>
-      <c r="J309" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="K309" s="4"/>
-    </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J309" s="4"/>
+      <c r="K309" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L309" s="4"/>
+    </row>
+    <row r="310" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A310" s="1">
         <v>310</v>
       </c>
@@ -11220,14 +11557,15 @@
       <c r="E310" s="2"/>
       <c r="F310" s="2"/>
       <c r="G310" s="2"/>
-      <c r="H310" s="4"/>
-      <c r="I310" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="J310" s="4"/>
+      <c r="H310" s="2"/>
+      <c r="I310" s="4"/>
+      <c r="J310" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="K310" s="4"/>
-    </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L310" s="4"/>
+    </row>
+    <row r="311" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A311" s="1">
         <v>311</v>
       </c>
@@ -11243,12 +11581,13 @@
       <c r="E311" s="2"/>
       <c r="F311" s="2"/>
       <c r="G311" s="2"/>
-      <c r="H311" s="4"/>
+      <c r="H311" s="2"/>
       <c r="I311" s="4"/>
       <c r="J311" s="4"/>
       <c r="K311" s="4"/>
-    </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L311" s="4"/>
+    </row>
+    <row r="312" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A312" s="1">
         <v>312</v>
       </c>
@@ -11264,12 +11603,13 @@
       <c r="E312" s="2"/>
       <c r="F312" s="2"/>
       <c r="G312" s="2"/>
-      <c r="H312" s="4"/>
+      <c r="H312" s="2"/>
       <c r="I312" s="4"/>
       <c r="J312" s="4"/>
       <c r="K312" s="4"/>
-    </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L312" s="4"/>
+    </row>
+    <row r="313" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A313" s="1">
         <v>313</v>
       </c>
@@ -11285,14 +11625,15 @@
       <c r="E313" s="2"/>
       <c r="F313" s="2"/>
       <c r="G313" s="2"/>
-      <c r="H313" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I313" s="4"/>
+      <c r="H313" s="2"/>
+      <c r="I313" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="J313" s="4"/>
       <c r="K313" s="4"/>
-    </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L313" s="4"/>
+    </row>
+    <row r="314" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A314" s="1">
         <v>314</v>
       </c>
@@ -11308,12 +11649,13 @@
       <c r="E314" s="2"/>
       <c r="F314" s="2"/>
       <c r="G314" s="2"/>
-      <c r="H314" s="4"/>
+      <c r="H314" s="2"/>
       <c r="I314" s="4"/>
       <c r="J314" s="4"/>
       <c r="K314" s="4"/>
-    </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L314" s="4"/>
+    </row>
+    <row r="315" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A315" s="1">
         <v>315</v>
       </c>
@@ -11329,12 +11671,13 @@
       <c r="E315" s="2"/>
       <c r="F315" s="2"/>
       <c r="G315" s="2"/>
-      <c r="H315" s="4"/>
+      <c r="H315" s="2"/>
       <c r="I315" s="4"/>
       <c r="J315" s="4"/>
       <c r="K315" s="4"/>
-    </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L315" s="4"/>
+    </row>
+    <row r="316" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A316" s="1">
         <v>316</v>
       </c>
@@ -11350,14 +11693,15 @@
       <c r="E316" s="2"/>
       <c r="F316" s="2"/>
       <c r="G316" s="2"/>
-      <c r="H316" s="4"/>
-      <c r="I316" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="J316" s="4"/>
+      <c r="H316" s="2"/>
+      <c r="I316" s="4"/>
+      <c r="J316" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="K316" s="4"/>
-    </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L316" s="4"/>
+    </row>
+    <row r="317" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A317" s="1">
         <v>317</v>
       </c>
@@ -11373,12 +11717,13 @@
       <c r="E317" s="2"/>
       <c r="F317" s="2"/>
       <c r="G317" s="2"/>
-      <c r="H317" s="4"/>
+      <c r="H317" s="2"/>
       <c r="I317" s="4"/>
       <c r="J317" s="4"/>
       <c r="K317" s="4"/>
-    </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L317" s="4"/>
+    </row>
+    <row r="318" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A318" s="1">
         <v>318</v>
       </c>
@@ -11394,16 +11739,17 @@
       <c r="E318" s="2"/>
       <c r="F318" s="2"/>
       <c r="G318" s="2"/>
-      <c r="H318" s="4"/>
-      <c r="I318" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="J318" s="4"/>
-      <c r="K318" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H318" s="2"/>
+      <c r="I318" s="4"/>
+      <c r="J318" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K318" s="4"/>
+      <c r="L318" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="319" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A319" s="1">
         <v>319</v>
       </c>
@@ -11419,18 +11765,19 @@
       <c r="E319" s="2"/>
       <c r="F319" s="2"/>
       <c r="G319" s="2"/>
-      <c r="H319" s="4" t="s">
-        <v>18</v>
-      </c>
+      <c r="H319" s="2"/>
       <c r="I319" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="J319" s="4"/>
-      <c r="K319" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J319" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K319" s="4"/>
+      <c r="L319" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="320" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A320" s="1">
         <v>320</v>
       </c>
@@ -11446,16 +11793,17 @@
       <c r="E320" s="2"/>
       <c r="F320" s="2"/>
       <c r="G320" s="2"/>
-      <c r="H320" s="4"/>
-      <c r="I320" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="J320" s="4"/>
-      <c r="K320" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H320" s="2"/>
+      <c r="I320" s="4"/>
+      <c r="J320" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K320" s="4"/>
+      <c r="L320" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="321" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A321" s="1">
         <v>321</v>
       </c>
@@ -11471,12 +11819,13 @@
       <c r="E321" s="2"/>
       <c r="F321" s="2"/>
       <c r="G321" s="2"/>
-      <c r="H321" s="4"/>
+      <c r="H321" s="2"/>
       <c r="I321" s="4"/>
       <c r="J321" s="4"/>
       <c r="K321" s="4"/>
-    </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L321" s="4"/>
+    </row>
+    <row r="322" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A322" s="1">
         <v>322</v>
       </c>
@@ -11492,14 +11841,15 @@
       <c r="E322" s="2"/>
       <c r="F322" s="2"/>
       <c r="G322" s="2"/>
-      <c r="H322" s="4"/>
+      <c r="H322" s="2"/>
       <c r="I322" s="4"/>
-      <c r="J322" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="K322" s="4"/>
-    </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J322" s="4"/>
+      <c r="K322" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L322" s="4"/>
+    </row>
+    <row r="323" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A323" s="1">
         <v>323</v>
       </c>
@@ -11515,12 +11865,13 @@
       <c r="E323" s="2"/>
       <c r="F323" s="2"/>
       <c r="G323" s="2"/>
-      <c r="H323" s="4"/>
+      <c r="H323" s="2"/>
       <c r="I323" s="4"/>
       <c r="J323" s="4"/>
       <c r="K323" s="4"/>
-    </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L323" s="4"/>
+    </row>
+    <row r="324" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A324" s="1">
         <v>324</v>
       </c>
@@ -11536,16 +11887,17 @@
       <c r="E324" s="2"/>
       <c r="F324" s="2"/>
       <c r="G324" s="2"/>
-      <c r="H324" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I324" s="4"/>
+      <c r="H324" s="2"/>
+      <c r="I324" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="J324" s="4"/>
-      <c r="K324" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K324" s="4"/>
+      <c r="L324" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="325" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A325" s="1">
         <v>325</v>
       </c>
@@ -11561,16 +11913,17 @@
       <c r="E325" s="2"/>
       <c r="F325" s="2"/>
       <c r="G325" s="2"/>
-      <c r="H325" s="4"/>
-      <c r="I325" s="4" t="s">
-        <v>18</v>
-      </c>
+      <c r="H325" s="2"/>
+      <c r="I325" s="4"/>
       <c r="J325" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="K325" s="4"/>
-    </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K325" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L325" s="4"/>
+    </row>
+    <row r="326" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A326" s="1">
         <v>326</v>
       </c>
@@ -11586,12 +11939,13 @@
       <c r="E326" s="2"/>
       <c r="F326" s="2"/>
       <c r="G326" s="2"/>
-      <c r="H326" s="4"/>
+      <c r="H326" s="2"/>
       <c r="I326" s="4"/>
       <c r="J326" s="4"/>
       <c r="K326" s="4"/>
-    </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L326" s="4"/>
+    </row>
+    <row r="327" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A327" s="1">
         <v>327</v>
       </c>
@@ -11607,12 +11961,13 @@
       <c r="E327" s="2"/>
       <c r="F327" s="2"/>
       <c r="G327" s="2"/>
-      <c r="H327" s="4"/>
+      <c r="H327" s="2"/>
       <c r="I327" s="4"/>
       <c r="J327" s="4"/>
       <c r="K327" s="4"/>
-    </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L327" s="4"/>
+    </row>
+    <row r="328" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A328" s="1">
         <v>328</v>
       </c>
@@ -11628,12 +11983,13 @@
       <c r="E328" s="2"/>
       <c r="F328" s="2"/>
       <c r="G328" s="2"/>
-      <c r="H328" s="4"/>
+      <c r="H328" s="2"/>
       <c r="I328" s="4"/>
       <c r="J328" s="4"/>
       <c r="K328" s="4"/>
-    </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L328" s="4"/>
+    </row>
+    <row r="329" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A329" s="1">
         <v>329</v>
       </c>
@@ -11649,16 +12005,17 @@
       <c r="E329" s="2"/>
       <c r="F329" s="2"/>
       <c r="G329" s="2"/>
-      <c r="H329" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I329" s="4"/>
+      <c r="H329" s="2"/>
+      <c r="I329" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="J329" s="4"/>
-      <c r="K329" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K329" s="4"/>
+      <c r="L329" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="330" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A330" s="1">
         <v>330</v>
       </c>
@@ -11674,16 +12031,17 @@
       <c r="E330" s="2"/>
       <c r="F330" s="2"/>
       <c r="G330" s="2"/>
-      <c r="H330" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I330" s="4"/>
+      <c r="H330" s="2"/>
+      <c r="I330" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="J330" s="4"/>
-      <c r="K330" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K330" s="4"/>
+      <c r="L330" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="331" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A331" s="1">
         <v>331</v>
       </c>
@@ -11699,16 +12057,17 @@
       <c r="E331" s="2"/>
       <c r="F331" s="2"/>
       <c r="G331" s="2"/>
-      <c r="H331" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I331" s="4"/>
+      <c r="H331" s="2"/>
+      <c r="I331" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="J331" s="4"/>
-      <c r="K331" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K331" s="4"/>
+      <c r="L331" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="332" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A332" s="1">
         <v>332</v>
       </c>
@@ -11724,16 +12083,17 @@
       <c r="E332" s="2"/>
       <c r="F332" s="2"/>
       <c r="G332" s="2"/>
-      <c r="H332" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I332" s="4"/>
+      <c r="H332" s="2"/>
+      <c r="I332" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="J332" s="4"/>
-      <c r="K332" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K332" s="4"/>
+      <c r="L332" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="333" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A333" s="1">
         <v>333</v>
       </c>
@@ -11749,16 +12109,17 @@
       <c r="E333" s="2"/>
       <c r="F333" s="2"/>
       <c r="G333" s="2"/>
-      <c r="H333" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I333" s="4"/>
+      <c r="H333" s="2"/>
+      <c r="I333" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="J333" s="4"/>
-      <c r="K333" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K333" s="4"/>
+      <c r="L333" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="334" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A334" s="1">
         <v>334</v>
       </c>
@@ -11774,12 +12135,13 @@
       <c r="E334" s="2"/>
       <c r="F334" s="2"/>
       <c r="G334" s="2"/>
-      <c r="H334" s="4"/>
+      <c r="H334" s="2"/>
       <c r="I334" s="4"/>
       <c r="J334" s="4"/>
       <c r="K334" s="4"/>
-    </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L334" s="4"/>
+    </row>
+    <row r="335" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A335" s="1">
         <v>335</v>
       </c>
@@ -11795,14 +12157,15 @@
       <c r="E335" s="2"/>
       <c r="F335" s="2"/>
       <c r="G335" s="2"/>
-      <c r="H335" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I335" s="4"/>
+      <c r="H335" s="2"/>
+      <c r="I335" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="J335" s="4"/>
       <c r="K335" s="4"/>
-    </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L335" s="4"/>
+    </row>
+    <row r="336" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A336" s="1">
         <v>336</v>
       </c>
@@ -11818,14 +12181,15 @@
       <c r="E336" s="2"/>
       <c r="F336" s="2"/>
       <c r="G336" s="2"/>
-      <c r="H336" s="4"/>
+      <c r="H336" s="2"/>
       <c r="I336" s="4"/>
       <c r="J336" s="4"/>
-      <c r="K336" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K336" s="4"/>
+      <c r="L336" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="337" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A337" s="1">
         <v>337</v>
       </c>
@@ -11841,14 +12205,15 @@
       <c r="E337" s="2"/>
       <c r="F337" s="2"/>
       <c r="G337" s="2"/>
-      <c r="H337" s="4"/>
+      <c r="H337" s="2"/>
       <c r="I337" s="4"/>
       <c r="J337" s="4"/>
-      <c r="K337" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K337" s="4"/>
+      <c r="L337" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="338" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A338" s="1">
         <v>338</v>
       </c>
@@ -11864,14 +12229,15 @@
       <c r="E338" s="2"/>
       <c r="F338" s="2"/>
       <c r="G338" s="2"/>
-      <c r="H338" s="4"/>
+      <c r="H338" s="2"/>
       <c r="I338" s="4"/>
       <c r="J338" s="4"/>
-      <c r="K338" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K338" s="4"/>
+      <c r="L338" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="339" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A339" s="1">
         <v>339</v>
       </c>
@@ -11887,12 +12253,13 @@
       <c r="E339" s="2"/>
       <c r="F339" s="2"/>
       <c r="G339" s="2"/>
-      <c r="H339" s="4"/>
+      <c r="H339" s="2"/>
       <c r="I339" s="4"/>
       <c r="J339" s="4"/>
       <c r="K339" s="4"/>
-    </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L339" s="4"/>
+    </row>
+    <row r="340" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A340" s="1">
         <v>340</v>
       </c>
@@ -11908,16 +12275,17 @@
       <c r="E340" s="2"/>
       <c r="F340" s="2"/>
       <c r="G340" s="2"/>
-      <c r="H340" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I340" s="4"/>
+      <c r="H340" s="2"/>
+      <c r="I340" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="J340" s="4"/>
-      <c r="K340" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K340" s="4"/>
+      <c r="L340" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="341" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A341" s="1">
         <v>341</v>
       </c>
@@ -11933,14 +12301,15 @@
       <c r="E341" s="2"/>
       <c r="F341" s="2"/>
       <c r="G341" s="2"/>
-      <c r="H341" s="4"/>
-      <c r="I341" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="J341" s="4"/>
+      <c r="H341" s="2"/>
+      <c r="I341" s="4"/>
+      <c r="J341" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="K341" s="4"/>
-    </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L341" s="4"/>
+    </row>
+    <row r="342" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A342" s="1">
         <v>342</v>
       </c>
@@ -11956,14 +12325,15 @@
       <c r="E342" s="2"/>
       <c r="F342" s="2"/>
       <c r="G342" s="2"/>
-      <c r="H342" s="4"/>
-      <c r="I342" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="J342" s="4"/>
+      <c r="H342" s="2"/>
+      <c r="I342" s="4"/>
+      <c r="J342" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="K342" s="4"/>
-    </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L342" s="4"/>
+    </row>
+    <row r="343" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A343" s="1">
         <v>343</v>
       </c>
@@ -11979,12 +12349,13 @@
       <c r="E343" s="2"/>
       <c r="F343" s="2"/>
       <c r="G343" s="2"/>
-      <c r="H343" s="4"/>
+      <c r="H343" s="2"/>
       <c r="I343" s="4"/>
       <c r="J343" s="4"/>
       <c r="K343" s="4"/>
-    </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L343" s="4"/>
+    </row>
+    <row r="344" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A344" s="1">
         <v>344</v>
       </c>
@@ -12000,12 +12371,13 @@
       <c r="E344" s="2"/>
       <c r="F344" s="2"/>
       <c r="G344" s="2"/>
-      <c r="H344" s="4"/>
+      <c r="H344" s="2"/>
       <c r="I344" s="4"/>
       <c r="J344" s="4"/>
       <c r="K344" s="4"/>
-    </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L344" s="4"/>
+    </row>
+    <row r="345" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A345" s="1">
         <v>345</v>
       </c>
@@ -12021,12 +12393,13 @@
       <c r="E345" s="2"/>
       <c r="F345" s="2"/>
       <c r="G345" s="2"/>
-      <c r="H345" s="4"/>
+      <c r="H345" s="2"/>
       <c r="I345" s="4"/>
       <c r="J345" s="4"/>
       <c r="K345" s="4"/>
-    </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L345" s="4"/>
+    </row>
+    <row r="346" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A346" s="1">
         <v>346</v>
       </c>
@@ -12042,12 +12415,13 @@
       <c r="E346" s="2"/>
       <c r="F346" s="2"/>
       <c r="G346" s="2"/>
-      <c r="H346" s="4"/>
+      <c r="H346" s="2"/>
       <c r="I346" s="4"/>
       <c r="J346" s="4"/>
       <c r="K346" s="4"/>
-    </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L346" s="4"/>
+    </row>
+    <row r="347" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A347" s="1">
         <v>347</v>
       </c>
@@ -12063,16 +12437,17 @@
       <c r="E347" s="2"/>
       <c r="F347" s="2"/>
       <c r="G347" s="2"/>
-      <c r="H347" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I347" s="4"/>
+      <c r="H347" s="2"/>
+      <c r="I347" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="J347" s="4"/>
-      <c r="K347" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K347" s="4"/>
+      <c r="L347" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="348" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A348" s="1">
         <v>348</v>
       </c>
@@ -12088,14 +12463,15 @@
       <c r="E348" s="2"/>
       <c r="F348" s="2"/>
       <c r="G348" s="2"/>
-      <c r="H348" s="4"/>
+      <c r="H348" s="2"/>
       <c r="I348" s="4"/>
-      <c r="J348" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="K348" s="4"/>
-    </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J348" s="4"/>
+      <c r="K348" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L348" s="4"/>
+    </row>
+    <row r="349" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A349" s="1">
         <v>349</v>
       </c>
@@ -12111,18 +12487,19 @@
       <c r="E349" s="2"/>
       <c r="F349" s="2"/>
       <c r="G349" s="2"/>
-      <c r="H349" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I349" s="4"/>
-      <c r="J349" s="4" t="s">
-        <v>18</v>
-      </c>
+      <c r="H349" s="2"/>
+      <c r="I349" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J349" s="4"/>
       <c r="K349" s="4" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L349" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="350" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A350" s="1">
         <v>350</v>
       </c>
@@ -12138,12 +12515,13 @@
       <c r="E350" s="2"/>
       <c r="F350" s="2"/>
       <c r="G350" s="2"/>
-      <c r="H350" s="4"/>
+      <c r="H350" s="2"/>
       <c r="I350" s="4"/>
       <c r="J350" s="4"/>
       <c r="K350" s="4"/>
-    </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L350" s="4"/>
+    </row>
+    <row r="351" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A351" s="1">
         <v>351</v>
       </c>
@@ -12159,14 +12537,15 @@
       <c r="E351" s="2"/>
       <c r="F351" s="2"/>
       <c r="G351" s="2"/>
-      <c r="H351" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I351" s="4"/>
+      <c r="H351" s="2"/>
+      <c r="I351" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="J351" s="4"/>
       <c r="K351" s="4"/>
-    </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L351" s="4"/>
+    </row>
+    <row r="352" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A352" s="1">
         <v>352</v>
       </c>
@@ -12182,12 +12561,13 @@
       <c r="E352" s="2"/>
       <c r="F352" s="2"/>
       <c r="G352" s="2"/>
-      <c r="H352" s="4"/>
+      <c r="H352" s="2"/>
       <c r="I352" s="4"/>
       <c r="J352" s="4"/>
       <c r="K352" s="4"/>
-    </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L352" s="4"/>
+    </row>
+    <row r="353" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A353" s="1">
         <v>353</v>
       </c>
@@ -12203,18 +12583,19 @@
       <c r="E353" s="2"/>
       <c r="F353" s="2"/>
       <c r="G353" s="2"/>
-      <c r="H353" s="4" t="s">
-        <v>18</v>
-      </c>
+      <c r="H353" s="2"/>
       <c r="I353" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="J353" s="4"/>
-      <c r="K353" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J353" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K353" s="4"/>
+      <c r="L353" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="354" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A354" s="1">
         <v>354</v>
       </c>
@@ -12230,16 +12611,17 @@
       <c r="E354" s="2"/>
       <c r="F354" s="2"/>
       <c r="G354" s="2"/>
-      <c r="H354" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I354" s="4"/>
+      <c r="H354" s="2"/>
+      <c r="I354" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="J354" s="4"/>
-      <c r="K354" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K354" s="4"/>
+      <c r="L354" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="355" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A355" s="1">
         <v>355</v>
       </c>
@@ -12255,16 +12637,17 @@
       <c r="E355" s="2"/>
       <c r="F355" s="2"/>
       <c r="G355" s="2"/>
-      <c r="H355" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I355" s="4"/>
+      <c r="H355" s="2"/>
+      <c r="I355" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="J355" s="4"/>
-      <c r="K355" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K355" s="4"/>
+      <c r="L355" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="356" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A356" s="1">
         <v>356</v>
       </c>
@@ -12280,16 +12663,17 @@
       <c r="E356" s="2"/>
       <c r="F356" s="2"/>
       <c r="G356" s="2"/>
-      <c r="H356" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I356" s="4"/>
-      <c r="J356" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="K356" s="4"/>
-    </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H356" s="2"/>
+      <c r="I356" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J356" s="4"/>
+      <c r="K356" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L356" s="4"/>
+    </row>
+    <row r="357" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A357" s="1">
         <v>357</v>
       </c>
@@ -12305,14 +12689,15 @@
       <c r="E357" s="2"/>
       <c r="F357" s="2"/>
       <c r="G357" s="2"/>
-      <c r="H357" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I357" s="4"/>
+      <c r="H357" s="2"/>
+      <c r="I357" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="J357" s="4"/>
       <c r="K357" s="4"/>
-    </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L357" s="4"/>
+    </row>
+    <row r="358" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A358" s="1">
         <v>358</v>
       </c>
@@ -12326,7 +12711,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A359" s="1">
         <v>359</v>
       </c>
@@ -12340,7 +12725,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A360" s="1">
         <v>360</v>
       </c>
@@ -12354,7 +12739,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A361" s="1">
         <v>361</v>
       </c>
@@ -12368,7 +12753,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A362" s="1">
         <v>362</v>
       </c>
@@ -12382,7 +12767,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A363" s="1">
         <v>363</v>
       </c>
@@ -12396,7 +12781,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A364" s="1">
         <v>364</v>
       </c>
@@ -12410,7 +12795,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A365" s="1">
         <v>365</v>
       </c>
@@ -12424,7 +12809,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A366" s="1">
         <v>366</v>
       </c>
@@ -12438,7 +12823,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A367" s="1">
         <v>367</v>
       </c>
@@ -12452,7 +12837,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A368" s="1">
         <v>368</v>
       </c>
